--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\fuels\BFPIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-texas\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445" tabRatio="684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -21,28 +21,19 @@
     <sheet name="Uranium, Coal, MSW, Hydrogen" sheetId="8" r:id="rId7"/>
     <sheet name="AEO Table 73" sheetId="15" r:id="rId8"/>
     <sheet name="GREET1 Fuel_Specs" sheetId="16" r:id="rId9"/>
-    <sheet name="Start Year Data" sheetId="9" r:id="rId10"/>
-    <sheet name="Time Series Scaling Factors" sheetId="18" r:id="rId11"/>
-    <sheet name="BFPIaE-production" sheetId="12" r:id="rId12"/>
-    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId13"/>
-    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId14"/>
+    <sheet name="BAU Lignite Consumption" sheetId="25" r:id="rId10"/>
+    <sheet name="Start Year Data" sheetId="9" r:id="rId11"/>
+    <sheet name="Time Series Scaling Factors" sheetId="18" r:id="rId12"/>
+    <sheet name="BFPIaE-production" sheetId="12" r:id="rId13"/>
+    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId14"/>
+    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="tx_exp_multiplier">Texas_Petroleum_Fractions!$D$18</definedName>
     <definedName name="tx_imp_multiplier">Texas_Petroleum_Fractions!$E$23</definedName>
     <definedName name="tx_multiplier">'Petroleum and Biofuel Data'!$O$6</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1197,7 +1188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="746">
   <si>
     <t>Source:</t>
   </si>
@@ -3417,6 +3408,24 @@
   </si>
   <si>
     <t>https://www.eia.gov/tools/faqs/faq.php?id=45&amp;t=8</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total Lignite Consumption [millions of short tons / year]</t>
+  </si>
+  <si>
+    <t>Total Lignite consumption, BAU</t>
+  </si>
+  <si>
+    <t>all lignite consumption in TX is for electric sector, and we neither import nor export lignite</t>
+  </si>
+  <si>
+    <t>so match lignite production to consumption to be consistent with assumption that, in response to decreased consumption, we reduce production (instead of exporting)</t>
+  </si>
+  <si>
+    <t>From BTU Conversion Factors (BTU/short ton)</t>
   </si>
 </sst>
 </file>
@@ -4088,7 +4097,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4665,6 +4674,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4716,8 +4734,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Body: normal cell" xfId="7"/>
@@ -5947,10 +5963,10 @@
       </c>
     </row>
     <row r="170" spans="1:2" ht="64.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A170" s="286" t="s">
+      <c r="A170" s="291" t="s">
         <v>737</v>
       </c>
-      <c r="B170" s="286"/>
+      <c r="B170" s="291"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" s="5"/>
@@ -6111,6 +6127,760 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AI49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="35" width="11.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="289" t="s">
+        <v>740</v>
+      </c>
+      <c r="B6" s="289" t="s">
+        <v>741</v>
+      </c>
+      <c r="C6" s="290" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7">
+        <v>39.172400000000003</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C38" si="0">B7*$C$42</f>
+        <v>502190167999999.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8">
+        <v>37.455800000000004</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>480183356000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9">
+        <v>34.472200000000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>441933603999999.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10">
+        <v>32.351599999999998</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>414747511999999.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11">
+        <v>30.438400000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>390220287999999.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12">
+        <v>28.2408</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>362047055999999.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2025</v>
+      </c>
+      <c r="B13">
+        <v>25.800999999999998</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>330768819999999.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2026</v>
+      </c>
+      <c r="B14">
+        <v>23.247399999999999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>298031667999999.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2027</v>
+      </c>
+      <c r="B15">
+        <v>20.683900000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>265167597999999.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2028</v>
+      </c>
+      <c r="B16">
+        <v>18.118500000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>232279169999999.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2029</v>
+      </c>
+      <c r="B17">
+        <v>15.5412</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>199238183999999.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2030</v>
+      </c>
+      <c r="B18">
+        <v>12.9641</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>166199761999999.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2031</v>
+      </c>
+      <c r="B19">
+        <v>10.3843</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>133126725999999.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2032</v>
+      </c>
+      <c r="B20">
+        <v>7.8046199999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>100055228399999.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2033</v>
+      </c>
+      <c r="B21">
+        <v>5.22309</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>66960013799999.992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2034</v>
+      </c>
+      <c r="B22">
+        <v>2.6408200000000002</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>33855312399999.996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2035</v>
+      </c>
+      <c r="B23">
+        <v>5.79929E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>743468977999.99988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2036</v>
+      </c>
+      <c r="B24">
+        <v>5.27001E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>675615281999.99988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2037</v>
+      </c>
+      <c r="B25">
+        <v>5.2701199999999997E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>675629383999.99988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2038</v>
+      </c>
+      <c r="B26">
+        <v>5.2706099999999999E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>675692201999.99988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2039</v>
+      </c>
+      <c r="B27">
+        <v>5.2711099999999997E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>675756301999.99988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2040</v>
+      </c>
+      <c r="B28">
+        <v>5.2715999999999999E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>675819119999.99988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2041</v>
+      </c>
+      <c r="B29">
+        <v>5.2720900000000001E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>675881937999.99988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2042</v>
+      </c>
+      <c r="B30">
+        <v>5.2725899999999999E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>675946037999.99988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2043</v>
+      </c>
+      <c r="B31">
+        <v>5.2730800000000001E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>676008855999.99988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2044</v>
+      </c>
+      <c r="B32">
+        <v>5.2735799999999999E-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>676072955999.99988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2045</v>
+      </c>
+      <c r="B33">
+        <v>5.2740700000000001E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>676135773999.99988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2046</v>
+      </c>
+      <c r="B34">
+        <v>5.2745599999999997E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>676198591999.99988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2047</v>
+      </c>
+      <c r="B35">
+        <v>5.2750499999999999E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>676261409999.99988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2048</v>
+      </c>
+      <c r="B36">
+        <v>5.2755499999999997E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>676325509999.99988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2049</v>
+      </c>
+      <c r="B37">
+        <v>5.2760399999999999E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>676388327999.99988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2050</v>
+      </c>
+      <c r="B38">
+        <v>5.2765300000000001E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>676451145999.99988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42">
+        <v>12819999999999.998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="C47" t="str">
+        <f t="array" ref="C47:AI49">TRANSPOSE(A6:C38)</f>
+        <v>Year</v>
+      </c>
+      <c r="D47">
+        <v>2019</v>
+      </c>
+      <c r="E47">
+        <v>2020</v>
+      </c>
+      <c r="F47">
+        <v>2021</v>
+      </c>
+      <c r="G47">
+        <v>2022</v>
+      </c>
+      <c r="H47">
+        <v>2023</v>
+      </c>
+      <c r="I47">
+        <v>2024</v>
+      </c>
+      <c r="J47">
+        <v>2025</v>
+      </c>
+      <c r="K47">
+        <v>2026</v>
+      </c>
+      <c r="L47">
+        <v>2027</v>
+      </c>
+      <c r="M47">
+        <v>2028</v>
+      </c>
+      <c r="N47">
+        <v>2029</v>
+      </c>
+      <c r="O47">
+        <v>2030</v>
+      </c>
+      <c r="P47">
+        <v>2031</v>
+      </c>
+      <c r="Q47">
+        <v>2032</v>
+      </c>
+      <c r="R47">
+        <v>2033</v>
+      </c>
+      <c r="S47">
+        <v>2034</v>
+      </c>
+      <c r="T47">
+        <v>2035</v>
+      </c>
+      <c r="U47">
+        <v>2036</v>
+      </c>
+      <c r="V47">
+        <v>2037</v>
+      </c>
+      <c r="W47">
+        <v>2038</v>
+      </c>
+      <c r="X47">
+        <v>2039</v>
+      </c>
+      <c r="Y47">
+        <v>2040</v>
+      </c>
+      <c r="Z47">
+        <v>2041</v>
+      </c>
+      <c r="AA47">
+        <v>2042</v>
+      </c>
+      <c r="AB47">
+        <v>2043</v>
+      </c>
+      <c r="AC47">
+        <v>2044</v>
+      </c>
+      <c r="AD47">
+        <v>2045</v>
+      </c>
+      <c r="AE47">
+        <v>2046</v>
+      </c>
+      <c r="AF47">
+        <v>2047</v>
+      </c>
+      <c r="AG47">
+        <v>2048</v>
+      </c>
+      <c r="AH47">
+        <v>2049</v>
+      </c>
+      <c r="AI47">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C48" s="265" t="str">
+        <v>Total Lignite Consumption [millions of short tons / year]</v>
+      </c>
+      <c r="D48">
+        <v>39.172400000000003</v>
+      </c>
+      <c r="E48">
+        <v>37.455800000000004</v>
+      </c>
+      <c r="F48">
+        <v>34.472200000000001</v>
+      </c>
+      <c r="G48">
+        <v>32.351599999999998</v>
+      </c>
+      <c r="H48">
+        <v>30.438400000000001</v>
+      </c>
+      <c r="I48">
+        <v>28.2408</v>
+      </c>
+      <c r="J48">
+        <v>25.800999999999998</v>
+      </c>
+      <c r="K48">
+        <v>23.247399999999999</v>
+      </c>
+      <c r="L48">
+        <v>20.683900000000001</v>
+      </c>
+      <c r="M48">
+        <v>18.118500000000001</v>
+      </c>
+      <c r="N48">
+        <v>15.5412</v>
+      </c>
+      <c r="O48">
+        <v>12.9641</v>
+      </c>
+      <c r="P48">
+        <v>10.3843</v>
+      </c>
+      <c r="Q48">
+        <v>7.8046199999999999</v>
+      </c>
+      <c r="R48">
+        <v>5.22309</v>
+      </c>
+      <c r="S48">
+        <v>2.6408200000000002</v>
+      </c>
+      <c r="T48">
+        <v>5.79929E-2</v>
+      </c>
+      <c r="U48">
+        <v>5.27001E-2</v>
+      </c>
+      <c r="V48">
+        <v>5.2701199999999997E-2</v>
+      </c>
+      <c r="W48">
+        <v>5.2706099999999999E-2</v>
+      </c>
+      <c r="X48">
+        <v>5.2711099999999997E-2</v>
+      </c>
+      <c r="Y48">
+        <v>5.2715999999999999E-2</v>
+      </c>
+      <c r="Z48">
+        <v>5.2720900000000001E-2</v>
+      </c>
+      <c r="AA48">
+        <v>5.2725899999999999E-2</v>
+      </c>
+      <c r="AB48">
+        <v>5.2730800000000001E-2</v>
+      </c>
+      <c r="AC48">
+        <v>5.2735799999999999E-2</v>
+      </c>
+      <c r="AD48">
+        <v>5.2740700000000001E-2</v>
+      </c>
+      <c r="AE48">
+        <v>5.2745599999999997E-2</v>
+      </c>
+      <c r="AF48">
+        <v>5.2750499999999999E-2</v>
+      </c>
+      <c r="AG48">
+        <v>5.2755499999999997E-2</v>
+      </c>
+      <c r="AH48">
+        <v>5.2760399999999999E-2</v>
+      </c>
+      <c r="AI48">
+        <v>5.2765300000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:35" x14ac:dyDescent="0.45">
+      <c r="C49" t="str">
+        <v>BTU</v>
+      </c>
+      <c r="D49">
+        <v>502190167999999.94</v>
+      </c>
+      <c r="E49">
+        <v>480183356000000</v>
+      </c>
+      <c r="F49">
+        <v>441933603999999.94</v>
+      </c>
+      <c r="G49">
+        <v>414747511999999.94</v>
+      </c>
+      <c r="H49">
+        <v>390220287999999.94</v>
+      </c>
+      <c r="I49">
+        <v>362047055999999.94</v>
+      </c>
+      <c r="J49">
+        <v>330768819999999.94</v>
+      </c>
+      <c r="K49">
+        <v>298031667999999.94</v>
+      </c>
+      <c r="L49">
+        <v>265167597999999.97</v>
+      </c>
+      <c r="M49">
+        <v>232279169999999.97</v>
+      </c>
+      <c r="N49">
+        <v>199238183999999.97</v>
+      </c>
+      <c r="O49">
+        <v>166199761999999.97</v>
+      </c>
+      <c r="P49">
+        <v>133126725999999.97</v>
+      </c>
+      <c r="Q49">
+        <v>100055228399999.98</v>
+      </c>
+      <c r="R49">
+        <v>66960013799999.992</v>
+      </c>
+      <c r="S49">
+        <v>33855312399999.996</v>
+      </c>
+      <c r="T49">
+        <v>743468977999.99988</v>
+      </c>
+      <c r="U49">
+        <v>675615281999.99988</v>
+      </c>
+      <c r="V49">
+        <v>675629383999.99988</v>
+      </c>
+      <c r="W49">
+        <v>675692201999.99988</v>
+      </c>
+      <c r="X49">
+        <v>675756301999.99988</v>
+      </c>
+      <c r="Y49">
+        <v>675819119999.99988</v>
+      </c>
+      <c r="Z49">
+        <v>675881937999.99988</v>
+      </c>
+      <c r="AA49">
+        <v>675946037999.99988</v>
+      </c>
+      <c r="AB49">
+        <v>676008855999.99988</v>
+      </c>
+      <c r="AC49">
+        <v>676072955999.99988</v>
+      </c>
+      <c r="AD49">
+        <v>676135773999.99988</v>
+      </c>
+      <c r="AE49">
+        <v>676198591999.99988</v>
+      </c>
+      <c r="AF49">
+        <v>676261409999.99988</v>
+      </c>
+      <c r="AG49">
+        <v>676325509999.99988</v>
+      </c>
+      <c r="AH49">
+        <v>676388327999.99988</v>
+      </c>
+      <c r="AI49">
+        <v>676451145999.99988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6311,13 +7081,13 @@
       <c r="F10" s="247" t="s">
         <v>228</v>
       </c>
-      <c r="H10" s="302" t="s">
+      <c r="H10" s="307" t="s">
         <v>738</v>
       </c>
-      <c r="I10" s="302"/>
-      <c r="J10" s="302"/>
-      <c r="K10" s="302"/>
-      <c r="L10" s="302"/>
+      <c r="I10" s="307"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="307"/>
+      <c r="L10" s="307"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="35" t="s">
@@ -6342,11 +7112,11 @@
       <c r="F11" s="247" t="s">
         <v>228</v>
       </c>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="302"/>
-      <c r="L11" s="302"/>
+      <c r="H11" s="307"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="307"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="35" t="s">
@@ -6705,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="242">
-        <f t="shared" ref="C28:E29" si="3">C5*$H29</f>
+        <f t="shared" ref="C29:E29" si="3">C5*$H29</f>
         <v>387781818181818.19</v>
       </c>
       <c r="D29" s="242">
@@ -7208,7 +7978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7216,7 +7986,7 @@
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15630,15 +16400,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B44"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17882,132 +18652,132 @@
         <v>436564823160131.69</v>
       </c>
       <c r="D17">
-        <f>$B17*'Time Series Scaling Factors'!D18</f>
-        <v>424803093376203.75</v>
+        <f>'BAU Lignite Consumption'!D49</f>
+        <v>502190167999999.94</v>
       </c>
       <c r="E17">
-        <f>$B17*'Time Series Scaling Factors'!E18</f>
-        <v>406548367456822.25</v>
+        <f>'BAU Lignite Consumption'!E49</f>
+        <v>480183356000000</v>
       </c>
       <c r="F17">
-        <f>$B17*'Time Series Scaling Factors'!F18</f>
-        <v>389850448685403.56</v>
+        <f>'BAU Lignite Consumption'!F49</f>
+        <v>441933603999999.94</v>
       </c>
       <c r="G17">
-        <f>$B17*'Time Series Scaling Factors'!G18</f>
-        <v>392056968240928.94</v>
+        <f>'BAU Lignite Consumption'!G49</f>
+        <v>414747511999999.94</v>
       </c>
       <c r="H17">
-        <f>$B17*'Time Series Scaling Factors'!H18</f>
-        <v>394373664452116.44</v>
+        <f>'BAU Lignite Consumption'!H49</f>
+        <v>390220287999999.94</v>
       </c>
       <c r="I17">
-        <f>$B17*'Time Series Scaling Factors'!I18</f>
-        <v>403180393091173.19</v>
+        <f>'BAU Lignite Consumption'!I49</f>
+        <v>362047055999999.94</v>
       </c>
       <c r="J17">
-        <f>$B17*'Time Series Scaling Factors'!J18</f>
-        <v>405067237461403.63</v>
+        <f>'BAU Lignite Consumption'!J49</f>
+        <v>330768819999999.94</v>
       </c>
       <c r="K17">
-        <f>$B17*'Time Series Scaling Factors'!K18</f>
-        <v>406585754084351.19</v>
+        <f>'BAU Lignite Consumption'!K49</f>
+        <v>298031667999999.94</v>
       </c>
       <c r="L17">
-        <f>$B17*'Time Series Scaling Factors'!L18</f>
-        <v>406069955280768.44</v>
+        <f>'BAU Lignite Consumption'!L49</f>
+        <v>265167597999999.97</v>
       </c>
       <c r="M17">
-        <f>$B17*'Time Series Scaling Factors'!M18</f>
-        <v>403006928567295.56</v>
+        <f>'BAU Lignite Consumption'!M49</f>
+        <v>232279169999999.97</v>
       </c>
       <c r="N17">
-        <f>$B17*'Time Series Scaling Factors'!N18</f>
-        <v>416396139717900.5</v>
+        <f>'BAU Lignite Consumption'!N49</f>
+        <v>199238183999999.97</v>
       </c>
       <c r="O17">
-        <f>$B17*'Time Series Scaling Factors'!O18</f>
-        <v>418790887553560.69</v>
+        <f>'BAU Lignite Consumption'!O49</f>
+        <v>166199761999999.97</v>
       </c>
       <c r="P17">
-        <f>$B17*'Time Series Scaling Factors'!P18</f>
-        <v>416251625782093</v>
+        <f>'BAU Lignite Consumption'!P49</f>
+        <v>133126725999999.97</v>
       </c>
       <c r="Q17">
-        <f>$B17*'Time Series Scaling Factors'!Q18</f>
-        <v>410773148149016.56</v>
+        <f>'BAU Lignite Consumption'!Q49</f>
+        <v>100055228399999.98</v>
       </c>
       <c r="R17">
-        <f>$B17*'Time Series Scaling Factors'!R18</f>
-        <v>412479784699531.88</v>
+        <f>'BAU Lignite Consumption'!R49</f>
+        <v>66960013799999.992</v>
       </c>
       <c r="S17">
-        <f>$B17*'Time Series Scaling Factors'!S18</f>
-        <v>404781795579222.69</v>
+        <f>'BAU Lignite Consumption'!S49</f>
+        <v>33855312399999.996</v>
       </c>
       <c r="T17">
-        <f>$B17*'Time Series Scaling Factors'!T18</f>
-        <v>407054447818272.19</v>
+        <f>'BAU Lignite Consumption'!T49</f>
+        <v>743468977999.99988</v>
       </c>
       <c r="U17">
-        <f>$B17*'Time Series Scaling Factors'!U18</f>
-        <v>410338620092400.06</v>
+        <f>'BAU Lignite Consumption'!U49</f>
+        <v>675615281999.99988</v>
       </c>
       <c r="V17">
-        <f>$B17*'Time Series Scaling Factors'!V18</f>
-        <v>410910940853234.38</v>
+        <f>'BAU Lignite Consumption'!V49</f>
+        <v>675629383999.99988</v>
       </c>
       <c r="W17">
-        <f>$B17*'Time Series Scaling Factors'!W18</f>
-        <v>413664479434743.63</v>
+        <f>'BAU Lignite Consumption'!W49</f>
+        <v>675692201999.99988</v>
       </c>
       <c r="X17">
-        <f>$B17*'Time Series Scaling Factors'!X18</f>
-        <v>416151908872286.06</v>
+        <f>'BAU Lignite Consumption'!X49</f>
+        <v>675756301999.99988</v>
       </c>
       <c r="Y17">
-        <f>$B17*'Time Series Scaling Factors'!Y18</f>
-        <v>418070012023319.06</v>
+        <f>'BAU Lignite Consumption'!Y49</f>
+        <v>675819119999.99988</v>
       </c>
       <c r="Z17">
-        <f>$B17*'Time Series Scaling Factors'!Z18</f>
-        <v>419601436853987.31</v>
+        <f>'BAU Lignite Consumption'!Z49</f>
+        <v>675881937999.99988</v>
       </c>
       <c r="AA17">
-        <f>$B17*'Time Series Scaling Factors'!AA18</f>
-        <v>420209473096189.44</v>
+        <f>'BAU Lignite Consumption'!AA49</f>
+        <v>675946037999.99988</v>
       </c>
       <c r="AB17">
-        <f>$B17*'Time Series Scaling Factors'!AB18</f>
-        <v>419911958238866.06</v>
+        <f>'BAU Lignite Consumption'!AB49</f>
+        <v>676008855999.99988</v>
       </c>
       <c r="AC17">
-        <f>$B17*'Time Series Scaling Factors'!AC18</f>
-        <v>422904341413456.88</v>
+        <f>'BAU Lignite Consumption'!AC49</f>
+        <v>676072955999.99988</v>
       </c>
       <c r="AD17">
-        <f>$B17*'Time Series Scaling Factors'!AD18</f>
-        <v>428879489021220.19</v>
+        <f>'BAU Lignite Consumption'!AD49</f>
+        <v>676135773999.99988</v>
       </c>
       <c r="AE17">
-        <f>$B17*'Time Series Scaling Factors'!AE18</f>
-        <v>427279930918012</v>
+        <f>'BAU Lignite Consumption'!AE49</f>
+        <v>676198591999.99988</v>
       </c>
       <c r="AF17">
-        <f ca="1">$B17*'Time Series Scaling Factors'!AF18</f>
-        <v>430223832865194.13</v>
+        <f>'BAU Lignite Consumption'!AF49</f>
+        <v>676261409999.99988</v>
       </c>
       <c r="AG17">
-        <f ca="1">$B17*'Time Series Scaling Factors'!AG18</f>
-        <v>434160342989806.88</v>
+        <f>'BAU Lignite Consumption'!AG49</f>
+        <v>676325509999.99988</v>
       </c>
       <c r="AH17">
-        <f ca="1">$B17*'Time Series Scaling Factors'!AH18</f>
-        <v>437408881266739.63</v>
+        <f>'BAU Lignite Consumption'!AH49</f>
+        <v>676388327999.99988</v>
       </c>
       <c r="AI17">
-        <f ca="1">$B17*'Time Series Scaling Factors'!AI18</f>
-        <v>440899920894282</v>
+        <f>'BAU Lignite Consumption'!AI49</f>
+        <v>676451145999.99988</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
@@ -18720,3266 +19490,87 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24" s="33"/>
-      <c r="B24" s="303"/>
+      <c r="B24" s="286"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A25" s="34"/>
-      <c r="B25" s="303"/>
+      <c r="B25" s="286"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A26" s="34"/>
-      <c r="B26" s="303"/>
+      <c r="B26" s="286"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" s="34"/>
-      <c r="B27" s="303"/>
+      <c r="B27" s="286"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="34"/>
-      <c r="B28" s="303"/>
+      <c r="B28" s="286"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" s="34"/>
-      <c r="B29" s="303"/>
+      <c r="B29" s="286"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" s="34"/>
-      <c r="B30" s="303"/>
+      <c r="B30" s="286"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" s="34"/>
-      <c r="B31" s="303"/>
+      <c r="B31" s="286"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" s="34"/>
-      <c r="B32" s="303"/>
+      <c r="B32" s="286"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="34"/>
-      <c r="B33" s="303"/>
+      <c r="B33" s="286"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="34"/>
-      <c r="B34" s="303"/>
+      <c r="B34" s="286"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="34"/>
-      <c r="B35" s="303"/>
+      <c r="B35" s="286"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="34"/>
-      <c r="B36" s="303"/>
+      <c r="B36" s="286"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="34"/>
-      <c r="B37" s="303"/>
+      <c r="B37" s="286"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="34"/>
-      <c r="B38" s="303"/>
+      <c r="B38" s="286"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="34"/>
-      <c r="B39" s="303"/>
+      <c r="B39" s="286"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="34"/>
-      <c r="B40" s="303"/>
+      <c r="B40" s="286"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="34"/>
-      <c r="B41" s="303"/>
+      <c r="B41" s="286"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="34"/>
-      <c r="B42" s="303"/>
+      <c r="B42" s="286"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="34"/>
-      <c r="B43" s="303"/>
+      <c r="B43" s="286"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="34"/>
-      <c r="B44" s="303"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AI44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13" style="32" customWidth="1"/>
-    <col min="3" max="35" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1" s="237">
-        <v>2017</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="237">
-        <v>2019</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F1" s="237">
-        <v>2021</v>
-      </c>
-      <c r="G1" s="5">
-        <v>2022</v>
-      </c>
-      <c r="H1" s="237">
-        <v>2023</v>
-      </c>
-      <c r="I1" s="5">
-        <v>2024</v>
-      </c>
-      <c r="J1" s="237">
-        <v>2025</v>
-      </c>
-      <c r="K1" s="5">
-        <v>2026</v>
-      </c>
-      <c r="L1" s="237">
-        <v>2027</v>
-      </c>
-      <c r="M1" s="5">
-        <v>2028</v>
-      </c>
-      <c r="N1" s="237">
-        <v>2029</v>
-      </c>
-      <c r="O1" s="5">
-        <v>2030</v>
-      </c>
-      <c r="P1" s="237">
-        <v>2031</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>2032</v>
-      </c>
-      <c r="R1" s="237">
-        <v>2033</v>
-      </c>
-      <c r="S1" s="5">
-        <v>2034</v>
-      </c>
-      <c r="T1" s="237">
-        <v>2035</v>
-      </c>
-      <c r="U1" s="5">
-        <v>2036</v>
-      </c>
-      <c r="V1" s="237">
-        <v>2037</v>
-      </c>
-      <c r="W1" s="5">
-        <v>2038</v>
-      </c>
-      <c r="X1" s="237">
-        <v>2039</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>2040</v>
-      </c>
-      <c r="Z1" s="237">
-        <v>2041</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>2042</v>
-      </c>
-      <c r="AB1" s="237">
-        <v>2043</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>2044</v>
-      </c>
-      <c r="AD1" s="237">
-        <v>2045</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>2046</v>
-      </c>
-      <c r="AF1" s="237">
-        <v>2047</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>2048</v>
-      </c>
-      <c r="AH1" s="237">
-        <v>2049</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="32">
-        <f>'Start Year Data'!C26</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>$B2*'Time Series Scaling Factors'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>$B2*'Time Series Scaling Factors'!D28</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>$B2*'Time Series Scaling Factors'!E28</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>$B2*'Time Series Scaling Factors'!F28</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>$B2*'Time Series Scaling Factors'!G28</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>$B2*'Time Series Scaling Factors'!H28</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>$B2*'Time Series Scaling Factors'!I28</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>$B2*'Time Series Scaling Factors'!J28</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>$B2*'Time Series Scaling Factors'!K28</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>$B2*'Time Series Scaling Factors'!L28</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f>$B2*'Time Series Scaling Factors'!M28</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>$B2*'Time Series Scaling Factors'!N28</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>$B2*'Time Series Scaling Factors'!O28</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>$B2*'Time Series Scaling Factors'!P28</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>$B2*'Time Series Scaling Factors'!Q28</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>$B2*'Time Series Scaling Factors'!R28</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f>$B2*'Time Series Scaling Factors'!S28</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f>$B2*'Time Series Scaling Factors'!T28</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>$B2*'Time Series Scaling Factors'!U28</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f>$B2*'Time Series Scaling Factors'!V28</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>$B2*'Time Series Scaling Factors'!W28</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f>$B2*'Time Series Scaling Factors'!X28</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f>$B2*'Time Series Scaling Factors'!Y28</f>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f>$B2*'Time Series Scaling Factors'!Z28</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f>$B2*'Time Series Scaling Factors'!AA28</f>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f>$B2*'Time Series Scaling Factors'!AB28</f>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>$B2*'Time Series Scaling Factors'!AC28</f>
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <f>$B2*'Time Series Scaling Factors'!AD28</f>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f>$B2*'Time Series Scaling Factors'!AE28</f>
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <f>$B2*'Time Series Scaling Factors'!AF28</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>$B2*'Time Series Scaling Factors'!AG28</f>
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <f>$B2*'Time Series Scaling Factors'!AH28</f>
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <f>$B2*'Time Series Scaling Factors'!AI28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="32">
-        <f>'Start Year Data'!C27</f>
-        <v>998502681000000</v>
-      </c>
-      <c r="C3">
-        <f>$B3*'Time Series Scaling Factors'!C29</f>
-        <v>1018282144565643.1</v>
-      </c>
-      <c r="D3">
-        <f>$B3*'Time Series Scaling Factors'!D29</f>
-        <v>1060080949209916.4</v>
-      </c>
-      <c r="E3">
-        <f>$B3*'Time Series Scaling Factors'!E29</f>
-        <v>1065677887608703.5</v>
-      </c>
-      <c r="F3">
-        <f>$B3*'Time Series Scaling Factors'!F29</f>
-        <v>971866231102597.25</v>
-      </c>
-      <c r="G3">
-        <f>$B3*'Time Series Scaling Factors'!G29</f>
-        <v>880232842533501.88</v>
-      </c>
-      <c r="H3">
-        <f>$B3*'Time Series Scaling Factors'!H29</f>
-        <v>842090590768918.63</v>
-      </c>
-      <c r="I3">
-        <f>$B3*'Time Series Scaling Factors'!I29</f>
-        <v>808780728792664.38</v>
-      </c>
-      <c r="J3">
-        <f>$B3*'Time Series Scaling Factors'!J29</f>
-        <v>791918489885544</v>
-      </c>
-      <c r="K3">
-        <f>$B3*'Time Series Scaling Factors'!K29</f>
-        <v>771759562859836.13</v>
-      </c>
-      <c r="L3">
-        <f>$B3*'Time Series Scaling Factors'!L29</f>
-        <v>785560885684505.75</v>
-      </c>
-      <c r="M3">
-        <f>$B3*'Time Series Scaling Factors'!M29</f>
-        <v>825921425110547.38</v>
-      </c>
-      <c r="N3">
-        <f>$B3*'Time Series Scaling Factors'!N29</f>
-        <v>825827100907835.5</v>
-      </c>
-      <c r="O3">
-        <f>$B3*'Time Series Scaling Factors'!O29</f>
-        <v>838005581827483</v>
-      </c>
-      <c r="P3">
-        <f>$B3*'Time Series Scaling Factors'!P29</f>
-        <v>819377261303975.5</v>
-      </c>
-      <c r="Q3">
-        <f>$B3*'Time Series Scaling Factors'!Q29</f>
-        <v>845594350778618.75</v>
-      </c>
-      <c r="R3">
-        <f>$B3*'Time Series Scaling Factors'!R29</f>
-        <v>851622617211413.88</v>
-      </c>
-      <c r="S3">
-        <f>$B3*'Time Series Scaling Factors'!S29</f>
-        <v>882201696006144.63</v>
-      </c>
-      <c r="T3">
-        <f>$B3*'Time Series Scaling Factors'!T29</f>
-        <v>865725562904885</v>
-      </c>
-      <c r="U3">
-        <f>$B3*'Time Series Scaling Factors'!U29</f>
-        <v>871235022707615.5</v>
-      </c>
-      <c r="V3">
-        <f>$B3*'Time Series Scaling Factors'!V29</f>
-        <v>877692859041075.75</v>
-      </c>
-      <c r="W3">
-        <f>$B3*'Time Series Scaling Factors'!W29</f>
-        <v>885784315903341.88</v>
-      </c>
-      <c r="X3">
-        <f>$B3*'Time Series Scaling Factors'!X29</f>
-        <v>895641442435243.25</v>
-      </c>
-      <c r="Y3">
-        <f>$B3*'Time Series Scaling Factors'!Y29</f>
-        <v>909857321484880</v>
-      </c>
-      <c r="Z3">
-        <f>$B3*'Time Series Scaling Factors'!Z29</f>
-        <v>907557173530514.63</v>
-      </c>
-      <c r="AA3">
-        <f>$B3*'Time Series Scaling Factors'!AA29</f>
-        <v>904927354387186.88</v>
-      </c>
-      <c r="AB3">
-        <f>$B3*'Time Series Scaling Factors'!AB29</f>
-        <v>902387338316656.38</v>
-      </c>
-      <c r="AC3">
-        <f>$B3*'Time Series Scaling Factors'!AC29</f>
-        <v>899975377886766.13</v>
-      </c>
-      <c r="AD3">
-        <f>$B3*'Time Series Scaling Factors'!AD29</f>
-        <v>901905289514856.5</v>
-      </c>
-      <c r="AE3">
-        <f>$B3*'Time Series Scaling Factors'!AE29</f>
-        <v>898959441064441.88</v>
-      </c>
-      <c r="AF3">
-        <f ca="1">$B3*'Time Series Scaling Factors'!AF29</f>
-        <v>903992037267942.13</v>
-      </c>
-      <c r="AG3">
-        <f ca="1">$B3*'Time Series Scaling Factors'!AG29</f>
-        <v>904622349463239.13</v>
-      </c>
-      <c r="AH3">
-        <f ca="1">$B3*'Time Series Scaling Factors'!AH29</f>
-        <v>907750388708256.63</v>
-      </c>
-      <c r="AI3">
-        <f ca="1">$B3*'Time Series Scaling Factors'!AI29</f>
-        <v>910969887414425.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="32">
-        <f>'Start Year Data'!C28</f>
-        <v>612867000000</v>
-      </c>
-      <c r="C4">
-        <f>$B4*'Time Series Scaling Factors'!C30</f>
-        <v>592031625679.08105</v>
-      </c>
-      <c r="D4">
-        <f>$B4*'Time Series Scaling Factors'!D30</f>
-        <v>546121339221.10248</v>
-      </c>
-      <c r="E4">
-        <f>$B4*'Time Series Scaling Factors'!E30</f>
-        <v>547223928747.92633</v>
-      </c>
-      <c r="F4">
-        <f>$B4*'Time Series Scaling Factors'!F30</f>
-        <v>559509706987.98376</v>
-      </c>
-      <c r="G4">
-        <f>$B4*'Time Series Scaling Factors'!G30</f>
-        <v>568368206058.01257</v>
-      </c>
-      <c r="H4">
-        <f>$B4*'Time Series Scaling Factors'!H30</f>
-        <v>587137880783.39136</v>
-      </c>
-      <c r="I4">
-        <f>$B4*'Time Series Scaling Factors'!I30</f>
-        <v>595127669765.36096</v>
-      </c>
-      <c r="J4">
-        <f>$B4*'Time Series Scaling Factors'!J30</f>
-        <v>612898415633.30676</v>
-      </c>
-      <c r="K4">
-        <f>$B4*'Time Series Scaling Factors'!K30</f>
-        <v>607933758816.85632</v>
-      </c>
-      <c r="L4">
-        <f>$B4*'Time Series Scaling Factors'!L30</f>
-        <v>601502897856.41907</v>
-      </c>
-      <c r="M4">
-        <f>$B4*'Time Series Scaling Factors'!M30</f>
-        <v>613544217638.37549</v>
-      </c>
-      <c r="N4">
-        <f>$B4*'Time Series Scaling Factors'!N30</f>
-        <v>607779934811.52734</v>
-      </c>
-      <c r="O4">
-        <f>$B4*'Time Series Scaling Factors'!O30</f>
-        <v>610145797383.64673</v>
-      </c>
-      <c r="P4">
-        <f>$B4*'Time Series Scaling Factors'!P30</f>
-        <v>611759876813.05237</v>
-      </c>
-      <c r="Q4">
-        <f>$B4*'Time Series Scaling Factors'!Q30</f>
-        <v>630206603587.33191</v>
-      </c>
-      <c r="R4">
-        <f>$B4*'Time Series Scaling Factors'!R30</f>
-        <v>625816290137.70569</v>
-      </c>
-      <c r="S4">
-        <f>$B4*'Time Series Scaling Factors'!S30</f>
-        <v>616466808247.29565</v>
-      </c>
-      <c r="T4">
-        <f>$B4*'Time Series Scaling Factors'!T30</f>
-        <v>615562485782.93799</v>
-      </c>
-      <c r="U4">
-        <f>$B4*'Time Series Scaling Factors'!U30</f>
-        <v>606853356268.73071</v>
-      </c>
-      <c r="V4">
-        <f>$B4*'Time Series Scaling Factors'!V30</f>
-        <v>597075131047.56116</v>
-      </c>
-      <c r="W4">
-        <f>$B4*'Time Series Scaling Factors'!W30</f>
-        <v>590004733142.72693</v>
-      </c>
-      <c r="X4">
-        <f>$B4*'Time Series Scaling Factors'!X30</f>
-        <v>586070177341.61035</v>
-      </c>
-      <c r="Y4">
-        <f>$B4*'Time Series Scaling Factors'!Y30</f>
-        <v>587197061150.35938</v>
-      </c>
-      <c r="Z4">
-        <f>$B4*'Time Series Scaling Factors'!Z30</f>
-        <v>576801470925.86536</v>
-      </c>
-      <c r="AA4">
-        <f>$B4*'Time Series Scaling Factors'!AA30</f>
-        <v>572059600949.75647</v>
-      </c>
-      <c r="AB4">
-        <f>$B4*'Time Series Scaling Factors'!AB30</f>
-        <v>568861478042.97021</v>
-      </c>
-      <c r="AC4">
-        <f>$B4*'Time Series Scaling Factors'!AC30</f>
-        <v>549768412288.96899</v>
-      </c>
-      <c r="AD4">
-        <f>$B4*'Time Series Scaling Factors'!AD30</f>
-        <v>542210182095.07904</v>
-      </c>
-      <c r="AE4">
-        <f>$B4*'Time Series Scaling Factors'!AE30</f>
-        <v>525835936495.06494</v>
-      </c>
-      <c r="AF4">
-        <f ca="1">$B4*'Time Series Scaling Factors'!AF30</f>
-        <v>514914100277.66498</v>
-      </c>
-      <c r="AG4">
-        <f ca="1">$B4*'Time Series Scaling Factors'!AG30</f>
-        <v>503401615540.29224</v>
-      </c>
-      <c r="AH4">
-        <f ca="1">$B4*'Time Series Scaling Factors'!AH30</f>
-        <v>493131476741.88226</v>
-      </c>
-      <c r="AI4">
-        <f ca="1">$B4*'Time Series Scaling Factors'!AI30</f>
-        <v>468924425956.75354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="32">
-        <f>'Start Year Data'!C29</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="C5">
-        <f>$B5*'Time Series Scaling Factors'!C31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="D5">
-        <f>$B5*'Time Series Scaling Factors'!D31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="E5">
-        <f>$B5*'Time Series Scaling Factors'!E31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="F5">
-        <f>$B5*'Time Series Scaling Factors'!F31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="G5">
-        <f>$B5*'Time Series Scaling Factors'!G31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="H5">
-        <f>$B5*'Time Series Scaling Factors'!H31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="I5">
-        <f>$B5*'Time Series Scaling Factors'!I31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="J5">
-        <f>$B5*'Time Series Scaling Factors'!J31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="K5">
-        <f>$B5*'Time Series Scaling Factors'!K31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="L5">
-        <f>$B5*'Time Series Scaling Factors'!L31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="M5">
-        <f>$B5*'Time Series Scaling Factors'!M31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="N5">
-        <f>$B5*'Time Series Scaling Factors'!N31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="O5">
-        <f>$B5*'Time Series Scaling Factors'!O31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="P5">
-        <f>$B5*'Time Series Scaling Factors'!P31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="Q5">
-        <f>$B5*'Time Series Scaling Factors'!Q31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="R5">
-        <f>$B5*'Time Series Scaling Factors'!R31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="S5">
-        <f>$B5*'Time Series Scaling Factors'!S31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="T5">
-        <f>$B5*'Time Series Scaling Factors'!T31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="U5">
-        <f>$B5*'Time Series Scaling Factors'!U31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="V5">
-        <f>$B5*'Time Series Scaling Factors'!V31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="W5">
-        <f>$B5*'Time Series Scaling Factors'!W31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="X5">
-        <f>$B5*'Time Series Scaling Factors'!X31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="Y5">
-        <f>$B5*'Time Series Scaling Factors'!Y31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="Z5">
-        <f>$B5*'Time Series Scaling Factors'!Z31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AA5">
-        <f>$B5*'Time Series Scaling Factors'!AA31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AB5">
-        <f>$B5*'Time Series Scaling Factors'!AB31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AC5">
-        <f>$B5*'Time Series Scaling Factors'!AC31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AD5">
-        <f>$B5*'Time Series Scaling Factors'!AD31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AE5">
-        <f>$B5*'Time Series Scaling Factors'!AE31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AF5">
-        <f>$B5*'Time Series Scaling Factors'!AF31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AG5">
-        <f>$B5*'Time Series Scaling Factors'!AG31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AH5">
-        <f>$B5*'Time Series Scaling Factors'!AH31</f>
-        <v>387781818181818.19</v>
-      </c>
-      <c r="AI5">
-        <f>$B5*'Time Series Scaling Factors'!AI31</f>
-        <v>387781818181818.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="32">
-        <f>'Start Year Data'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>$B6*'Time Series Scaling Factors'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>$B6*'Time Series Scaling Factors'!D32</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>$B6*'Time Series Scaling Factors'!E32</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>$B6*'Time Series Scaling Factors'!F32</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>$B6*'Time Series Scaling Factors'!G32</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>$B6*'Time Series Scaling Factors'!H32</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>$B6*'Time Series Scaling Factors'!I32</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>$B6*'Time Series Scaling Factors'!J32</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>$B6*'Time Series Scaling Factors'!K32</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f>$B6*'Time Series Scaling Factors'!L32</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>$B6*'Time Series Scaling Factors'!M32</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>$B6*'Time Series Scaling Factors'!N32</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>$B6*'Time Series Scaling Factors'!O32</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>$B6*'Time Series Scaling Factors'!P32</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>$B6*'Time Series Scaling Factors'!Q32</f>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f>$B6*'Time Series Scaling Factors'!R32</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>$B6*'Time Series Scaling Factors'!S32</f>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>$B6*'Time Series Scaling Factors'!T32</f>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f>$B6*'Time Series Scaling Factors'!U32</f>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f>$B6*'Time Series Scaling Factors'!V32</f>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f>$B6*'Time Series Scaling Factors'!W32</f>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f>$B6*'Time Series Scaling Factors'!X32</f>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f>$B6*'Time Series Scaling Factors'!Y32</f>
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <f>$B6*'Time Series Scaling Factors'!Z32</f>
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f>$B6*'Time Series Scaling Factors'!AA32</f>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f>$B6*'Time Series Scaling Factors'!AB32</f>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f>$B6*'Time Series Scaling Factors'!AC32</f>
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <f>$B6*'Time Series Scaling Factors'!AD32</f>
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <f>$B6*'Time Series Scaling Factors'!AE32</f>
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <f>$B6*'Time Series Scaling Factors'!AF32</f>
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <f>$B6*'Time Series Scaling Factors'!AG32</f>
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <f>$B6*'Time Series Scaling Factors'!AH32</f>
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <f>$B6*'Time Series Scaling Factors'!AI32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="32">
-        <f>'Start Year Data'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>$B7*'Time Series Scaling Factors'!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>$B7*'Time Series Scaling Factors'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>$B7*'Time Series Scaling Factors'!E33</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>$B7*'Time Series Scaling Factors'!F33</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>$B7*'Time Series Scaling Factors'!G33</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>$B7*'Time Series Scaling Factors'!H33</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>$B7*'Time Series Scaling Factors'!I33</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>$B7*'Time Series Scaling Factors'!J33</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>$B7*'Time Series Scaling Factors'!K33</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>$B7*'Time Series Scaling Factors'!L33</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>$B7*'Time Series Scaling Factors'!M33</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>$B7*'Time Series Scaling Factors'!N33</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>$B7*'Time Series Scaling Factors'!O33</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>$B7*'Time Series Scaling Factors'!P33</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>$B7*'Time Series Scaling Factors'!Q33</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>$B7*'Time Series Scaling Factors'!R33</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>$B7*'Time Series Scaling Factors'!S33</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>$B7*'Time Series Scaling Factors'!T33</f>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f>$B7*'Time Series Scaling Factors'!U33</f>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f>$B7*'Time Series Scaling Factors'!V33</f>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f>$B7*'Time Series Scaling Factors'!W33</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>$B7*'Time Series Scaling Factors'!X33</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>$B7*'Time Series Scaling Factors'!Y33</f>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f>$B7*'Time Series Scaling Factors'!Z33</f>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f>$B7*'Time Series Scaling Factors'!AA33</f>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f>$B7*'Time Series Scaling Factors'!AB33</f>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f>$B7*'Time Series Scaling Factors'!AC33</f>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f>$B7*'Time Series Scaling Factors'!AD33</f>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f>$B7*'Time Series Scaling Factors'!AE33</f>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f>$B7*'Time Series Scaling Factors'!AF33</f>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f>$B7*'Time Series Scaling Factors'!AG33</f>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f>$B7*'Time Series Scaling Factors'!AH33</f>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f>$B7*'Time Series Scaling Factors'!AI33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="32">
-        <f>'Start Year Data'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>$B8*'Time Series Scaling Factors'!C34</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>$B8*'Time Series Scaling Factors'!D34</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f>$B8*'Time Series Scaling Factors'!E34</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>$B8*'Time Series Scaling Factors'!F34</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>$B8*'Time Series Scaling Factors'!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>$B8*'Time Series Scaling Factors'!H34</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>$B8*'Time Series Scaling Factors'!I34</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>$B8*'Time Series Scaling Factors'!J34</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>$B8*'Time Series Scaling Factors'!K34</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>$B8*'Time Series Scaling Factors'!L34</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>$B8*'Time Series Scaling Factors'!M34</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>$B8*'Time Series Scaling Factors'!N34</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>$B8*'Time Series Scaling Factors'!O34</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>$B8*'Time Series Scaling Factors'!P34</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f>$B8*'Time Series Scaling Factors'!Q34</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f>$B8*'Time Series Scaling Factors'!R34</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f>$B8*'Time Series Scaling Factors'!S34</f>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>$B8*'Time Series Scaling Factors'!T34</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f>$B8*'Time Series Scaling Factors'!U34</f>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f>$B8*'Time Series Scaling Factors'!V34</f>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f>$B8*'Time Series Scaling Factors'!W34</f>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f>$B8*'Time Series Scaling Factors'!X34</f>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f>$B8*'Time Series Scaling Factors'!Y34</f>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f>$B8*'Time Series Scaling Factors'!Z34</f>
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f>$B8*'Time Series Scaling Factors'!AA34</f>
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <f>$B8*'Time Series Scaling Factors'!AB34</f>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f>$B8*'Time Series Scaling Factors'!AC34</f>
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <f>$B8*'Time Series Scaling Factors'!AD34</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>$B8*'Time Series Scaling Factors'!AE34</f>
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <f>$B8*'Time Series Scaling Factors'!AF34</f>
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <f>$B8*'Time Series Scaling Factors'!AG34</f>
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <f>$B8*'Time Series Scaling Factors'!AH34</f>
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <f>$B8*'Time Series Scaling Factors'!AI34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="32">
-        <f>'Start Year Data'!C33</f>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f>$B9*'Time Series Scaling Factors'!C35</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f>$B9*'Time Series Scaling Factors'!D35</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>$B9*'Time Series Scaling Factors'!E35</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>$B9*'Time Series Scaling Factors'!F35</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>$B9*'Time Series Scaling Factors'!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>$B9*'Time Series Scaling Factors'!H35</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>$B9*'Time Series Scaling Factors'!I35</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>$B9*'Time Series Scaling Factors'!J35</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>$B9*'Time Series Scaling Factors'!K35</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>$B9*'Time Series Scaling Factors'!L35</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>$B9*'Time Series Scaling Factors'!M35</f>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f>$B9*'Time Series Scaling Factors'!N35</f>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f>$B9*'Time Series Scaling Factors'!O35</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f>$B9*'Time Series Scaling Factors'!P35</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f>$B9*'Time Series Scaling Factors'!Q35</f>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f>$B9*'Time Series Scaling Factors'!R35</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>$B9*'Time Series Scaling Factors'!S35</f>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f>$B9*'Time Series Scaling Factors'!T35</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f>$B9*'Time Series Scaling Factors'!U35</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>$B9*'Time Series Scaling Factors'!V35</f>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f>$B9*'Time Series Scaling Factors'!W35</f>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f>$B9*'Time Series Scaling Factors'!X35</f>
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <f>$B9*'Time Series Scaling Factors'!Y35</f>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f>$B9*'Time Series Scaling Factors'!Z35</f>
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <f>$B9*'Time Series Scaling Factors'!AA35</f>
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <f>$B9*'Time Series Scaling Factors'!AB35</f>
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <f>$B9*'Time Series Scaling Factors'!AC35</f>
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <f>$B9*'Time Series Scaling Factors'!AD35</f>
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <f>$B9*'Time Series Scaling Factors'!AE35</f>
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <f>$B9*'Time Series Scaling Factors'!AF35</f>
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <f>$B9*'Time Series Scaling Factors'!AG35</f>
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <f>$B9*'Time Series Scaling Factors'!AH35</f>
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <f>$B9*'Time Series Scaling Factors'!AI35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="32">
-        <f>'Start Year Data'!C34</f>
-        <v>3530114978676.9375</v>
-      </c>
-      <c r="C10">
-        <f>$B10*'Time Series Scaling Factors'!C36</f>
-        <v>4048844580335.8096</v>
-      </c>
-      <c r="D10">
-        <f>$B10*'Time Series Scaling Factors'!D36</f>
-        <v>3940429989596.8389</v>
-      </c>
-      <c r="E10">
-        <f>$B10*'Time Series Scaling Factors'!E36</f>
-        <v>3788071310767.1499</v>
-      </c>
-      <c r="F10">
-        <f>$B10*'Time Series Scaling Factors'!F36</f>
-        <v>3966289250096.2905</v>
-      </c>
-      <c r="G10">
-        <f>$B10*'Time Series Scaling Factors'!G36</f>
-        <v>3960573190057.1875</v>
-      </c>
-      <c r="H10">
-        <f>$B10*'Time Series Scaling Factors'!H36</f>
-        <v>3859069609476.5684</v>
-      </c>
-      <c r="I10">
-        <f>$B10*'Time Series Scaling Factors'!I36</f>
-        <v>3952541253995.6094</v>
-      </c>
-      <c r="J10">
-        <f>$B10*'Time Series Scaling Factors'!J36</f>
-        <v>3890034770731.3467</v>
-      </c>
-      <c r="K10">
-        <f>$B10*'Time Series Scaling Factors'!K36</f>
-        <v>3689181803300.1772</v>
-      </c>
-      <c r="L10">
-        <f>$B10*'Time Series Scaling Factors'!L36</f>
-        <v>3846292032742.5898</v>
-      </c>
-      <c r="M10">
-        <f>$B10*'Time Series Scaling Factors'!M36</f>
-        <v>3661164791095.7969</v>
-      </c>
-      <c r="N10">
-        <f>$B10*'Time Series Scaling Factors'!N36</f>
-        <v>3678179698101.3979</v>
-      </c>
-      <c r="O10">
-        <f>$B10*'Time Series Scaling Factors'!O36</f>
-        <v>3662104825039.4868</v>
-      </c>
-      <c r="P10">
-        <f>$B10*'Time Series Scaling Factors'!P36</f>
-        <v>3701234715542.895</v>
-      </c>
-      <c r="Q10">
-        <f>$B10*'Time Series Scaling Factors'!Q36</f>
-        <v>3737340103295.9058</v>
-      </c>
-      <c r="R10">
-        <f>$B10*'Time Series Scaling Factors'!R36</f>
-        <v>3770419528901.7949</v>
-      </c>
-      <c r="S10">
-        <f>$B10*'Time Series Scaling Factors'!S36</f>
-        <v>3677901628812.5068</v>
-      </c>
-      <c r="T10">
-        <f>$B10*'Time Series Scaling Factors'!T36</f>
-        <v>3612518536687.6001</v>
-      </c>
-      <c r="U10">
-        <f>$B10*'Time Series Scaling Factors'!U36</f>
-        <v>3770307331264.0303</v>
-      </c>
-      <c r="V10">
-        <f>$B10*'Time Series Scaling Factors'!V36</f>
-        <v>3679458411909.8696</v>
-      </c>
-      <c r="W10">
-        <f>$B10*'Time Series Scaling Factors'!W36</f>
-        <v>3717713853655.5542</v>
-      </c>
-      <c r="X10">
-        <f>$B10*'Time Series Scaling Factors'!X36</f>
-        <v>3786328843135.2593</v>
-      </c>
-      <c r="Y10">
-        <f>$B10*'Time Series Scaling Factors'!Y36</f>
-        <v>3842035597303.0376</v>
-      </c>
-      <c r="Z10">
-        <f>$B10*'Time Series Scaling Factors'!Z36</f>
-        <v>3913922407509.8696</v>
-      </c>
-      <c r="AA10">
-        <f>$B10*'Time Series Scaling Factors'!AA36</f>
-        <v>3932529265550.54</v>
-      </c>
-      <c r="AB10">
-        <f>$B10*'Time Series Scaling Factors'!AB36</f>
-        <v>3998300885399.1392</v>
-      </c>
-      <c r="AC10">
-        <f>$B10*'Time Series Scaling Factors'!AC36</f>
-        <v>4137756594221.6323</v>
-      </c>
-      <c r="AD10">
-        <f>$B10*'Time Series Scaling Factors'!AD36</f>
-        <v>4218802359323.5107</v>
-      </c>
-      <c r="AE10">
-        <f>$B10*'Time Series Scaling Factors'!AE36</f>
-        <v>4235082231723.8823</v>
-      </c>
-      <c r="AF10">
-        <f ca="1">$B10*'Time Series Scaling Factors'!AF36</f>
-        <v>4369780302276.9683</v>
-      </c>
-      <c r="AG10">
-        <f ca="1">$B10*'Time Series Scaling Factors'!AG36</f>
-        <v>4459510283725.3574</v>
-      </c>
-      <c r="AH10">
-        <f ca="1">$B10*'Time Series Scaling Factors'!AH36</f>
-        <v>4596772878274.1563</v>
-      </c>
-      <c r="AI10">
-        <f ca="1">$B10*'Time Series Scaling Factors'!AI36</f>
-        <v>4687966581495.7715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="32">
-        <f>'Start Year Data'!C35</f>
-        <v>15371910166326.137</v>
-      </c>
-      <c r="C11">
-        <f>$B11*'Time Series Scaling Factors'!C37</f>
-        <v>17630721815657.422</v>
-      </c>
-      <c r="D11">
-        <f>$B11*'Time Series Scaling Factors'!D37</f>
-        <v>17158629728112.137</v>
-      </c>
-      <c r="E11">
-        <f>$B11*'Time Series Scaling Factors'!E37</f>
-        <v>16495182804094.977</v>
-      </c>
-      <c r="F11">
-        <f>$B11*'Time Series Scaling Factors'!F37</f>
-        <v>17271234057366.641</v>
-      </c>
-      <c r="G11">
-        <f>$B11*'Time Series Scaling Factors'!G37</f>
-        <v>17246343434268.764</v>
-      </c>
-      <c r="H11">
-        <f>$B11*'Time Series Scaling Factors'!H37</f>
-        <v>16804345388406.102</v>
-      </c>
-      <c r="I11">
-        <f>$B11*'Time Series Scaling Factors'!I37</f>
-        <v>17211368312963.641</v>
-      </c>
-      <c r="J11">
-        <f>$B11*'Time Series Scaling Factors'!J37</f>
-        <v>16939183397924.039</v>
-      </c>
-      <c r="K11">
-        <f>$B11*'Time Series Scaling Factors'!K37</f>
-        <v>16064567757741.934</v>
-      </c>
-      <c r="L11">
-        <f>$B11*'Time Series Scaling Factors'!L37</f>
-        <v>16748705341868.105</v>
-      </c>
-      <c r="M11">
-        <f>$B11*'Time Series Scaling Factors'!M37</f>
-        <v>15942567483717.996</v>
-      </c>
-      <c r="N11">
-        <f>$B11*'Time Series Scaling Factors'!N37</f>
-        <v>16016659014322.055</v>
-      </c>
-      <c r="O11">
-        <f>$B11*'Time Series Scaling Factors'!O37</f>
-        <v>15946660868047.68</v>
-      </c>
-      <c r="P11">
-        <f>$B11*'Time Series Scaling Factors'!P37</f>
-        <v>16117052247725.064</v>
-      </c>
-      <c r="Q11">
-        <f>$B11*'Time Series Scaling Factors'!Q37</f>
-        <v>16274273409192.068</v>
-      </c>
-      <c r="R11">
-        <f>$B11*'Time Series Scaling Factors'!R37</f>
-        <v>16418317997495.527</v>
-      </c>
-      <c r="S11">
-        <f>$B11*'Time Series Scaling Factors'!S37</f>
-        <v>16015448159674.355</v>
-      </c>
-      <c r="T11">
-        <f>$B11*'Time Series Scaling Factors'!T37</f>
-        <v>15730737031393.375</v>
-      </c>
-      <c r="U11">
-        <f>$B11*'Time Series Scaling Factors'!U37</f>
-        <v>16417829432103.463</v>
-      </c>
-      <c r="V11">
-        <f>$B11*'Time Series Scaling Factors'!V37</f>
-        <v>16022227182472.668</v>
-      </c>
-      <c r="W11">
-        <f>$B11*'Time Series Scaling Factors'!W37</f>
-        <v>16188810768967.686</v>
-      </c>
-      <c r="X11">
-        <f>$B11*'Time Series Scaling Factors'!X37</f>
-        <v>16487595216702.797</v>
-      </c>
-      <c r="Y11">
-        <f>$B11*'Time Series Scaling Factors'!Y37</f>
-        <v>16730170664215.74</v>
-      </c>
-      <c r="Z11">
-        <f>$B11*'Time Series Scaling Factors'!Z37</f>
-        <v>17043202278006.779</v>
-      </c>
-      <c r="AA11">
-        <f>$B11*'Time Series Scaling Factors'!AA37</f>
-        <v>17124225970437.887</v>
-      </c>
-      <c r="AB11">
-        <f>$B11*'Time Series Scaling Factors'!AB37</f>
-        <v>17410628945387.262</v>
-      </c>
-      <c r="AC11">
-        <f>$B11*'Time Series Scaling Factors'!AC37</f>
-        <v>18017889796988.23</v>
-      </c>
-      <c r="AD11">
-        <f>$B11*'Time Series Scaling Factors'!AD37</f>
-        <v>18370804143413.902</v>
-      </c>
-      <c r="AE11">
-        <f>$B11*'Time Series Scaling Factors'!AE37</f>
-        <v>18441694960729.875</v>
-      </c>
-      <c r="AF11">
-        <f ca="1">$B11*'Time Series Scaling Factors'!AF37</f>
-        <v>19028238643478.57</v>
-      </c>
-      <c r="AG11">
-        <f ca="1">$B11*'Time Series Scaling Factors'!AG37</f>
-        <v>19418968470235.574</v>
-      </c>
-      <c r="AH11">
-        <f ca="1">$B11*'Time Series Scaling Factors'!AH37</f>
-        <v>20016679390516.078</v>
-      </c>
-      <c r="AI11">
-        <f ca="1">$B11*'Time Series Scaling Factors'!AI37</f>
-        <v>20413783003889.793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A12" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="32">
-        <f>'Start Year Data'!C36</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>$B12*'Time Series Scaling Factors'!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>$B12*'Time Series Scaling Factors'!D38</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>$B12*'Time Series Scaling Factors'!E38</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>$B12*'Time Series Scaling Factors'!F38</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>$B12*'Time Series Scaling Factors'!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>$B12*'Time Series Scaling Factors'!H38</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>$B12*'Time Series Scaling Factors'!I38</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>$B12*'Time Series Scaling Factors'!J38</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>$B12*'Time Series Scaling Factors'!K38</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>$B12*'Time Series Scaling Factors'!L38</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>$B12*'Time Series Scaling Factors'!M38</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f>$B12*'Time Series Scaling Factors'!N38</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>$B12*'Time Series Scaling Factors'!O38</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>$B12*'Time Series Scaling Factors'!P38</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>$B12*'Time Series Scaling Factors'!Q38</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f>$B12*'Time Series Scaling Factors'!R38</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>$B12*'Time Series Scaling Factors'!S38</f>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f>$B12*'Time Series Scaling Factors'!T38</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>$B12*'Time Series Scaling Factors'!U38</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>$B12*'Time Series Scaling Factors'!V38</f>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f>$B12*'Time Series Scaling Factors'!W38</f>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f>$B12*'Time Series Scaling Factors'!X38</f>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f>$B12*'Time Series Scaling Factors'!Y38</f>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f>$B12*'Time Series Scaling Factors'!Z38</f>
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f>$B12*'Time Series Scaling Factors'!AA38</f>
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <f>$B12*'Time Series Scaling Factors'!AB38</f>
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f>$B12*'Time Series Scaling Factors'!AC38</f>
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <f>$B12*'Time Series Scaling Factors'!AD38</f>
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <f>$B12*'Time Series Scaling Factors'!AE38</f>
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <f ca="1">$B12*'Time Series Scaling Factors'!AF38</f>
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <f ca="1">$B12*'Time Series Scaling Factors'!AG38</f>
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <f ca="1">$B12*'Time Series Scaling Factors'!AH38</f>
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <f ca="1">$B12*'Time Series Scaling Factors'!AI38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A13" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="32">
-        <f>'Start Year Data'!C37</f>
-        <v>5408500561128.2363</v>
-      </c>
-      <c r="C13">
-        <f>$B13*'Time Series Scaling Factors'!C39</f>
-        <v>6203247859330.2168</v>
-      </c>
-      <c r="D13">
-        <f>$B13*'Time Series Scaling Factors'!D39</f>
-        <v>6037145514679.1152</v>
-      </c>
-      <c r="E13">
-        <f>$B13*'Time Series Scaling Factors'!E39</f>
-        <v>5803716290724.4971</v>
-      </c>
-      <c r="F13">
-        <f>$B13*'Time Series Scaling Factors'!F39</f>
-        <v>6076764571215.9268</v>
-      </c>
-      <c r="G13">
-        <f>$B13*'Time Series Scaling Factors'!G39</f>
-        <v>6068006977167.1006</v>
-      </c>
-      <c r="H13">
-        <f>$B13*'Time Series Scaling Factors'!H39</f>
-        <v>5912493013502.2236</v>
-      </c>
-      <c r="I13">
-        <f>$B13*'Time Series Scaling Factors'!I39</f>
-        <v>6055701221983.9443</v>
-      </c>
-      <c r="J13">
-        <f>$B13*'Time Series Scaling Factors'!J39</f>
-        <v>5959934837078.3682</v>
-      </c>
-      <c r="K13">
-        <f>$B13*'Time Series Scaling Factors'!K39</f>
-        <v>5652207356920.5137</v>
-      </c>
-      <c r="L13">
-        <f>$B13*'Time Series Scaling Factors'!L39</f>
-        <v>5892916446916.4277</v>
-      </c>
-      <c r="M13">
-        <f>$B13*'Time Series Scaling Factors'!M39</f>
-        <v>5609282402027.0273</v>
-      </c>
-      <c r="N13">
-        <f>$B13*'Time Series Scaling Factors'!N39</f>
-        <v>5635350996008.583</v>
-      </c>
-      <c r="O13">
-        <f>$B13*'Time Series Scaling Factors'!O39</f>
-        <v>5610722631068.4707</v>
-      </c>
-      <c r="P13">
-        <f>$B13*'Time Series Scaling Factors'!P39</f>
-        <v>5670673662698.5762</v>
-      </c>
-      <c r="Q13">
-        <f>$B13*'Time Series Scaling Factors'!Q39</f>
-        <v>5725990843895.6318</v>
-      </c>
-      <c r="R13">
-        <f>$B13*'Time Series Scaling Factors'!R39</f>
-        <v>5776671938713.2021</v>
-      </c>
-      <c r="S13">
-        <f>$B13*'Time Series Scaling Factors'!S39</f>
-        <v>5634924965152.9072</v>
-      </c>
-      <c r="T13">
-        <f>$B13*'Time Series Scaling Factors'!T39</f>
-        <v>5534751318520.4697</v>
-      </c>
-      <c r="U13">
-        <f>$B13*'Time Series Scaling Factors'!U39</f>
-        <v>5776500040349.9834</v>
-      </c>
-      <c r="V13">
-        <f>$B13*'Time Series Scaling Factors'!V39</f>
-        <v>5637310117564.7979</v>
-      </c>
-      <c r="W13">
-        <f>$B13*'Time Series Scaling Factors'!W39</f>
-        <v>5695921403428.7188</v>
-      </c>
-      <c r="X13">
-        <f>$B13*'Time Series Scaling Factors'!X39</f>
-        <v>5801046650437.4941</v>
-      </c>
-      <c r="Y13">
-        <f>$B13*'Time Series Scaling Factors'!Y39</f>
-        <v>5886395148431.1729</v>
-      </c>
-      <c r="Z13">
-        <f>$B13*'Time Series Scaling Factors'!Z39</f>
-        <v>5996533162543.9844</v>
-      </c>
-      <c r="AA13">
-        <f>$B13*'Time Series Scaling Factors'!AA39</f>
-        <v>6025040789848.3838</v>
-      </c>
-      <c r="AB13">
-        <f>$B13*'Time Series Scaling Factors'!AB39</f>
-        <v>6125809701061.2383</v>
-      </c>
-      <c r="AC13">
-        <f>$B13*'Time Series Scaling Factors'!AC39</f>
-        <v>6339470242991.1426</v>
-      </c>
-      <c r="AD13">
-        <f>$B13*'Time Series Scaling Factors'!AD39</f>
-        <v>6463640721482.1475</v>
-      </c>
-      <c r="AE13">
-        <f>$B13*'Time Series Scaling Factors'!AE39</f>
-        <v>6488583166570.8643</v>
-      </c>
-      <c r="AF13">
-        <f ca="1">$B13*'Time Series Scaling Factors'!AF39</f>
-        <v>6694954515541.0039</v>
-      </c>
-      <c r="AG13">
-        <f ca="1">$B13*'Time Series Scaling Factors'!AG39</f>
-        <v>6832430109946.5791</v>
-      </c>
-      <c r="AH13">
-        <f ca="1">$B13*'Time Series Scaling Factors'!AH39</f>
-        <v>7042730574413.9834</v>
-      </c>
-      <c r="AI13">
-        <f ca="1">$B13*'Time Series Scaling Factors'!AI39</f>
-        <v>7182448741676.1504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="32">
-        <f>'Start Year Data'!C38</f>
-        <v>583575359337.06848</v>
-      </c>
-      <c r="C14">
-        <f>$B14*'Time Series Scaling Factors'!C40</f>
-        <v>669328320788.85303</v>
-      </c>
-      <c r="D14">
-        <f>$B14*'Time Series Scaling Factors'!D40</f>
-        <v>651405934654.11353</v>
-      </c>
-      <c r="E14">
-        <f>$B14*'Time Series Scaling Factors'!E40</f>
-        <v>626219001287.00806</v>
-      </c>
-      <c r="F14">
-        <f>$B14*'Time Series Scaling Factors'!F40</f>
-        <v>655680817293.71924</v>
-      </c>
-      <c r="G14">
-        <f>$B14*'Time Series Scaling Factors'!G40</f>
-        <v>654735875893.37939</v>
-      </c>
-      <c r="H14">
-        <f>$B14*'Time Series Scaling Factors'!H40</f>
-        <v>637955972442.88757</v>
-      </c>
-      <c r="I14">
-        <f>$B14*'Time Series Scaling Factors'!I40</f>
-        <v>653408089121.10132</v>
-      </c>
-      <c r="J14">
-        <f>$B14*'Time Series Scaling Factors'!J40</f>
-        <v>643074928968.47937</v>
-      </c>
-      <c r="K14">
-        <f>$B14*'Time Series Scaling Factors'!K40</f>
-        <v>609871239187.67456</v>
-      </c>
-      <c r="L14">
-        <f>$B14*'Time Series Scaling Factors'!L40</f>
-        <v>635843667608.90076</v>
-      </c>
-      <c r="M14">
-        <f>$B14*'Time Series Scaling Factors'!M40</f>
-        <v>605239651246.91858</v>
-      </c>
-      <c r="N14">
-        <f>$B14*'Time Series Scaling Factors'!N40</f>
-        <v>608052443614.83228</v>
-      </c>
-      <c r="O14">
-        <f>$B14*'Time Series Scaling Factors'!O40</f>
-        <v>605395051467.53223</v>
-      </c>
-      <c r="P14">
-        <f>$B14*'Time Series Scaling Factors'!P40</f>
-        <v>611863747260.52441</v>
-      </c>
-      <c r="Q14">
-        <f>$B14*'Time Series Scaling Factors'!Q40</f>
-        <v>617832452177.85388</v>
-      </c>
-      <c r="R14">
-        <f>$B14*'Time Series Scaling Factors'!R40</f>
-        <v>623300924961.66553</v>
-      </c>
-      <c r="S14">
-        <f>$B14*'Time Series Scaling Factors'!S40</f>
-        <v>608006475031.32568</v>
-      </c>
-      <c r="T14">
-        <f>$B14*'Time Series Scaling Factors'!T40</f>
-        <v>597197772846.88245</v>
-      </c>
-      <c r="U14">
-        <f>$B14*'Time Series Scaling Factors'!U40</f>
-        <v>623282377187.11133</v>
-      </c>
-      <c r="V14">
-        <f>$B14*'Time Series Scaling Factors'!V40</f>
-        <v>608263832160.18445</v>
-      </c>
-      <c r="W14">
-        <f>$B14*'Time Series Scaling Factors'!W40</f>
-        <v>614587969843.57043</v>
-      </c>
-      <c r="X14">
-        <f>$B14*'Time Series Scaling Factors'!X40</f>
-        <v>625930948013.79858</v>
-      </c>
-      <c r="Y14">
-        <f>$B14*'Time Series Scaling Factors'!Y40</f>
-        <v>635140021734.43616</v>
-      </c>
-      <c r="Z14">
-        <f>$B14*'Time Series Scaling Factors'!Z40</f>
-        <v>647023875759.43188</v>
-      </c>
-      <c r="AA14">
-        <f>$B14*'Time Series Scaling Factors'!AA40</f>
-        <v>650099838988.05396</v>
-      </c>
-      <c r="AB14">
-        <f>$B14*'Time Series Scaling Factors'!AB40</f>
-        <v>660972770016.97827</v>
-      </c>
-      <c r="AC14">
-        <f>$B14*'Time Series Scaling Factors'!AC40</f>
-        <v>684026669359.99451</v>
-      </c>
-      <c r="AD14">
-        <f>$B14*'Time Series Scaling Factors'!AD40</f>
-        <v>697424621488.3988</v>
-      </c>
-      <c r="AE14">
-        <f>$B14*'Time Series Scaling Factors'!AE40</f>
-        <v>700115902776.23071</v>
-      </c>
-      <c r="AF14">
-        <f ca="1">$B14*'Time Series Scaling Factors'!AF40</f>
-        <v>722383300693.81592</v>
-      </c>
-      <c r="AG14">
-        <f ca="1">$B14*'Time Series Scaling Factors'!AG40</f>
-        <v>737216870275.35901</v>
-      </c>
-      <c r="AH14">
-        <f ca="1">$B14*'Time Series Scaling Factors'!AH40</f>
-        <v>759908218410.25061</v>
-      </c>
-      <c r="AI14">
-        <f ca="1">$B14*'Time Series Scaling Factors'!AI40</f>
-        <v>774983760835.43762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A15" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="32">
-        <f>'Start Year Data'!C39</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>$B15*'Time Series Scaling Factors'!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>$B15*'Time Series Scaling Factors'!D41</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>$B15*'Time Series Scaling Factors'!E41</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>$B15*'Time Series Scaling Factors'!F41</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>$B15*'Time Series Scaling Factors'!G41</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f>$B15*'Time Series Scaling Factors'!H41</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>$B15*'Time Series Scaling Factors'!I41</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>$B15*'Time Series Scaling Factors'!J41</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f>$B15*'Time Series Scaling Factors'!K41</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>$B15*'Time Series Scaling Factors'!L41</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>$B15*'Time Series Scaling Factors'!M41</f>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f>$B15*'Time Series Scaling Factors'!N41</f>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f>$B15*'Time Series Scaling Factors'!O41</f>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f>$B15*'Time Series Scaling Factors'!P41</f>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f>$B15*'Time Series Scaling Factors'!Q41</f>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f>$B15*'Time Series Scaling Factors'!R41</f>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f>$B15*'Time Series Scaling Factors'!S41</f>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f>$B15*'Time Series Scaling Factors'!T41</f>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f>$B15*'Time Series Scaling Factors'!U41</f>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f>$B15*'Time Series Scaling Factors'!V41</f>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f>$B15*'Time Series Scaling Factors'!W41</f>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f>$B15*'Time Series Scaling Factors'!X41</f>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f>$B15*'Time Series Scaling Factors'!Y41</f>
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <f>$B15*'Time Series Scaling Factors'!Z41</f>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f>$B15*'Time Series Scaling Factors'!AA41</f>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f>$B15*'Time Series Scaling Factors'!AB41</f>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f>$B15*'Time Series Scaling Factors'!AC41</f>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f>$B15*'Time Series Scaling Factors'!AD41</f>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f>$B15*'Time Series Scaling Factors'!AE41</f>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f>$B15*'Time Series Scaling Factors'!AF41</f>
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <f>$B15*'Time Series Scaling Factors'!AG41</f>
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <f>$B15*'Time Series Scaling Factors'!AH41</f>
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <f>$B15*'Time Series Scaling Factors'!AI41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A16" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="32">
-        <f>'Start Year Data'!C40</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>$B16*'Time Series Scaling Factors'!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>$B16*'Time Series Scaling Factors'!D42</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>$B16*'Time Series Scaling Factors'!E42</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>$B16*'Time Series Scaling Factors'!F42</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>$B16*'Time Series Scaling Factors'!G42</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>$B16*'Time Series Scaling Factors'!H42</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>$B16*'Time Series Scaling Factors'!I42</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>$B16*'Time Series Scaling Factors'!J42</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>$B16*'Time Series Scaling Factors'!K42</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>$B16*'Time Series Scaling Factors'!L42</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>$B16*'Time Series Scaling Factors'!M42</f>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f>$B16*'Time Series Scaling Factors'!N42</f>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f>$B16*'Time Series Scaling Factors'!O42</f>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f>$B16*'Time Series Scaling Factors'!P42</f>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>$B16*'Time Series Scaling Factors'!Q42</f>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f>$B16*'Time Series Scaling Factors'!R42</f>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f>$B16*'Time Series Scaling Factors'!S42</f>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f>$B16*'Time Series Scaling Factors'!T42</f>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f>$B16*'Time Series Scaling Factors'!U42</f>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f>$B16*'Time Series Scaling Factors'!V42</f>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f>$B16*'Time Series Scaling Factors'!W42</f>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f>$B16*'Time Series Scaling Factors'!X42</f>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f>$B16*'Time Series Scaling Factors'!Y42</f>
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f>$B16*'Time Series Scaling Factors'!Z42</f>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f>$B16*'Time Series Scaling Factors'!AA42</f>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f>$B16*'Time Series Scaling Factors'!AB42</f>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f>$B16*'Time Series Scaling Factors'!AC42</f>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <f>$B16*'Time Series Scaling Factors'!AD42</f>
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <f>$B16*'Time Series Scaling Factors'!AE42</f>
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <f>$B16*'Time Series Scaling Factors'!AF42</f>
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <f>$B16*'Time Series Scaling Factors'!AG42</f>
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <f>$B16*'Time Series Scaling Factors'!AH42</f>
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <f>$B16*'Time Series Scaling Factors'!AI42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A17" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="32">
-        <f>'Start Year Data'!C41</f>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f>$B17*'Time Series Scaling Factors'!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>$B17*'Time Series Scaling Factors'!D43</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f>$B17*'Time Series Scaling Factors'!E43</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>$B17*'Time Series Scaling Factors'!F43</f>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f>$B17*'Time Series Scaling Factors'!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f>$B17*'Time Series Scaling Factors'!H43</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>$B17*'Time Series Scaling Factors'!I43</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>$B17*'Time Series Scaling Factors'!J43</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>$B17*'Time Series Scaling Factors'!K43</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>$B17*'Time Series Scaling Factors'!L43</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>$B17*'Time Series Scaling Factors'!M43</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f>$B17*'Time Series Scaling Factors'!N43</f>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f>$B17*'Time Series Scaling Factors'!O43</f>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f>$B17*'Time Series Scaling Factors'!P43</f>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f>$B17*'Time Series Scaling Factors'!Q43</f>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f>$B17*'Time Series Scaling Factors'!R43</f>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f>$B17*'Time Series Scaling Factors'!S43</f>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f>$B17*'Time Series Scaling Factors'!T43</f>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f>$B17*'Time Series Scaling Factors'!U43</f>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f>$B17*'Time Series Scaling Factors'!V43</f>
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f>$B17*'Time Series Scaling Factors'!W43</f>
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <f>$B17*'Time Series Scaling Factors'!X43</f>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f>$B17*'Time Series Scaling Factors'!Y43</f>
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <f>$B17*'Time Series Scaling Factors'!Z43</f>
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <f>$B17*'Time Series Scaling Factors'!AA43</f>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f>$B17*'Time Series Scaling Factors'!AB43</f>
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <f>$B17*'Time Series Scaling Factors'!AC43</f>
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <f>$B17*'Time Series Scaling Factors'!AD43</f>
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <f>$B17*'Time Series Scaling Factors'!AE43</f>
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <f ca="1">$B17*'Time Series Scaling Factors'!AF43</f>
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <f ca="1">$B17*'Time Series Scaling Factors'!AG43</f>
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <f ca="1">$B17*'Time Series Scaling Factors'!AH43</f>
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <f ca="1">$B17*'Time Series Scaling Factors'!AI43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A18" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="32">
-        <f>'Start Year Data'!C42</f>
-        <v>3491101786403734.5</v>
-      </c>
-      <c r="C18">
-        <f>$B18*'Time Series Scaling Factors'!C44</f>
-        <v>3447391524486694.5</v>
-      </c>
-      <c r="D18">
-        <f>$B18*'Time Series Scaling Factors'!D44</f>
-        <v>3162464711618915</v>
-      </c>
-      <c r="E18">
-        <f>$B18*'Time Series Scaling Factors'!E44</f>
-        <v>2926902354195027</v>
-      </c>
-      <c r="F18">
-        <f>$B18*'Time Series Scaling Factors'!F44</f>
-        <v>2821978493703681.5</v>
-      </c>
-      <c r="G18">
-        <f>$B18*'Time Series Scaling Factors'!G44</f>
-        <v>2602038092842135</v>
-      </c>
-      <c r="H18">
-        <f>$B18*'Time Series Scaling Factors'!H44</f>
-        <v>2661425892187471</v>
-      </c>
-      <c r="I18">
-        <f>$B18*'Time Series Scaling Factors'!I44</f>
-        <v>2565927780000418</v>
-      </c>
-      <c r="J18">
-        <f>$B18*'Time Series Scaling Factors'!J44</f>
-        <v>2653929565250569</v>
-      </c>
-      <c r="K18">
-        <f>$B18*'Time Series Scaling Factors'!K44</f>
-        <v>2506361418923978.5</v>
-      </c>
-      <c r="L18">
-        <f>$B18*'Time Series Scaling Factors'!L44</f>
-        <v>2187304624494278.3</v>
-      </c>
-      <c r="M18">
-        <f>$B18*'Time Series Scaling Factors'!M44</f>
-        <v>2371404000981023.5</v>
-      </c>
-      <c r="N18">
-        <f>$B18*'Time Series Scaling Factors'!N44</f>
-        <v>2388041133092026</v>
-      </c>
-      <c r="O18">
-        <f>$B18*'Time Series Scaling Factors'!O44</f>
-        <v>2414288691567878</v>
-      </c>
-      <c r="P18">
-        <f>$B18*'Time Series Scaling Factors'!P44</f>
-        <v>2448516735712717.5</v>
-      </c>
-      <c r="Q18">
-        <f>$B18*'Time Series Scaling Factors'!Q44</f>
-        <v>2455008952345000.5</v>
-      </c>
-      <c r="R18">
-        <f>$B18*'Time Series Scaling Factors'!R44</f>
-        <v>2438822694628570.5</v>
-      </c>
-      <c r="S18">
-        <f>$B18*'Time Series Scaling Factors'!S44</f>
-        <v>2612155818983633</v>
-      </c>
-      <c r="T18">
-        <f>$B18*'Time Series Scaling Factors'!T44</f>
-        <v>2685845016084568.5</v>
-      </c>
-      <c r="U18">
-        <f>$B18*'Time Series Scaling Factors'!U44</f>
-        <v>2737487956084843.5</v>
-      </c>
-      <c r="V18">
-        <f>$B18*'Time Series Scaling Factors'!V44</f>
-        <v>2893177485832155</v>
-      </c>
-      <c r="W18">
-        <f>$B18*'Time Series Scaling Factors'!W44</f>
-        <v>2994240398336685</v>
-      </c>
-      <c r="X18">
-        <f>$B18*'Time Series Scaling Factors'!X44</f>
-        <v>2998418016018612.5</v>
-      </c>
-      <c r="Y18">
-        <f>$B18*'Time Series Scaling Factors'!Y44</f>
-        <v>3111847743161501</v>
-      </c>
-      <c r="Z18">
-        <f>$B18*'Time Series Scaling Factors'!Z44</f>
-        <v>3190490816794022.5</v>
-      </c>
-      <c r="AA18">
-        <f>$B18*'Time Series Scaling Factors'!AA44</f>
-        <v>3037890357690486.5</v>
-      </c>
-      <c r="AB18">
-        <f>$B18*'Time Series Scaling Factors'!AB44</f>
-        <v>3380305774075785.5</v>
-      </c>
-      <c r="AC18">
-        <f>$B18*'Time Series Scaling Factors'!AC44</f>
-        <v>3344749116500952</v>
-      </c>
-      <c r="AD18">
-        <f>$B18*'Time Series Scaling Factors'!AD44</f>
-        <v>3701482343124300.5</v>
-      </c>
-      <c r="AE18">
-        <f>$B18*'Time Series Scaling Factors'!AE44</f>
-        <v>3635958974939469</v>
-      </c>
-      <c r="AF18">
-        <f ca="1">$B18*'Time Series Scaling Factors'!AF44</f>
-        <v>3786837131792315.5</v>
-      </c>
-      <c r="AG18">
-        <f ca="1">$B18*'Time Series Scaling Factors'!AG44</f>
-        <v>3935254391493483</v>
-      </c>
-      <c r="AH18">
-        <f ca="1">$B18*'Time Series Scaling Factors'!AH44</f>
-        <v>4069652348680316</v>
-      </c>
-      <c r="AI18">
-        <f ca="1">$B18*'Time Series Scaling Factors'!AI44</f>
-        <v>4238320661681598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A19" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="32">
-        <f>'Start Year Data'!C43</f>
-        <v>90779646071271.797</v>
-      </c>
-      <c r="C19">
-        <f>$B19*'Time Series Scaling Factors'!C45</f>
-        <v>104119180315828.69</v>
-      </c>
-      <c r="D19">
-        <f>$B19*'Time Series Scaling Factors'!D45</f>
-        <v>101331214984474.47</v>
-      </c>
-      <c r="E19">
-        <f>$B19*'Time Series Scaling Factors'!E45</f>
-        <v>97413193326939.234</v>
-      </c>
-      <c r="F19">
-        <f>$B19*'Time Series Scaling Factors'!F45</f>
-        <v>101996205935189.86</v>
-      </c>
-      <c r="G19">
-        <f>$B19*'Time Series Scaling Factors'!G45</f>
-        <v>101849213015580.66</v>
-      </c>
-      <c r="H19">
-        <f>$B19*'Time Series Scaling Factors'!H45</f>
-        <v>99238969673442</v>
-      </c>
-      <c r="I19">
-        <f>$B19*'Time Series Scaling Factors'!I45</f>
-        <v>101642665546917.06</v>
-      </c>
-      <c r="J19">
-        <f>$B19*'Time Series Scaling Factors'!J45</f>
-        <v>100035262824296.31</v>
-      </c>
-      <c r="K19">
-        <f>$B19*'Time Series Scaling Factors'!K45</f>
-        <v>94870172903457.531</v>
-      </c>
-      <c r="L19">
-        <f>$B19*'Time Series Scaling Factors'!L45</f>
-        <v>98910384372236.359</v>
-      </c>
-      <c r="M19">
-        <f>$B19*'Time Series Scaling Factors'!M45</f>
-        <v>94149693693219.063</v>
-      </c>
-      <c r="N19">
-        <f>$B19*'Time Series Scaling Factors'!N45</f>
-        <v>94587245230558.219</v>
-      </c>
-      <c r="O19">
-        <f>$B19*'Time Series Scaling Factors'!O45</f>
-        <v>94173867395554.141</v>
-      </c>
-      <c r="P19">
-        <f>$B19*'Time Series Scaling Factors'!P45</f>
-        <v>95180122894925.531</v>
-      </c>
-      <c r="Q19">
-        <f>$B19*'Time Series Scaling Factors'!Q45</f>
-        <v>96108600959034.594</v>
-      </c>
-      <c r="R19">
-        <f>$B19*'Time Series Scaling Factors'!R45</f>
-        <v>96959264058362.047</v>
-      </c>
-      <c r="S19">
-        <f>$B19*'Time Series Scaling Factors'!S45</f>
-        <v>94580094463010.609</v>
-      </c>
-      <c r="T19">
-        <f>$B19*'Time Series Scaling Factors'!T45</f>
-        <v>92898717511269.234</v>
-      </c>
-      <c r="U19">
-        <f>$B19*'Time Series Scaling Factors'!U45</f>
-        <v>96956378809040.766</v>
-      </c>
-      <c r="V19">
-        <f>$B19*'Time Series Scaling Factors'!V45</f>
-        <v>94620128348434.172</v>
-      </c>
-      <c r="W19">
-        <f>$B19*'Time Series Scaling Factors'!W45</f>
-        <v>95603896719422.188</v>
-      </c>
-      <c r="X19">
-        <f>$B19*'Time Series Scaling Factors'!X45</f>
-        <v>97368384419617.766</v>
-      </c>
-      <c r="Y19">
-        <f>$B19*'Time Series Scaling Factors'!Y45</f>
-        <v>98800926831883.781</v>
-      </c>
-      <c r="Z19">
-        <f>$B19*'Time Series Scaling Factors'!Z45</f>
-        <v>100649551941033.84</v>
-      </c>
-      <c r="AA19">
-        <f>$B19*'Time Series Scaling Factors'!AA45</f>
-        <v>101128041734605.25</v>
-      </c>
-      <c r="AB19">
-        <f>$B19*'Time Series Scaling Factors'!AB45</f>
-        <v>102819409978261.67</v>
-      </c>
-      <c r="AC19">
-        <f>$B19*'Time Series Scaling Factors'!AC45</f>
-        <v>106405621749264.41</v>
-      </c>
-      <c r="AD19">
-        <f>$B19*'Time Series Scaling Factors'!AD45</f>
-        <v>108489776490955.39</v>
-      </c>
-      <c r="AE19">
-        <f>$B19*'Time Series Scaling Factors'!AE45</f>
-        <v>108908426043028.94</v>
-      </c>
-      <c r="AF19">
-        <f ca="1">$B19*'Time Series Scaling Factors'!AF45</f>
-        <v>112372291453972.38</v>
-      </c>
-      <c r="AG19">
-        <f ca="1">$B19*'Time Series Scaling Factors'!AG45</f>
-        <v>114679767558028.19</v>
-      </c>
-      <c r="AH19">
-        <f ca="1">$B19*'Time Series Scaling Factors'!AH45</f>
-        <v>118209581693610.42</v>
-      </c>
-      <c r="AI19">
-        <f ca="1">$B19*'Time Series Scaling Factors'!AI45</f>
-        <v>120554698538923.38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A20" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20" s="32">
-        <f>'Start Year Data'!C44</f>
-        <v>99350833365.843933</v>
-      </c>
-      <c r="C20">
-        <f>$B20*'Time Series Scaling Factors'!C46</f>
-        <v>113949853093.99359</v>
-      </c>
-      <c r="D20">
-        <f>$B20*'Time Series Scaling Factors'!D46</f>
-        <v>110898655044.07326</v>
-      </c>
-      <c r="E20">
-        <f>$B20*'Time Series Scaling Factors'!E46</f>
-        <v>106610703574.02742</v>
-      </c>
-      <c r="F20">
-        <f>$B20*'Time Series Scaling Factors'!F46</f>
-        <v>111626432778.32933</v>
-      </c>
-      <c r="G20">
-        <f>$B20*'Time Series Scaling Factors'!G46</f>
-        <v>111465561154.63312</v>
-      </c>
-      <c r="H20">
-        <f>$B20*'Time Series Scaling Factors'!H46</f>
-        <v>108608865159.96577</v>
-      </c>
-      <c r="I20">
-        <f>$B20*'Time Series Scaling Factors'!I46</f>
-        <v>111239511990.20674</v>
-      </c>
-      <c r="J20">
-        <f>$B20*'Time Series Scaling Factors'!J46</f>
-        <v>109480342319.93153</v>
-      </c>
-      <c r="K20">
-        <f>$B20*'Time Series Scaling Factors'!K46</f>
-        <v>103827577517.98495</v>
-      </c>
-      <c r="L20">
-        <f>$B20*'Time Series Scaling Factors'!L46</f>
-        <v>108249255655.86044</v>
-      </c>
-      <c r="M20">
-        <f>$B20*'Time Series Scaling Factors'!M46</f>
-        <v>103039072461.42461</v>
-      </c>
-      <c r="N20">
-        <f>$B20*'Time Series Scaling Factors'!N46</f>
-        <v>103517936521.33757</v>
-      </c>
-      <c r="O20">
-        <f>$B20*'Time Series Scaling Factors'!O46</f>
-        <v>103065528584.31631</v>
-      </c>
-      <c r="P20">
-        <f>$B20*'Time Series Scaling Factors'!P46</f>
-        <v>104166792212.98285</v>
-      </c>
-      <c r="Q20">
-        <f>$B20*'Time Series Scaling Factors'!Q46</f>
-        <v>105182934855.34035</v>
-      </c>
-      <c r="R20">
-        <f>$B20*'Time Series Scaling Factors'!R46</f>
-        <v>106113915438.42613</v>
-      </c>
-      <c r="S20">
-        <f>$B20*'Time Series Scaling Factors'!S46</f>
-        <v>103510110596.19019</v>
-      </c>
-      <c r="T20">
-        <f>$B20*'Time Series Scaling Factors'!T46</f>
-        <v>101669982234.96614</v>
-      </c>
-      <c r="U20">
-        <f>$B20*'Time Series Scaling Factors'!U46</f>
-        <v>106110757771.07509</v>
-      </c>
-      <c r="V20">
-        <f>$B20*'Time Series Scaling Factors'!V46</f>
-        <v>103553924381.01791</v>
-      </c>
-      <c r="W20">
-        <f>$B20*'Time Series Scaling Factors'!W46</f>
-        <v>104630577702.84164</v>
-      </c>
-      <c r="X20">
-        <f>$B20*'Time Series Scaling Factors'!X46</f>
-        <v>106561663921.6685</v>
-      </c>
-      <c r="Y20">
-        <f>$B20*'Time Series Scaling Factors'!Y46</f>
-        <v>108129463408.11731</v>
-      </c>
-      <c r="Z20">
-        <f>$B20*'Time Series Scaling Factors'!Z46</f>
-        <v>110152631079.76573</v>
-      </c>
-      <c r="AA20">
-        <f>$B20*'Time Series Scaling Factors'!AA46</f>
-        <v>110676298683.74655</v>
-      </c>
-      <c r="AB20">
-        <f>$B20*'Time Series Scaling Factors'!AB46</f>
-        <v>112527361689.69682</v>
-      </c>
-      <c r="AC20">
-        <f>$B20*'Time Series Scaling Factors'!AC46</f>
-        <v>116452174613.02318</v>
-      </c>
-      <c r="AD20">
-        <f>$B20*'Time Series Scaling Factors'!AD46</f>
-        <v>118733110036.45288</v>
-      </c>
-      <c r="AE20">
-        <f>$B20*'Time Series Scaling Factors'!AE46</f>
-        <v>119191287432.89359</v>
-      </c>
-      <c r="AF20">
-        <f ca="1">$B20*'Time Series Scaling Factors'!AF46</f>
-        <v>122982202358.62668</v>
-      </c>
-      <c r="AG20">
-        <f ca="1">$B20*'Time Series Scaling Factors'!AG46</f>
-        <v>125507544589.30391</v>
-      </c>
-      <c r="AH20">
-        <f ca="1">$B20*'Time Series Scaling Factors'!AH46</f>
-        <v>129370634953.42918</v>
-      </c>
-      <c r="AI20">
-        <f ca="1">$B20*'Time Series Scaling Factors'!AI46</f>
-        <v>131937171870.07675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A21" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" s="32">
-        <f>'Start Year Data'!C45</f>
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f>$B21*'Time Series Scaling Factors'!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f>$B21*'Time Series Scaling Factors'!D47</f>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f>$B21*'Time Series Scaling Factors'!E47</f>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f>$B21*'Time Series Scaling Factors'!F47</f>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f>$B21*'Time Series Scaling Factors'!G47</f>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f>$B21*'Time Series Scaling Factors'!H47</f>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f>$B21*'Time Series Scaling Factors'!I47</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f>$B21*'Time Series Scaling Factors'!J47</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>$B21*'Time Series Scaling Factors'!K47</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f>$B21*'Time Series Scaling Factors'!L47</f>
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <f>$B21*'Time Series Scaling Factors'!M47</f>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f>$B21*'Time Series Scaling Factors'!N47</f>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f>$B21*'Time Series Scaling Factors'!O47</f>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f>$B21*'Time Series Scaling Factors'!P47</f>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f>$B21*'Time Series Scaling Factors'!Q47</f>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f>$B21*'Time Series Scaling Factors'!R47</f>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f>$B21*'Time Series Scaling Factors'!S47</f>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f>$B21*'Time Series Scaling Factors'!T47</f>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f>$B21*'Time Series Scaling Factors'!U47</f>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f>$B21*'Time Series Scaling Factors'!V47</f>
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <f>$B21*'Time Series Scaling Factors'!W47</f>
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <f>$B21*'Time Series Scaling Factors'!X47</f>
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <f>$B21*'Time Series Scaling Factors'!Y47</f>
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <f>$B21*'Time Series Scaling Factors'!Z47</f>
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <f>$B21*'Time Series Scaling Factors'!AA47</f>
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <f>$B21*'Time Series Scaling Factors'!AB47</f>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f>$B21*'Time Series Scaling Factors'!AC47</f>
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <f>$B21*'Time Series Scaling Factors'!AD47</f>
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <f>$B21*'Time Series Scaling Factors'!AE47</f>
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <f>$B21*'Time Series Scaling Factors'!AF47</f>
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <f>$B21*'Time Series Scaling Factors'!AG47</f>
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <f>$B21*'Time Series Scaling Factors'!AH47</f>
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <f>$B21*'Time Series Scaling Factors'!AI47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A22" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="32">
-        <f>'Start Year Data'!C46</f>
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <f>$B22*'Time Series Scaling Factors'!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f>$B22*'Time Series Scaling Factors'!D48</f>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f>$B22*'Time Series Scaling Factors'!E48</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f>$B22*'Time Series Scaling Factors'!F48</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f>$B22*'Time Series Scaling Factors'!G48</f>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f>$B22*'Time Series Scaling Factors'!H48</f>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f>$B22*'Time Series Scaling Factors'!I48</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>$B22*'Time Series Scaling Factors'!J48</f>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f>$B22*'Time Series Scaling Factors'!K48</f>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f>$B22*'Time Series Scaling Factors'!L48</f>
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <f>$B22*'Time Series Scaling Factors'!M48</f>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f>$B22*'Time Series Scaling Factors'!N48</f>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f>$B22*'Time Series Scaling Factors'!O48</f>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f>$B22*'Time Series Scaling Factors'!P48</f>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f>$B22*'Time Series Scaling Factors'!Q48</f>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f>$B22*'Time Series Scaling Factors'!R48</f>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f>$B22*'Time Series Scaling Factors'!S48</f>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f>$B22*'Time Series Scaling Factors'!T48</f>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f>$B22*'Time Series Scaling Factors'!U48</f>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f>$B22*'Time Series Scaling Factors'!V48</f>
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <f>$B22*'Time Series Scaling Factors'!W48</f>
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <f>$B22*'Time Series Scaling Factors'!X48</f>
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <f>$B22*'Time Series Scaling Factors'!Y48</f>
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <f>$B22*'Time Series Scaling Factors'!Z48</f>
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f>$B22*'Time Series Scaling Factors'!AA48</f>
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <f>$B22*'Time Series Scaling Factors'!AB48</f>
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <f>$B22*'Time Series Scaling Factors'!AC48</f>
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <f>$B22*'Time Series Scaling Factors'!AD48</f>
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <f>$B22*'Time Series Scaling Factors'!AE48</f>
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <f>$B22*'Time Series Scaling Factors'!AF48</f>
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <f>$B22*'Time Series Scaling Factors'!AG48</f>
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <f>$B22*'Time Series Scaling Factors'!AH48</f>
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <f>$B22*'Time Series Scaling Factors'!AI48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A23" s="32"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A24" s="33"/>
-      <c r="B24" s="304"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A25" s="34"/>
-      <c r="B25" s="304"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A26" s="34"/>
-      <c r="B26" s="304"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A27" s="34"/>
-      <c r="B27" s="304"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
-      <c r="B28" s="304"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="34"/>
-      <c r="B29" s="304"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="34"/>
-      <c r="B30" s="304"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="34"/>
-      <c r="B31" s="304"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="34"/>
-      <c r="B32" s="304"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="34"/>
-      <c r="B33" s="304"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="34"/>
-      <c r="B34" s="304"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="34"/>
-      <c r="B35" s="304"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="34"/>
-      <c r="B36" s="304"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="34"/>
-      <c r="B37" s="304"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="34"/>
-      <c r="B38" s="304"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="34"/>
-      <c r="B39" s="304"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="34"/>
-      <c r="B40" s="304"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="34"/>
-      <c r="B41" s="304"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="34"/>
-      <c r="B42" s="304"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="34"/>
-      <c r="B43" s="304"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="34"/>
-      <c r="B44" s="304"/>
+      <c r="B44" s="286"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21994,8 +19585,8 @@
   </sheetPr>
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22117,139 +19708,139 @@
         <v>232</v>
       </c>
       <c r="B2" s="32">
-        <f>'Start Year Data'!D26</f>
+        <f>'Start Year Data'!C26</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>$B2*'Time Series Scaling Factors'!C53</f>
+        <f>$B2*'Time Series Scaling Factors'!C28</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>$B2*'Time Series Scaling Factors'!D53</f>
+        <f>$B2*'Time Series Scaling Factors'!D28</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>$B2*'Time Series Scaling Factors'!E53</f>
+        <f>$B2*'Time Series Scaling Factors'!E28</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>$B2*'Time Series Scaling Factors'!F53</f>
+        <f>$B2*'Time Series Scaling Factors'!F28</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>$B2*'Time Series Scaling Factors'!G53</f>
+        <f>$B2*'Time Series Scaling Factors'!G28</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>$B2*'Time Series Scaling Factors'!H53</f>
+        <f>$B2*'Time Series Scaling Factors'!H28</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>$B2*'Time Series Scaling Factors'!I53</f>
+        <f>$B2*'Time Series Scaling Factors'!I28</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>$B2*'Time Series Scaling Factors'!J53</f>
+        <f>$B2*'Time Series Scaling Factors'!J28</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>$B2*'Time Series Scaling Factors'!K53</f>
+        <f>$B2*'Time Series Scaling Factors'!K28</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>$B2*'Time Series Scaling Factors'!L53</f>
+        <f>$B2*'Time Series Scaling Factors'!L28</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>$B2*'Time Series Scaling Factors'!M53</f>
+        <f>$B2*'Time Series Scaling Factors'!M28</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>$B2*'Time Series Scaling Factors'!N53</f>
+        <f>$B2*'Time Series Scaling Factors'!N28</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>$B2*'Time Series Scaling Factors'!O53</f>
+        <f>$B2*'Time Series Scaling Factors'!O28</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>$B2*'Time Series Scaling Factors'!P53</f>
+        <f>$B2*'Time Series Scaling Factors'!P28</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>$B2*'Time Series Scaling Factors'!Q53</f>
+        <f>$B2*'Time Series Scaling Factors'!Q28</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>$B2*'Time Series Scaling Factors'!R53</f>
+        <f>$B2*'Time Series Scaling Factors'!R28</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>$B2*'Time Series Scaling Factors'!S53</f>
+        <f>$B2*'Time Series Scaling Factors'!S28</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>$B2*'Time Series Scaling Factors'!T53</f>
+        <f>$B2*'Time Series Scaling Factors'!T28</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>$B2*'Time Series Scaling Factors'!U53</f>
+        <f>$B2*'Time Series Scaling Factors'!U28</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>$B2*'Time Series Scaling Factors'!V53</f>
+        <f>$B2*'Time Series Scaling Factors'!V28</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>$B2*'Time Series Scaling Factors'!W53</f>
+        <f>$B2*'Time Series Scaling Factors'!W28</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>$B2*'Time Series Scaling Factors'!X53</f>
+        <f>$B2*'Time Series Scaling Factors'!X28</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>$B2*'Time Series Scaling Factors'!Y53</f>
+        <f>$B2*'Time Series Scaling Factors'!Y28</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>$B2*'Time Series Scaling Factors'!Z53</f>
+        <f>$B2*'Time Series Scaling Factors'!Z28</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>$B2*'Time Series Scaling Factors'!AA53</f>
+        <f>$B2*'Time Series Scaling Factors'!AA28</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>$B2*'Time Series Scaling Factors'!AB53</f>
+        <f>$B2*'Time Series Scaling Factors'!AB28</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>$B2*'Time Series Scaling Factors'!AC53</f>
+        <f>$B2*'Time Series Scaling Factors'!AC28</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>$B2*'Time Series Scaling Factors'!AD53</f>
+        <f>$B2*'Time Series Scaling Factors'!AD28</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>$B2*'Time Series Scaling Factors'!AE53</f>
+        <f>$B2*'Time Series Scaling Factors'!AE28</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>$B2*'Time Series Scaling Factors'!AF53</f>
+        <f>$B2*'Time Series Scaling Factors'!AF28</f>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f>$B2*'Time Series Scaling Factors'!AG53</f>
+        <f>$B2*'Time Series Scaling Factors'!AG28</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>$B2*'Time Series Scaling Factors'!AH53</f>
+        <f>$B2*'Time Series Scaling Factors'!AH28</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>$B2*'Time Series Scaling Factors'!AI53</f>
+        <f>$B2*'Time Series Scaling Factors'!AI28</f>
         <v>0</v>
       </c>
     </row>
@@ -22258,140 +19849,140 @@
         <v>233</v>
       </c>
       <c r="B3" s="32">
-        <f>'Start Year Data'!D27</f>
-        <v>0</v>
+        <f>'Start Year Data'!C27</f>
+        <v>998502681000000</v>
       </c>
       <c r="C3">
-        <f>$B3*'Time Series Scaling Factors'!C54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!C29</f>
+        <v>1018282144565643.1</v>
       </c>
       <c r="D3">
-        <f>$B3*'Time Series Scaling Factors'!D54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!D29</f>
+        <v>1060080949209916.4</v>
       </c>
       <c r="E3">
-        <f>$B3*'Time Series Scaling Factors'!E54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!E29</f>
+        <v>1065677887608703.5</v>
       </c>
       <c r="F3">
-        <f>$B3*'Time Series Scaling Factors'!F54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!F29</f>
+        <v>971866231102597.25</v>
       </c>
       <c r="G3">
-        <f>$B3*'Time Series Scaling Factors'!G54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!G29</f>
+        <v>880232842533501.88</v>
       </c>
       <c r="H3">
-        <f>$B3*'Time Series Scaling Factors'!H54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!H29</f>
+        <v>842090590768918.63</v>
       </c>
       <c r="I3">
-        <f>$B3*'Time Series Scaling Factors'!I54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!I29</f>
+        <v>808780728792664.38</v>
       </c>
       <c r="J3">
-        <f>$B3*'Time Series Scaling Factors'!J54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!J29</f>
+        <v>791918489885544</v>
       </c>
       <c r="K3">
-        <f>$B3*'Time Series Scaling Factors'!K54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!K29</f>
+        <v>771759562859836.13</v>
       </c>
       <c r="L3">
-        <f>$B3*'Time Series Scaling Factors'!L54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!L29</f>
+        <v>785560885684505.75</v>
       </c>
       <c r="M3">
-        <f>$B3*'Time Series Scaling Factors'!M54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!M29</f>
+        <v>825921425110547.38</v>
       </c>
       <c r="N3">
-        <f>$B3*'Time Series Scaling Factors'!N54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!N29</f>
+        <v>825827100907835.5</v>
       </c>
       <c r="O3">
-        <f>$B3*'Time Series Scaling Factors'!O54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!O29</f>
+        <v>838005581827483</v>
       </c>
       <c r="P3">
-        <f>$B3*'Time Series Scaling Factors'!P54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!P29</f>
+        <v>819377261303975.5</v>
       </c>
       <c r="Q3">
-        <f>$B3*'Time Series Scaling Factors'!Q54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!Q29</f>
+        <v>845594350778618.75</v>
       </c>
       <c r="R3">
-        <f>$B3*'Time Series Scaling Factors'!R54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!R29</f>
+        <v>851622617211413.88</v>
       </c>
       <c r="S3">
-        <f>$B3*'Time Series Scaling Factors'!S54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!S29</f>
+        <v>882201696006144.63</v>
       </c>
       <c r="T3">
-        <f>$B3*'Time Series Scaling Factors'!T54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!T29</f>
+        <v>865725562904885</v>
       </c>
       <c r="U3">
-        <f>$B3*'Time Series Scaling Factors'!U54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!U29</f>
+        <v>871235022707615.5</v>
       </c>
       <c r="V3">
-        <f>$B3*'Time Series Scaling Factors'!V54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!V29</f>
+        <v>877692859041075.75</v>
       </c>
       <c r="W3">
-        <f>$B3*'Time Series Scaling Factors'!W54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!W29</f>
+        <v>885784315903341.88</v>
       </c>
       <c r="X3">
-        <f>$B3*'Time Series Scaling Factors'!X54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!X29</f>
+        <v>895641442435243.25</v>
       </c>
       <c r="Y3">
-        <f>$B3*'Time Series Scaling Factors'!Y54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!Y29</f>
+        <v>909857321484880</v>
       </c>
       <c r="Z3">
-        <f>$B3*'Time Series Scaling Factors'!Z54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!Z29</f>
+        <v>907557173530514.63</v>
       </c>
       <c r="AA3">
-        <f>$B3*'Time Series Scaling Factors'!AA54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!AA29</f>
+        <v>904927354387186.88</v>
       </c>
       <c r="AB3">
-        <f>$B3*'Time Series Scaling Factors'!AB54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!AB29</f>
+        <v>902387338316656.38</v>
       </c>
       <c r="AC3">
-        <f>$B3*'Time Series Scaling Factors'!AC54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!AC29</f>
+        <v>899975377886766.13</v>
       </c>
       <c r="AD3">
-        <f>$B3*'Time Series Scaling Factors'!AD54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!AD29</f>
+        <v>901905289514856.5</v>
       </c>
       <c r="AE3">
-        <f>$B3*'Time Series Scaling Factors'!AE54</f>
-        <v>0</v>
+        <f>$B3*'Time Series Scaling Factors'!AE29</f>
+        <v>898959441064441.88</v>
       </c>
       <c r="AF3">
-        <f ca="1">$B3*'Time Series Scaling Factors'!AF54</f>
-        <v>0</v>
+        <f ca="1">$B3*'Time Series Scaling Factors'!AF29</f>
+        <v>903992037267942.13</v>
       </c>
       <c r="AG3">
-        <f ca="1">$B3*'Time Series Scaling Factors'!AG54</f>
-        <v>0</v>
+        <f ca="1">$B3*'Time Series Scaling Factors'!AG29</f>
+        <v>904622349463239.13</v>
       </c>
       <c r="AH3">
-        <f ca="1">$B3*'Time Series Scaling Factors'!AH54</f>
-        <v>0</v>
+        <f ca="1">$B3*'Time Series Scaling Factors'!AH29</f>
+        <v>907750388708256.63</v>
       </c>
       <c r="AI3">
-        <f ca="1">$B3*'Time Series Scaling Factors'!AI54</f>
-        <v>0</v>
+        <f ca="1">$B3*'Time Series Scaling Factors'!AI29</f>
+        <v>910969887414425.63</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -22399,6 +19990,3185 @@
         <v>224</v>
       </c>
       <c r="B4" s="32">
+        <f>'Start Year Data'!C28</f>
+        <v>612867000000</v>
+      </c>
+      <c r="C4">
+        <f>$B4*'Time Series Scaling Factors'!C30</f>
+        <v>592031625679.08105</v>
+      </c>
+      <c r="D4">
+        <f>$B4*'Time Series Scaling Factors'!D30</f>
+        <v>546121339221.10248</v>
+      </c>
+      <c r="E4">
+        <f>$B4*'Time Series Scaling Factors'!E30</f>
+        <v>547223928747.92633</v>
+      </c>
+      <c r="F4">
+        <f>$B4*'Time Series Scaling Factors'!F30</f>
+        <v>559509706987.98376</v>
+      </c>
+      <c r="G4">
+        <f>$B4*'Time Series Scaling Factors'!G30</f>
+        <v>568368206058.01257</v>
+      </c>
+      <c r="H4">
+        <f>$B4*'Time Series Scaling Factors'!H30</f>
+        <v>587137880783.39136</v>
+      </c>
+      <c r="I4">
+        <f>$B4*'Time Series Scaling Factors'!I30</f>
+        <v>595127669765.36096</v>
+      </c>
+      <c r="J4">
+        <f>$B4*'Time Series Scaling Factors'!J30</f>
+        <v>612898415633.30676</v>
+      </c>
+      <c r="K4">
+        <f>$B4*'Time Series Scaling Factors'!K30</f>
+        <v>607933758816.85632</v>
+      </c>
+      <c r="L4">
+        <f>$B4*'Time Series Scaling Factors'!L30</f>
+        <v>601502897856.41907</v>
+      </c>
+      <c r="M4">
+        <f>$B4*'Time Series Scaling Factors'!M30</f>
+        <v>613544217638.37549</v>
+      </c>
+      <c r="N4">
+        <f>$B4*'Time Series Scaling Factors'!N30</f>
+        <v>607779934811.52734</v>
+      </c>
+      <c r="O4">
+        <f>$B4*'Time Series Scaling Factors'!O30</f>
+        <v>610145797383.64673</v>
+      </c>
+      <c r="P4">
+        <f>$B4*'Time Series Scaling Factors'!P30</f>
+        <v>611759876813.05237</v>
+      </c>
+      <c r="Q4">
+        <f>$B4*'Time Series Scaling Factors'!Q30</f>
+        <v>630206603587.33191</v>
+      </c>
+      <c r="R4">
+        <f>$B4*'Time Series Scaling Factors'!R30</f>
+        <v>625816290137.70569</v>
+      </c>
+      <c r="S4">
+        <f>$B4*'Time Series Scaling Factors'!S30</f>
+        <v>616466808247.29565</v>
+      </c>
+      <c r="T4">
+        <f>$B4*'Time Series Scaling Factors'!T30</f>
+        <v>615562485782.93799</v>
+      </c>
+      <c r="U4">
+        <f>$B4*'Time Series Scaling Factors'!U30</f>
+        <v>606853356268.73071</v>
+      </c>
+      <c r="V4">
+        <f>$B4*'Time Series Scaling Factors'!V30</f>
+        <v>597075131047.56116</v>
+      </c>
+      <c r="W4">
+        <f>$B4*'Time Series Scaling Factors'!W30</f>
+        <v>590004733142.72693</v>
+      </c>
+      <c r="X4">
+        <f>$B4*'Time Series Scaling Factors'!X30</f>
+        <v>586070177341.61035</v>
+      </c>
+      <c r="Y4">
+        <f>$B4*'Time Series Scaling Factors'!Y30</f>
+        <v>587197061150.35938</v>
+      </c>
+      <c r="Z4">
+        <f>$B4*'Time Series Scaling Factors'!Z30</f>
+        <v>576801470925.86536</v>
+      </c>
+      <c r="AA4">
+        <f>$B4*'Time Series Scaling Factors'!AA30</f>
+        <v>572059600949.75647</v>
+      </c>
+      <c r="AB4">
+        <f>$B4*'Time Series Scaling Factors'!AB30</f>
+        <v>568861478042.97021</v>
+      </c>
+      <c r="AC4">
+        <f>$B4*'Time Series Scaling Factors'!AC30</f>
+        <v>549768412288.96899</v>
+      </c>
+      <c r="AD4">
+        <f>$B4*'Time Series Scaling Factors'!AD30</f>
+        <v>542210182095.07904</v>
+      </c>
+      <c r="AE4">
+        <f>$B4*'Time Series Scaling Factors'!AE30</f>
+        <v>525835936495.06494</v>
+      </c>
+      <c r="AF4">
+        <f ca="1">$B4*'Time Series Scaling Factors'!AF30</f>
+        <v>514914100277.66498</v>
+      </c>
+      <c r="AG4">
+        <f ca="1">$B4*'Time Series Scaling Factors'!AG30</f>
+        <v>503401615540.29224</v>
+      </c>
+      <c r="AH4">
+        <f ca="1">$B4*'Time Series Scaling Factors'!AH30</f>
+        <v>493131476741.88226</v>
+      </c>
+      <c r="AI4">
+        <f ca="1">$B4*'Time Series Scaling Factors'!AI30</f>
+        <v>468924425956.75354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="32">
+        <f>'Start Year Data'!C29</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="C5">
+        <f>$B5*'Time Series Scaling Factors'!C31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="D5">
+        <f>$B5*'Time Series Scaling Factors'!D31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="E5">
+        <f>$B5*'Time Series Scaling Factors'!E31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="F5">
+        <f>$B5*'Time Series Scaling Factors'!F31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="G5">
+        <f>$B5*'Time Series Scaling Factors'!G31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="H5">
+        <f>$B5*'Time Series Scaling Factors'!H31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="I5">
+        <f>$B5*'Time Series Scaling Factors'!I31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="J5">
+        <f>$B5*'Time Series Scaling Factors'!J31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="K5">
+        <f>$B5*'Time Series Scaling Factors'!K31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="L5">
+        <f>$B5*'Time Series Scaling Factors'!L31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="M5">
+        <f>$B5*'Time Series Scaling Factors'!M31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="N5">
+        <f>$B5*'Time Series Scaling Factors'!N31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="O5">
+        <f>$B5*'Time Series Scaling Factors'!O31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="P5">
+        <f>$B5*'Time Series Scaling Factors'!P31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="Q5">
+        <f>$B5*'Time Series Scaling Factors'!Q31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="R5">
+        <f>$B5*'Time Series Scaling Factors'!R31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="S5">
+        <f>$B5*'Time Series Scaling Factors'!S31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="T5">
+        <f>$B5*'Time Series Scaling Factors'!T31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="U5">
+        <f>$B5*'Time Series Scaling Factors'!U31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="V5">
+        <f>$B5*'Time Series Scaling Factors'!V31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="W5">
+        <f>$B5*'Time Series Scaling Factors'!W31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="X5">
+        <f>$B5*'Time Series Scaling Factors'!X31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="Y5">
+        <f>$B5*'Time Series Scaling Factors'!Y31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="Z5">
+        <f>$B5*'Time Series Scaling Factors'!Z31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AA5">
+        <f>$B5*'Time Series Scaling Factors'!AA31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AB5">
+        <f>$B5*'Time Series Scaling Factors'!AB31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AC5">
+        <f>$B5*'Time Series Scaling Factors'!AC31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AD5">
+        <f>$B5*'Time Series Scaling Factors'!AD31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AE5">
+        <f>$B5*'Time Series Scaling Factors'!AE31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AF5">
+        <f>$B5*'Time Series Scaling Factors'!AF31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AG5">
+        <f>$B5*'Time Series Scaling Factors'!AG31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AH5">
+        <f>$B5*'Time Series Scaling Factors'!AH31</f>
+        <v>387781818181818.19</v>
+      </c>
+      <c r="AI5">
+        <f>$B5*'Time Series Scaling Factors'!AI31</f>
+        <v>387781818181818.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="32">
+        <f>'Start Year Data'!C30</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>$B6*'Time Series Scaling Factors'!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>$B6*'Time Series Scaling Factors'!D32</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>$B6*'Time Series Scaling Factors'!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>$B6*'Time Series Scaling Factors'!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>$B6*'Time Series Scaling Factors'!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>$B6*'Time Series Scaling Factors'!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>$B6*'Time Series Scaling Factors'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>$B6*'Time Series Scaling Factors'!J32</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>$B6*'Time Series Scaling Factors'!K32</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>$B6*'Time Series Scaling Factors'!L32</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>$B6*'Time Series Scaling Factors'!M32</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>$B6*'Time Series Scaling Factors'!N32</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>$B6*'Time Series Scaling Factors'!O32</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>$B6*'Time Series Scaling Factors'!P32</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>$B6*'Time Series Scaling Factors'!Q32</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>$B6*'Time Series Scaling Factors'!R32</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>$B6*'Time Series Scaling Factors'!S32</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>$B6*'Time Series Scaling Factors'!T32</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>$B6*'Time Series Scaling Factors'!U32</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>$B6*'Time Series Scaling Factors'!V32</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>$B6*'Time Series Scaling Factors'!W32</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>$B6*'Time Series Scaling Factors'!X32</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>$B6*'Time Series Scaling Factors'!Y32</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>$B6*'Time Series Scaling Factors'!Z32</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>$B6*'Time Series Scaling Factors'!AA32</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f>$B6*'Time Series Scaling Factors'!AB32</f>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f>$B6*'Time Series Scaling Factors'!AC32</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f>$B6*'Time Series Scaling Factors'!AD32</f>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>$B6*'Time Series Scaling Factors'!AE32</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>$B6*'Time Series Scaling Factors'!AF32</f>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f>$B6*'Time Series Scaling Factors'!AG32</f>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f>$B6*'Time Series Scaling Factors'!AH32</f>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f>$B6*'Time Series Scaling Factors'!AI32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="32">
+        <f>'Start Year Data'!C31</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>$B7*'Time Series Scaling Factors'!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>$B7*'Time Series Scaling Factors'!D33</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>$B7*'Time Series Scaling Factors'!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>$B7*'Time Series Scaling Factors'!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>$B7*'Time Series Scaling Factors'!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>$B7*'Time Series Scaling Factors'!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>$B7*'Time Series Scaling Factors'!I33</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>$B7*'Time Series Scaling Factors'!J33</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>$B7*'Time Series Scaling Factors'!K33</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>$B7*'Time Series Scaling Factors'!L33</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>$B7*'Time Series Scaling Factors'!M33</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>$B7*'Time Series Scaling Factors'!N33</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>$B7*'Time Series Scaling Factors'!O33</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>$B7*'Time Series Scaling Factors'!P33</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>$B7*'Time Series Scaling Factors'!Q33</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>$B7*'Time Series Scaling Factors'!R33</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>$B7*'Time Series Scaling Factors'!S33</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>$B7*'Time Series Scaling Factors'!T33</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>$B7*'Time Series Scaling Factors'!U33</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>$B7*'Time Series Scaling Factors'!V33</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>$B7*'Time Series Scaling Factors'!W33</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>$B7*'Time Series Scaling Factors'!X33</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>$B7*'Time Series Scaling Factors'!Y33</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>$B7*'Time Series Scaling Factors'!Z33</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>$B7*'Time Series Scaling Factors'!AA33</f>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f>$B7*'Time Series Scaling Factors'!AB33</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>$B7*'Time Series Scaling Factors'!AC33</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>$B7*'Time Series Scaling Factors'!AD33</f>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>$B7*'Time Series Scaling Factors'!AE33</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>$B7*'Time Series Scaling Factors'!AF33</f>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f>$B7*'Time Series Scaling Factors'!AG33</f>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f>$B7*'Time Series Scaling Factors'!AH33</f>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f>$B7*'Time Series Scaling Factors'!AI33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="32">
+        <f>'Start Year Data'!C32</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>$B8*'Time Series Scaling Factors'!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>$B8*'Time Series Scaling Factors'!D34</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>$B8*'Time Series Scaling Factors'!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>$B8*'Time Series Scaling Factors'!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>$B8*'Time Series Scaling Factors'!G34</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>$B8*'Time Series Scaling Factors'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>$B8*'Time Series Scaling Factors'!I34</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>$B8*'Time Series Scaling Factors'!J34</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>$B8*'Time Series Scaling Factors'!K34</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>$B8*'Time Series Scaling Factors'!L34</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>$B8*'Time Series Scaling Factors'!M34</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>$B8*'Time Series Scaling Factors'!N34</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>$B8*'Time Series Scaling Factors'!O34</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>$B8*'Time Series Scaling Factors'!P34</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>$B8*'Time Series Scaling Factors'!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>$B8*'Time Series Scaling Factors'!R34</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>$B8*'Time Series Scaling Factors'!S34</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>$B8*'Time Series Scaling Factors'!T34</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>$B8*'Time Series Scaling Factors'!U34</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>$B8*'Time Series Scaling Factors'!V34</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>$B8*'Time Series Scaling Factors'!W34</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>$B8*'Time Series Scaling Factors'!X34</f>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f>$B8*'Time Series Scaling Factors'!Y34</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>$B8*'Time Series Scaling Factors'!Z34</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f>$B8*'Time Series Scaling Factors'!AA34</f>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f>$B8*'Time Series Scaling Factors'!AB34</f>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f>$B8*'Time Series Scaling Factors'!AC34</f>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f>$B8*'Time Series Scaling Factors'!AD34</f>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f>$B8*'Time Series Scaling Factors'!AE34</f>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f>$B8*'Time Series Scaling Factors'!AF34</f>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f>$B8*'Time Series Scaling Factors'!AG34</f>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f>$B8*'Time Series Scaling Factors'!AH34</f>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f>$B8*'Time Series Scaling Factors'!AI34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A9" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="32">
+        <f>'Start Year Data'!C33</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>$B9*'Time Series Scaling Factors'!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>$B9*'Time Series Scaling Factors'!D35</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>$B9*'Time Series Scaling Factors'!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>$B9*'Time Series Scaling Factors'!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>$B9*'Time Series Scaling Factors'!G35</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>$B9*'Time Series Scaling Factors'!H35</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>$B9*'Time Series Scaling Factors'!I35</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>$B9*'Time Series Scaling Factors'!J35</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>$B9*'Time Series Scaling Factors'!K35</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>$B9*'Time Series Scaling Factors'!L35</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>$B9*'Time Series Scaling Factors'!M35</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>$B9*'Time Series Scaling Factors'!N35</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>$B9*'Time Series Scaling Factors'!O35</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>$B9*'Time Series Scaling Factors'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>$B9*'Time Series Scaling Factors'!Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>$B9*'Time Series Scaling Factors'!R35</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>$B9*'Time Series Scaling Factors'!S35</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>$B9*'Time Series Scaling Factors'!T35</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>$B9*'Time Series Scaling Factors'!U35</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>$B9*'Time Series Scaling Factors'!V35</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>$B9*'Time Series Scaling Factors'!W35</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>$B9*'Time Series Scaling Factors'!X35</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>$B9*'Time Series Scaling Factors'!Y35</f>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>$B9*'Time Series Scaling Factors'!Z35</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>$B9*'Time Series Scaling Factors'!AA35</f>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f>$B9*'Time Series Scaling Factors'!AB35</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>$B9*'Time Series Scaling Factors'!AC35</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f>$B9*'Time Series Scaling Factors'!AD35</f>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>$B9*'Time Series Scaling Factors'!AE35</f>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f>$B9*'Time Series Scaling Factors'!AF35</f>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f>$B9*'Time Series Scaling Factors'!AG35</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>$B9*'Time Series Scaling Factors'!AH35</f>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f>$B9*'Time Series Scaling Factors'!AI35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A10" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="32">
+        <f>'Start Year Data'!C34</f>
+        <v>3530114978676.9375</v>
+      </c>
+      <c r="C10">
+        <f>$B10*'Time Series Scaling Factors'!C36</f>
+        <v>4048844580335.8096</v>
+      </c>
+      <c r="D10">
+        <f>$B10*'Time Series Scaling Factors'!D36</f>
+        <v>3940429989596.8389</v>
+      </c>
+      <c r="E10">
+        <f>$B10*'Time Series Scaling Factors'!E36</f>
+        <v>3788071310767.1499</v>
+      </c>
+      <c r="F10">
+        <f>$B10*'Time Series Scaling Factors'!F36</f>
+        <v>3966289250096.2905</v>
+      </c>
+      <c r="G10">
+        <f>$B10*'Time Series Scaling Factors'!G36</f>
+        <v>3960573190057.1875</v>
+      </c>
+      <c r="H10">
+        <f>$B10*'Time Series Scaling Factors'!H36</f>
+        <v>3859069609476.5684</v>
+      </c>
+      <c r="I10">
+        <f>$B10*'Time Series Scaling Factors'!I36</f>
+        <v>3952541253995.6094</v>
+      </c>
+      <c r="J10">
+        <f>$B10*'Time Series Scaling Factors'!J36</f>
+        <v>3890034770731.3467</v>
+      </c>
+      <c r="K10">
+        <f>$B10*'Time Series Scaling Factors'!K36</f>
+        <v>3689181803300.1772</v>
+      </c>
+      <c r="L10">
+        <f>$B10*'Time Series Scaling Factors'!L36</f>
+        <v>3846292032742.5898</v>
+      </c>
+      <c r="M10">
+        <f>$B10*'Time Series Scaling Factors'!M36</f>
+        <v>3661164791095.7969</v>
+      </c>
+      <c r="N10">
+        <f>$B10*'Time Series Scaling Factors'!N36</f>
+        <v>3678179698101.3979</v>
+      </c>
+      <c r="O10">
+        <f>$B10*'Time Series Scaling Factors'!O36</f>
+        <v>3662104825039.4868</v>
+      </c>
+      <c r="P10">
+        <f>$B10*'Time Series Scaling Factors'!P36</f>
+        <v>3701234715542.895</v>
+      </c>
+      <c r="Q10">
+        <f>$B10*'Time Series Scaling Factors'!Q36</f>
+        <v>3737340103295.9058</v>
+      </c>
+      <c r="R10">
+        <f>$B10*'Time Series Scaling Factors'!R36</f>
+        <v>3770419528901.7949</v>
+      </c>
+      <c r="S10">
+        <f>$B10*'Time Series Scaling Factors'!S36</f>
+        <v>3677901628812.5068</v>
+      </c>
+      <c r="T10">
+        <f>$B10*'Time Series Scaling Factors'!T36</f>
+        <v>3612518536687.6001</v>
+      </c>
+      <c r="U10">
+        <f>$B10*'Time Series Scaling Factors'!U36</f>
+        <v>3770307331264.0303</v>
+      </c>
+      <c r="V10">
+        <f>$B10*'Time Series Scaling Factors'!V36</f>
+        <v>3679458411909.8696</v>
+      </c>
+      <c r="W10">
+        <f>$B10*'Time Series Scaling Factors'!W36</f>
+        <v>3717713853655.5542</v>
+      </c>
+      <c r="X10">
+        <f>$B10*'Time Series Scaling Factors'!X36</f>
+        <v>3786328843135.2593</v>
+      </c>
+      <c r="Y10">
+        <f>$B10*'Time Series Scaling Factors'!Y36</f>
+        <v>3842035597303.0376</v>
+      </c>
+      <c r="Z10">
+        <f>$B10*'Time Series Scaling Factors'!Z36</f>
+        <v>3913922407509.8696</v>
+      </c>
+      <c r="AA10">
+        <f>$B10*'Time Series Scaling Factors'!AA36</f>
+        <v>3932529265550.54</v>
+      </c>
+      <c r="AB10">
+        <f>$B10*'Time Series Scaling Factors'!AB36</f>
+        <v>3998300885399.1392</v>
+      </c>
+      <c r="AC10">
+        <f>$B10*'Time Series Scaling Factors'!AC36</f>
+        <v>4137756594221.6323</v>
+      </c>
+      <c r="AD10">
+        <f>$B10*'Time Series Scaling Factors'!AD36</f>
+        <v>4218802359323.5107</v>
+      </c>
+      <c r="AE10">
+        <f>$B10*'Time Series Scaling Factors'!AE36</f>
+        <v>4235082231723.8823</v>
+      </c>
+      <c r="AF10">
+        <f ca="1">$B10*'Time Series Scaling Factors'!AF36</f>
+        <v>4369780302276.9683</v>
+      </c>
+      <c r="AG10">
+        <f ca="1">$B10*'Time Series Scaling Factors'!AG36</f>
+        <v>4459510283725.3574</v>
+      </c>
+      <c r="AH10">
+        <f ca="1">$B10*'Time Series Scaling Factors'!AH36</f>
+        <v>4596772878274.1563</v>
+      </c>
+      <c r="AI10">
+        <f ca="1">$B10*'Time Series Scaling Factors'!AI36</f>
+        <v>4687966581495.7715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A11" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="32">
+        <f>'Start Year Data'!C35</f>
+        <v>15371910166326.137</v>
+      </c>
+      <c r="C11">
+        <f>$B11*'Time Series Scaling Factors'!C37</f>
+        <v>17630721815657.422</v>
+      </c>
+      <c r="D11">
+        <f>$B11*'Time Series Scaling Factors'!D37</f>
+        <v>17158629728112.137</v>
+      </c>
+      <c r="E11">
+        <f>$B11*'Time Series Scaling Factors'!E37</f>
+        <v>16495182804094.977</v>
+      </c>
+      <c r="F11">
+        <f>$B11*'Time Series Scaling Factors'!F37</f>
+        <v>17271234057366.641</v>
+      </c>
+      <c r="G11">
+        <f>$B11*'Time Series Scaling Factors'!G37</f>
+        <v>17246343434268.764</v>
+      </c>
+      <c r="H11">
+        <f>$B11*'Time Series Scaling Factors'!H37</f>
+        <v>16804345388406.102</v>
+      </c>
+      <c r="I11">
+        <f>$B11*'Time Series Scaling Factors'!I37</f>
+        <v>17211368312963.641</v>
+      </c>
+      <c r="J11">
+        <f>$B11*'Time Series Scaling Factors'!J37</f>
+        <v>16939183397924.039</v>
+      </c>
+      <c r="K11">
+        <f>$B11*'Time Series Scaling Factors'!K37</f>
+        <v>16064567757741.934</v>
+      </c>
+      <c r="L11">
+        <f>$B11*'Time Series Scaling Factors'!L37</f>
+        <v>16748705341868.105</v>
+      </c>
+      <c r="M11">
+        <f>$B11*'Time Series Scaling Factors'!M37</f>
+        <v>15942567483717.996</v>
+      </c>
+      <c r="N11">
+        <f>$B11*'Time Series Scaling Factors'!N37</f>
+        <v>16016659014322.055</v>
+      </c>
+      <c r="O11">
+        <f>$B11*'Time Series Scaling Factors'!O37</f>
+        <v>15946660868047.68</v>
+      </c>
+      <c r="P11">
+        <f>$B11*'Time Series Scaling Factors'!P37</f>
+        <v>16117052247725.064</v>
+      </c>
+      <c r="Q11">
+        <f>$B11*'Time Series Scaling Factors'!Q37</f>
+        <v>16274273409192.068</v>
+      </c>
+      <c r="R11">
+        <f>$B11*'Time Series Scaling Factors'!R37</f>
+        <v>16418317997495.527</v>
+      </c>
+      <c r="S11">
+        <f>$B11*'Time Series Scaling Factors'!S37</f>
+        <v>16015448159674.355</v>
+      </c>
+      <c r="T11">
+        <f>$B11*'Time Series Scaling Factors'!T37</f>
+        <v>15730737031393.375</v>
+      </c>
+      <c r="U11">
+        <f>$B11*'Time Series Scaling Factors'!U37</f>
+        <v>16417829432103.463</v>
+      </c>
+      <c r="V11">
+        <f>$B11*'Time Series Scaling Factors'!V37</f>
+        <v>16022227182472.668</v>
+      </c>
+      <c r="W11">
+        <f>$B11*'Time Series Scaling Factors'!W37</f>
+        <v>16188810768967.686</v>
+      </c>
+      <c r="X11">
+        <f>$B11*'Time Series Scaling Factors'!X37</f>
+        <v>16487595216702.797</v>
+      </c>
+      <c r="Y11">
+        <f>$B11*'Time Series Scaling Factors'!Y37</f>
+        <v>16730170664215.74</v>
+      </c>
+      <c r="Z11">
+        <f>$B11*'Time Series Scaling Factors'!Z37</f>
+        <v>17043202278006.779</v>
+      </c>
+      <c r="AA11">
+        <f>$B11*'Time Series Scaling Factors'!AA37</f>
+        <v>17124225970437.887</v>
+      </c>
+      <c r="AB11">
+        <f>$B11*'Time Series Scaling Factors'!AB37</f>
+        <v>17410628945387.262</v>
+      </c>
+      <c r="AC11">
+        <f>$B11*'Time Series Scaling Factors'!AC37</f>
+        <v>18017889796988.23</v>
+      </c>
+      <c r="AD11">
+        <f>$B11*'Time Series Scaling Factors'!AD37</f>
+        <v>18370804143413.902</v>
+      </c>
+      <c r="AE11">
+        <f>$B11*'Time Series Scaling Factors'!AE37</f>
+        <v>18441694960729.875</v>
+      </c>
+      <c r="AF11">
+        <f ca="1">$B11*'Time Series Scaling Factors'!AF37</f>
+        <v>19028238643478.57</v>
+      </c>
+      <c r="AG11">
+        <f ca="1">$B11*'Time Series Scaling Factors'!AG37</f>
+        <v>19418968470235.574</v>
+      </c>
+      <c r="AH11">
+        <f ca="1">$B11*'Time Series Scaling Factors'!AH37</f>
+        <v>20016679390516.078</v>
+      </c>
+      <c r="AI11">
+        <f ca="1">$B11*'Time Series Scaling Factors'!AI37</f>
+        <v>20413783003889.793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A12" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="32">
+        <f>'Start Year Data'!C36</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>$B12*'Time Series Scaling Factors'!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>$B12*'Time Series Scaling Factors'!D38</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>$B12*'Time Series Scaling Factors'!E38</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>$B12*'Time Series Scaling Factors'!F38</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>$B12*'Time Series Scaling Factors'!G38</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>$B12*'Time Series Scaling Factors'!H38</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>$B12*'Time Series Scaling Factors'!I38</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>$B12*'Time Series Scaling Factors'!J38</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>$B12*'Time Series Scaling Factors'!K38</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>$B12*'Time Series Scaling Factors'!L38</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>$B12*'Time Series Scaling Factors'!M38</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>$B12*'Time Series Scaling Factors'!N38</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>$B12*'Time Series Scaling Factors'!O38</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>$B12*'Time Series Scaling Factors'!P38</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>$B12*'Time Series Scaling Factors'!Q38</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>$B12*'Time Series Scaling Factors'!R38</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>$B12*'Time Series Scaling Factors'!S38</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>$B12*'Time Series Scaling Factors'!T38</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>$B12*'Time Series Scaling Factors'!U38</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>$B12*'Time Series Scaling Factors'!V38</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>$B12*'Time Series Scaling Factors'!W38</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>$B12*'Time Series Scaling Factors'!X38</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>$B12*'Time Series Scaling Factors'!Y38</f>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f>$B12*'Time Series Scaling Factors'!Z38</f>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f>$B12*'Time Series Scaling Factors'!AA38</f>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f>$B12*'Time Series Scaling Factors'!AB38</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f>$B12*'Time Series Scaling Factors'!AC38</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f>$B12*'Time Series Scaling Factors'!AD38</f>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>$B12*'Time Series Scaling Factors'!AE38</f>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f ca="1">$B12*'Time Series Scaling Factors'!AF38</f>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f ca="1">$B12*'Time Series Scaling Factors'!AG38</f>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f ca="1">$B12*'Time Series Scaling Factors'!AH38</f>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f ca="1">$B12*'Time Series Scaling Factors'!AI38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A13" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="32">
+        <f>'Start Year Data'!C37</f>
+        <v>5408500561128.2363</v>
+      </c>
+      <c r="C13">
+        <f>$B13*'Time Series Scaling Factors'!C39</f>
+        <v>6203247859330.2168</v>
+      </c>
+      <c r="D13">
+        <f>$B13*'Time Series Scaling Factors'!D39</f>
+        <v>6037145514679.1152</v>
+      </c>
+      <c r="E13">
+        <f>$B13*'Time Series Scaling Factors'!E39</f>
+        <v>5803716290724.4971</v>
+      </c>
+      <c r="F13">
+        <f>$B13*'Time Series Scaling Factors'!F39</f>
+        <v>6076764571215.9268</v>
+      </c>
+      <c r="G13">
+        <f>$B13*'Time Series Scaling Factors'!G39</f>
+        <v>6068006977167.1006</v>
+      </c>
+      <c r="H13">
+        <f>$B13*'Time Series Scaling Factors'!H39</f>
+        <v>5912493013502.2236</v>
+      </c>
+      <c r="I13">
+        <f>$B13*'Time Series Scaling Factors'!I39</f>
+        <v>6055701221983.9443</v>
+      </c>
+      <c r="J13">
+        <f>$B13*'Time Series Scaling Factors'!J39</f>
+        <v>5959934837078.3682</v>
+      </c>
+      <c r="K13">
+        <f>$B13*'Time Series Scaling Factors'!K39</f>
+        <v>5652207356920.5137</v>
+      </c>
+      <c r="L13">
+        <f>$B13*'Time Series Scaling Factors'!L39</f>
+        <v>5892916446916.4277</v>
+      </c>
+      <c r="M13">
+        <f>$B13*'Time Series Scaling Factors'!M39</f>
+        <v>5609282402027.0273</v>
+      </c>
+      <c r="N13">
+        <f>$B13*'Time Series Scaling Factors'!N39</f>
+        <v>5635350996008.583</v>
+      </c>
+      <c r="O13">
+        <f>$B13*'Time Series Scaling Factors'!O39</f>
+        <v>5610722631068.4707</v>
+      </c>
+      <c r="P13">
+        <f>$B13*'Time Series Scaling Factors'!P39</f>
+        <v>5670673662698.5762</v>
+      </c>
+      <c r="Q13">
+        <f>$B13*'Time Series Scaling Factors'!Q39</f>
+        <v>5725990843895.6318</v>
+      </c>
+      <c r="R13">
+        <f>$B13*'Time Series Scaling Factors'!R39</f>
+        <v>5776671938713.2021</v>
+      </c>
+      <c r="S13">
+        <f>$B13*'Time Series Scaling Factors'!S39</f>
+        <v>5634924965152.9072</v>
+      </c>
+      <c r="T13">
+        <f>$B13*'Time Series Scaling Factors'!T39</f>
+        <v>5534751318520.4697</v>
+      </c>
+      <c r="U13">
+        <f>$B13*'Time Series Scaling Factors'!U39</f>
+        <v>5776500040349.9834</v>
+      </c>
+      <c r="V13">
+        <f>$B13*'Time Series Scaling Factors'!V39</f>
+        <v>5637310117564.7979</v>
+      </c>
+      <c r="W13">
+        <f>$B13*'Time Series Scaling Factors'!W39</f>
+        <v>5695921403428.7188</v>
+      </c>
+      <c r="X13">
+        <f>$B13*'Time Series Scaling Factors'!X39</f>
+        <v>5801046650437.4941</v>
+      </c>
+      <c r="Y13">
+        <f>$B13*'Time Series Scaling Factors'!Y39</f>
+        <v>5886395148431.1729</v>
+      </c>
+      <c r="Z13">
+        <f>$B13*'Time Series Scaling Factors'!Z39</f>
+        <v>5996533162543.9844</v>
+      </c>
+      <c r="AA13">
+        <f>$B13*'Time Series Scaling Factors'!AA39</f>
+        <v>6025040789848.3838</v>
+      </c>
+      <c r="AB13">
+        <f>$B13*'Time Series Scaling Factors'!AB39</f>
+        <v>6125809701061.2383</v>
+      </c>
+      <c r="AC13">
+        <f>$B13*'Time Series Scaling Factors'!AC39</f>
+        <v>6339470242991.1426</v>
+      </c>
+      <c r="AD13">
+        <f>$B13*'Time Series Scaling Factors'!AD39</f>
+        <v>6463640721482.1475</v>
+      </c>
+      <c r="AE13">
+        <f>$B13*'Time Series Scaling Factors'!AE39</f>
+        <v>6488583166570.8643</v>
+      </c>
+      <c r="AF13">
+        <f ca="1">$B13*'Time Series Scaling Factors'!AF39</f>
+        <v>6694954515541.0039</v>
+      </c>
+      <c r="AG13">
+        <f ca="1">$B13*'Time Series Scaling Factors'!AG39</f>
+        <v>6832430109946.5791</v>
+      </c>
+      <c r="AH13">
+        <f ca="1">$B13*'Time Series Scaling Factors'!AH39</f>
+        <v>7042730574413.9834</v>
+      </c>
+      <c r="AI13">
+        <f ca="1">$B13*'Time Series Scaling Factors'!AI39</f>
+        <v>7182448741676.1504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A14" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="32">
+        <f>'Start Year Data'!C38</f>
+        <v>583575359337.06848</v>
+      </c>
+      <c r="C14">
+        <f>$B14*'Time Series Scaling Factors'!C40</f>
+        <v>669328320788.85303</v>
+      </c>
+      <c r="D14">
+        <f>$B14*'Time Series Scaling Factors'!D40</f>
+        <v>651405934654.11353</v>
+      </c>
+      <c r="E14">
+        <f>$B14*'Time Series Scaling Factors'!E40</f>
+        <v>626219001287.00806</v>
+      </c>
+      <c r="F14">
+        <f>$B14*'Time Series Scaling Factors'!F40</f>
+        <v>655680817293.71924</v>
+      </c>
+      <c r="G14">
+        <f>$B14*'Time Series Scaling Factors'!G40</f>
+        <v>654735875893.37939</v>
+      </c>
+      <c r="H14">
+        <f>$B14*'Time Series Scaling Factors'!H40</f>
+        <v>637955972442.88757</v>
+      </c>
+      <c r="I14">
+        <f>$B14*'Time Series Scaling Factors'!I40</f>
+        <v>653408089121.10132</v>
+      </c>
+      <c r="J14">
+        <f>$B14*'Time Series Scaling Factors'!J40</f>
+        <v>643074928968.47937</v>
+      </c>
+      <c r="K14">
+        <f>$B14*'Time Series Scaling Factors'!K40</f>
+        <v>609871239187.67456</v>
+      </c>
+      <c r="L14">
+        <f>$B14*'Time Series Scaling Factors'!L40</f>
+        <v>635843667608.90076</v>
+      </c>
+      <c r="M14">
+        <f>$B14*'Time Series Scaling Factors'!M40</f>
+        <v>605239651246.91858</v>
+      </c>
+      <c r="N14">
+        <f>$B14*'Time Series Scaling Factors'!N40</f>
+        <v>608052443614.83228</v>
+      </c>
+      <c r="O14">
+        <f>$B14*'Time Series Scaling Factors'!O40</f>
+        <v>605395051467.53223</v>
+      </c>
+      <c r="P14">
+        <f>$B14*'Time Series Scaling Factors'!P40</f>
+        <v>611863747260.52441</v>
+      </c>
+      <c r="Q14">
+        <f>$B14*'Time Series Scaling Factors'!Q40</f>
+        <v>617832452177.85388</v>
+      </c>
+      <c r="R14">
+        <f>$B14*'Time Series Scaling Factors'!R40</f>
+        <v>623300924961.66553</v>
+      </c>
+      <c r="S14">
+        <f>$B14*'Time Series Scaling Factors'!S40</f>
+        <v>608006475031.32568</v>
+      </c>
+      <c r="T14">
+        <f>$B14*'Time Series Scaling Factors'!T40</f>
+        <v>597197772846.88245</v>
+      </c>
+      <c r="U14">
+        <f>$B14*'Time Series Scaling Factors'!U40</f>
+        <v>623282377187.11133</v>
+      </c>
+      <c r="V14">
+        <f>$B14*'Time Series Scaling Factors'!V40</f>
+        <v>608263832160.18445</v>
+      </c>
+      <c r="W14">
+        <f>$B14*'Time Series Scaling Factors'!W40</f>
+        <v>614587969843.57043</v>
+      </c>
+      <c r="X14">
+        <f>$B14*'Time Series Scaling Factors'!X40</f>
+        <v>625930948013.79858</v>
+      </c>
+      <c r="Y14">
+        <f>$B14*'Time Series Scaling Factors'!Y40</f>
+        <v>635140021734.43616</v>
+      </c>
+      <c r="Z14">
+        <f>$B14*'Time Series Scaling Factors'!Z40</f>
+        <v>647023875759.43188</v>
+      </c>
+      <c r="AA14">
+        <f>$B14*'Time Series Scaling Factors'!AA40</f>
+        <v>650099838988.05396</v>
+      </c>
+      <c r="AB14">
+        <f>$B14*'Time Series Scaling Factors'!AB40</f>
+        <v>660972770016.97827</v>
+      </c>
+      <c r="AC14">
+        <f>$B14*'Time Series Scaling Factors'!AC40</f>
+        <v>684026669359.99451</v>
+      </c>
+      <c r="AD14">
+        <f>$B14*'Time Series Scaling Factors'!AD40</f>
+        <v>697424621488.3988</v>
+      </c>
+      <c r="AE14">
+        <f>$B14*'Time Series Scaling Factors'!AE40</f>
+        <v>700115902776.23071</v>
+      </c>
+      <c r="AF14">
+        <f ca="1">$B14*'Time Series Scaling Factors'!AF40</f>
+        <v>722383300693.81592</v>
+      </c>
+      <c r="AG14">
+        <f ca="1">$B14*'Time Series Scaling Factors'!AG40</f>
+        <v>737216870275.35901</v>
+      </c>
+      <c r="AH14">
+        <f ca="1">$B14*'Time Series Scaling Factors'!AH40</f>
+        <v>759908218410.25061</v>
+      </c>
+      <c r="AI14">
+        <f ca="1">$B14*'Time Series Scaling Factors'!AI40</f>
+        <v>774983760835.43762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="32">
+        <f>'Start Year Data'!C39</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>$B15*'Time Series Scaling Factors'!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>$B15*'Time Series Scaling Factors'!D41</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>$B15*'Time Series Scaling Factors'!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>$B15*'Time Series Scaling Factors'!F41</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>$B15*'Time Series Scaling Factors'!G41</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>$B15*'Time Series Scaling Factors'!H41</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>$B15*'Time Series Scaling Factors'!I41</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>$B15*'Time Series Scaling Factors'!J41</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>$B15*'Time Series Scaling Factors'!K41</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>$B15*'Time Series Scaling Factors'!L41</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>$B15*'Time Series Scaling Factors'!M41</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>$B15*'Time Series Scaling Factors'!N41</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>$B15*'Time Series Scaling Factors'!O41</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>$B15*'Time Series Scaling Factors'!P41</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>$B15*'Time Series Scaling Factors'!Q41</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>$B15*'Time Series Scaling Factors'!R41</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>$B15*'Time Series Scaling Factors'!S41</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>$B15*'Time Series Scaling Factors'!T41</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>$B15*'Time Series Scaling Factors'!U41</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>$B15*'Time Series Scaling Factors'!V41</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>$B15*'Time Series Scaling Factors'!W41</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>$B15*'Time Series Scaling Factors'!X41</f>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>$B15*'Time Series Scaling Factors'!Y41</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>$B15*'Time Series Scaling Factors'!Z41</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f>$B15*'Time Series Scaling Factors'!AA41</f>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f>$B15*'Time Series Scaling Factors'!AB41</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f>$B15*'Time Series Scaling Factors'!AC41</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f>$B15*'Time Series Scaling Factors'!AD41</f>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f>$B15*'Time Series Scaling Factors'!AE41</f>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f>$B15*'Time Series Scaling Factors'!AF41</f>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f>$B15*'Time Series Scaling Factors'!AG41</f>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f>$B15*'Time Series Scaling Factors'!AH41</f>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f>$B15*'Time Series Scaling Factors'!AI41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A16" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="32">
+        <f>'Start Year Data'!C40</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>$B16*'Time Series Scaling Factors'!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>$B16*'Time Series Scaling Factors'!D42</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>$B16*'Time Series Scaling Factors'!E42</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>$B16*'Time Series Scaling Factors'!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>$B16*'Time Series Scaling Factors'!G42</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>$B16*'Time Series Scaling Factors'!H42</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>$B16*'Time Series Scaling Factors'!I42</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>$B16*'Time Series Scaling Factors'!J42</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>$B16*'Time Series Scaling Factors'!K42</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>$B16*'Time Series Scaling Factors'!L42</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>$B16*'Time Series Scaling Factors'!M42</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>$B16*'Time Series Scaling Factors'!N42</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>$B16*'Time Series Scaling Factors'!O42</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>$B16*'Time Series Scaling Factors'!P42</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>$B16*'Time Series Scaling Factors'!Q42</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f>$B16*'Time Series Scaling Factors'!R42</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>$B16*'Time Series Scaling Factors'!S42</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>$B16*'Time Series Scaling Factors'!T42</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>$B16*'Time Series Scaling Factors'!U42</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>$B16*'Time Series Scaling Factors'!V42</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f>$B16*'Time Series Scaling Factors'!W42</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>$B16*'Time Series Scaling Factors'!X42</f>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f>$B16*'Time Series Scaling Factors'!Y42</f>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>$B16*'Time Series Scaling Factors'!Z42</f>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f>$B16*'Time Series Scaling Factors'!AA42</f>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f>$B16*'Time Series Scaling Factors'!AB42</f>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f>$B16*'Time Series Scaling Factors'!AC42</f>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f>$B16*'Time Series Scaling Factors'!AD42</f>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f>$B16*'Time Series Scaling Factors'!AE42</f>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f>$B16*'Time Series Scaling Factors'!AF42</f>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f>$B16*'Time Series Scaling Factors'!AG42</f>
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f>$B16*'Time Series Scaling Factors'!AH42</f>
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <f>$B16*'Time Series Scaling Factors'!AI42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A17" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="32">
+        <f>'Start Year Data'!C41</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>$B17*'Time Series Scaling Factors'!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>$B17*'Time Series Scaling Factors'!D43</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>$B17*'Time Series Scaling Factors'!E43</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>$B17*'Time Series Scaling Factors'!F43</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>$B17*'Time Series Scaling Factors'!G43</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>$B17*'Time Series Scaling Factors'!H43</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>$B17*'Time Series Scaling Factors'!I43</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>$B17*'Time Series Scaling Factors'!J43</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>$B17*'Time Series Scaling Factors'!K43</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>$B17*'Time Series Scaling Factors'!L43</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>$B17*'Time Series Scaling Factors'!M43</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>$B17*'Time Series Scaling Factors'!N43</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>$B17*'Time Series Scaling Factors'!O43</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>$B17*'Time Series Scaling Factors'!P43</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>$B17*'Time Series Scaling Factors'!Q43</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>$B17*'Time Series Scaling Factors'!R43</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>$B17*'Time Series Scaling Factors'!S43</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>$B17*'Time Series Scaling Factors'!T43</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>$B17*'Time Series Scaling Factors'!U43</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>$B17*'Time Series Scaling Factors'!V43</f>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>$B17*'Time Series Scaling Factors'!W43</f>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f>$B17*'Time Series Scaling Factors'!X43</f>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f>$B17*'Time Series Scaling Factors'!Y43</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>$B17*'Time Series Scaling Factors'!Z43</f>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f>$B17*'Time Series Scaling Factors'!AA43</f>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f>$B17*'Time Series Scaling Factors'!AB43</f>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f>$B17*'Time Series Scaling Factors'!AC43</f>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f>$B17*'Time Series Scaling Factors'!AD43</f>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f>$B17*'Time Series Scaling Factors'!AE43</f>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f ca="1">$B17*'Time Series Scaling Factors'!AF43</f>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f ca="1">$B17*'Time Series Scaling Factors'!AG43</f>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f ca="1">$B17*'Time Series Scaling Factors'!AH43</f>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f ca="1">$B17*'Time Series Scaling Factors'!AI43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A18" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="32">
+        <f>'Start Year Data'!C42</f>
+        <v>3491101786403734.5</v>
+      </c>
+      <c r="C18">
+        <f>$B18*'Time Series Scaling Factors'!C44</f>
+        <v>3447391524486694.5</v>
+      </c>
+      <c r="D18">
+        <f>$B18*'Time Series Scaling Factors'!D44</f>
+        <v>3162464711618915</v>
+      </c>
+      <c r="E18">
+        <f>$B18*'Time Series Scaling Factors'!E44</f>
+        <v>2926902354195027</v>
+      </c>
+      <c r="F18">
+        <f>$B18*'Time Series Scaling Factors'!F44</f>
+        <v>2821978493703681.5</v>
+      </c>
+      <c r="G18">
+        <f>$B18*'Time Series Scaling Factors'!G44</f>
+        <v>2602038092842135</v>
+      </c>
+      <c r="H18">
+        <f>$B18*'Time Series Scaling Factors'!H44</f>
+        <v>2661425892187471</v>
+      </c>
+      <c r="I18">
+        <f>$B18*'Time Series Scaling Factors'!I44</f>
+        <v>2565927780000418</v>
+      </c>
+      <c r="J18">
+        <f>$B18*'Time Series Scaling Factors'!J44</f>
+        <v>2653929565250569</v>
+      </c>
+      <c r="K18">
+        <f>$B18*'Time Series Scaling Factors'!K44</f>
+        <v>2506361418923978.5</v>
+      </c>
+      <c r="L18">
+        <f>$B18*'Time Series Scaling Factors'!L44</f>
+        <v>2187304624494278.3</v>
+      </c>
+      <c r="M18">
+        <f>$B18*'Time Series Scaling Factors'!M44</f>
+        <v>2371404000981023.5</v>
+      </c>
+      <c r="N18">
+        <f>$B18*'Time Series Scaling Factors'!N44</f>
+        <v>2388041133092026</v>
+      </c>
+      <c r="O18">
+        <f>$B18*'Time Series Scaling Factors'!O44</f>
+        <v>2414288691567878</v>
+      </c>
+      <c r="P18">
+        <f>$B18*'Time Series Scaling Factors'!P44</f>
+        <v>2448516735712717.5</v>
+      </c>
+      <c r="Q18">
+        <f>$B18*'Time Series Scaling Factors'!Q44</f>
+        <v>2455008952345000.5</v>
+      </c>
+      <c r="R18">
+        <f>$B18*'Time Series Scaling Factors'!R44</f>
+        <v>2438822694628570.5</v>
+      </c>
+      <c r="S18">
+        <f>$B18*'Time Series Scaling Factors'!S44</f>
+        <v>2612155818983633</v>
+      </c>
+      <c r="T18">
+        <f>$B18*'Time Series Scaling Factors'!T44</f>
+        <v>2685845016084568.5</v>
+      </c>
+      <c r="U18">
+        <f>$B18*'Time Series Scaling Factors'!U44</f>
+        <v>2737487956084843.5</v>
+      </c>
+      <c r="V18">
+        <f>$B18*'Time Series Scaling Factors'!V44</f>
+        <v>2893177485832155</v>
+      </c>
+      <c r="W18">
+        <f>$B18*'Time Series Scaling Factors'!W44</f>
+        <v>2994240398336685</v>
+      </c>
+      <c r="X18">
+        <f>$B18*'Time Series Scaling Factors'!X44</f>
+        <v>2998418016018612.5</v>
+      </c>
+      <c r="Y18">
+        <f>$B18*'Time Series Scaling Factors'!Y44</f>
+        <v>3111847743161501</v>
+      </c>
+      <c r="Z18">
+        <f>$B18*'Time Series Scaling Factors'!Z44</f>
+        <v>3190490816794022.5</v>
+      </c>
+      <c r="AA18">
+        <f>$B18*'Time Series Scaling Factors'!AA44</f>
+        <v>3037890357690486.5</v>
+      </c>
+      <c r="AB18">
+        <f>$B18*'Time Series Scaling Factors'!AB44</f>
+        <v>3380305774075785.5</v>
+      </c>
+      <c r="AC18">
+        <f>$B18*'Time Series Scaling Factors'!AC44</f>
+        <v>3344749116500952</v>
+      </c>
+      <c r="AD18">
+        <f>$B18*'Time Series Scaling Factors'!AD44</f>
+        <v>3701482343124300.5</v>
+      </c>
+      <c r="AE18">
+        <f>$B18*'Time Series Scaling Factors'!AE44</f>
+        <v>3635958974939469</v>
+      </c>
+      <c r="AF18">
+        <f ca="1">$B18*'Time Series Scaling Factors'!AF44</f>
+        <v>3786837131792315.5</v>
+      </c>
+      <c r="AG18">
+        <f ca="1">$B18*'Time Series Scaling Factors'!AG44</f>
+        <v>3935254391493483</v>
+      </c>
+      <c r="AH18">
+        <f ca="1">$B18*'Time Series Scaling Factors'!AH44</f>
+        <v>4069652348680316</v>
+      </c>
+      <c r="AI18">
+        <f ca="1">$B18*'Time Series Scaling Factors'!AI44</f>
+        <v>4238320661681598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A19" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="32">
+        <f>'Start Year Data'!C43</f>
+        <v>90779646071271.797</v>
+      </c>
+      <c r="C19">
+        <f>$B19*'Time Series Scaling Factors'!C45</f>
+        <v>104119180315828.69</v>
+      </c>
+      <c r="D19">
+        <f>$B19*'Time Series Scaling Factors'!D45</f>
+        <v>101331214984474.47</v>
+      </c>
+      <c r="E19">
+        <f>$B19*'Time Series Scaling Factors'!E45</f>
+        <v>97413193326939.234</v>
+      </c>
+      <c r="F19">
+        <f>$B19*'Time Series Scaling Factors'!F45</f>
+        <v>101996205935189.86</v>
+      </c>
+      <c r="G19">
+        <f>$B19*'Time Series Scaling Factors'!G45</f>
+        <v>101849213015580.66</v>
+      </c>
+      <c r="H19">
+        <f>$B19*'Time Series Scaling Factors'!H45</f>
+        <v>99238969673442</v>
+      </c>
+      <c r="I19">
+        <f>$B19*'Time Series Scaling Factors'!I45</f>
+        <v>101642665546917.06</v>
+      </c>
+      <c r="J19">
+        <f>$B19*'Time Series Scaling Factors'!J45</f>
+        <v>100035262824296.31</v>
+      </c>
+      <c r="K19">
+        <f>$B19*'Time Series Scaling Factors'!K45</f>
+        <v>94870172903457.531</v>
+      </c>
+      <c r="L19">
+        <f>$B19*'Time Series Scaling Factors'!L45</f>
+        <v>98910384372236.359</v>
+      </c>
+      <c r="M19">
+        <f>$B19*'Time Series Scaling Factors'!M45</f>
+        <v>94149693693219.063</v>
+      </c>
+      <c r="N19">
+        <f>$B19*'Time Series Scaling Factors'!N45</f>
+        <v>94587245230558.219</v>
+      </c>
+      <c r="O19">
+        <f>$B19*'Time Series Scaling Factors'!O45</f>
+        <v>94173867395554.141</v>
+      </c>
+      <c r="P19">
+        <f>$B19*'Time Series Scaling Factors'!P45</f>
+        <v>95180122894925.531</v>
+      </c>
+      <c r="Q19">
+        <f>$B19*'Time Series Scaling Factors'!Q45</f>
+        <v>96108600959034.594</v>
+      </c>
+      <c r="R19">
+        <f>$B19*'Time Series Scaling Factors'!R45</f>
+        <v>96959264058362.047</v>
+      </c>
+      <c r="S19">
+        <f>$B19*'Time Series Scaling Factors'!S45</f>
+        <v>94580094463010.609</v>
+      </c>
+      <c r="T19">
+        <f>$B19*'Time Series Scaling Factors'!T45</f>
+        <v>92898717511269.234</v>
+      </c>
+      <c r="U19">
+        <f>$B19*'Time Series Scaling Factors'!U45</f>
+        <v>96956378809040.766</v>
+      </c>
+      <c r="V19">
+        <f>$B19*'Time Series Scaling Factors'!V45</f>
+        <v>94620128348434.172</v>
+      </c>
+      <c r="W19">
+        <f>$B19*'Time Series Scaling Factors'!W45</f>
+        <v>95603896719422.188</v>
+      </c>
+      <c r="X19">
+        <f>$B19*'Time Series Scaling Factors'!X45</f>
+        <v>97368384419617.766</v>
+      </c>
+      <c r="Y19">
+        <f>$B19*'Time Series Scaling Factors'!Y45</f>
+        <v>98800926831883.781</v>
+      </c>
+      <c r="Z19">
+        <f>$B19*'Time Series Scaling Factors'!Z45</f>
+        <v>100649551941033.84</v>
+      </c>
+      <c r="AA19">
+        <f>$B19*'Time Series Scaling Factors'!AA45</f>
+        <v>101128041734605.25</v>
+      </c>
+      <c r="AB19">
+        <f>$B19*'Time Series Scaling Factors'!AB45</f>
+        <v>102819409978261.67</v>
+      </c>
+      <c r="AC19">
+        <f>$B19*'Time Series Scaling Factors'!AC45</f>
+        <v>106405621749264.41</v>
+      </c>
+      <c r="AD19">
+        <f>$B19*'Time Series Scaling Factors'!AD45</f>
+        <v>108489776490955.39</v>
+      </c>
+      <c r="AE19">
+        <f>$B19*'Time Series Scaling Factors'!AE45</f>
+        <v>108908426043028.94</v>
+      </c>
+      <c r="AF19">
+        <f ca="1">$B19*'Time Series Scaling Factors'!AF45</f>
+        <v>112372291453972.38</v>
+      </c>
+      <c r="AG19">
+        <f ca="1">$B19*'Time Series Scaling Factors'!AG45</f>
+        <v>114679767558028.19</v>
+      </c>
+      <c r="AH19">
+        <f ca="1">$B19*'Time Series Scaling Factors'!AH45</f>
+        <v>118209581693610.42</v>
+      </c>
+      <c r="AI19">
+        <f ca="1">$B19*'Time Series Scaling Factors'!AI45</f>
+        <v>120554698538923.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A20" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="32">
+        <f>'Start Year Data'!C44</f>
+        <v>99350833365.843933</v>
+      </c>
+      <c r="C20">
+        <f>$B20*'Time Series Scaling Factors'!C46</f>
+        <v>113949853093.99359</v>
+      </c>
+      <c r="D20">
+        <f>$B20*'Time Series Scaling Factors'!D46</f>
+        <v>110898655044.07326</v>
+      </c>
+      <c r="E20">
+        <f>$B20*'Time Series Scaling Factors'!E46</f>
+        <v>106610703574.02742</v>
+      </c>
+      <c r="F20">
+        <f>$B20*'Time Series Scaling Factors'!F46</f>
+        <v>111626432778.32933</v>
+      </c>
+      <c r="G20">
+        <f>$B20*'Time Series Scaling Factors'!G46</f>
+        <v>111465561154.63312</v>
+      </c>
+      <c r="H20">
+        <f>$B20*'Time Series Scaling Factors'!H46</f>
+        <v>108608865159.96577</v>
+      </c>
+      <c r="I20">
+        <f>$B20*'Time Series Scaling Factors'!I46</f>
+        <v>111239511990.20674</v>
+      </c>
+      <c r="J20">
+        <f>$B20*'Time Series Scaling Factors'!J46</f>
+        <v>109480342319.93153</v>
+      </c>
+      <c r="K20">
+        <f>$B20*'Time Series Scaling Factors'!K46</f>
+        <v>103827577517.98495</v>
+      </c>
+      <c r="L20">
+        <f>$B20*'Time Series Scaling Factors'!L46</f>
+        <v>108249255655.86044</v>
+      </c>
+      <c r="M20">
+        <f>$B20*'Time Series Scaling Factors'!M46</f>
+        <v>103039072461.42461</v>
+      </c>
+      <c r="N20">
+        <f>$B20*'Time Series Scaling Factors'!N46</f>
+        <v>103517936521.33757</v>
+      </c>
+      <c r="O20">
+        <f>$B20*'Time Series Scaling Factors'!O46</f>
+        <v>103065528584.31631</v>
+      </c>
+      <c r="P20">
+        <f>$B20*'Time Series Scaling Factors'!P46</f>
+        <v>104166792212.98285</v>
+      </c>
+      <c r="Q20">
+        <f>$B20*'Time Series Scaling Factors'!Q46</f>
+        <v>105182934855.34035</v>
+      </c>
+      <c r="R20">
+        <f>$B20*'Time Series Scaling Factors'!R46</f>
+        <v>106113915438.42613</v>
+      </c>
+      <c r="S20">
+        <f>$B20*'Time Series Scaling Factors'!S46</f>
+        <v>103510110596.19019</v>
+      </c>
+      <c r="T20">
+        <f>$B20*'Time Series Scaling Factors'!T46</f>
+        <v>101669982234.96614</v>
+      </c>
+      <c r="U20">
+        <f>$B20*'Time Series Scaling Factors'!U46</f>
+        <v>106110757771.07509</v>
+      </c>
+      <c r="V20">
+        <f>$B20*'Time Series Scaling Factors'!V46</f>
+        <v>103553924381.01791</v>
+      </c>
+      <c r="W20">
+        <f>$B20*'Time Series Scaling Factors'!W46</f>
+        <v>104630577702.84164</v>
+      </c>
+      <c r="X20">
+        <f>$B20*'Time Series Scaling Factors'!X46</f>
+        <v>106561663921.6685</v>
+      </c>
+      <c r="Y20">
+        <f>$B20*'Time Series Scaling Factors'!Y46</f>
+        <v>108129463408.11731</v>
+      </c>
+      <c r="Z20">
+        <f>$B20*'Time Series Scaling Factors'!Z46</f>
+        <v>110152631079.76573</v>
+      </c>
+      <c r="AA20">
+        <f>$B20*'Time Series Scaling Factors'!AA46</f>
+        <v>110676298683.74655</v>
+      </c>
+      <c r="AB20">
+        <f>$B20*'Time Series Scaling Factors'!AB46</f>
+        <v>112527361689.69682</v>
+      </c>
+      <c r="AC20">
+        <f>$B20*'Time Series Scaling Factors'!AC46</f>
+        <v>116452174613.02318</v>
+      </c>
+      <c r="AD20">
+        <f>$B20*'Time Series Scaling Factors'!AD46</f>
+        <v>118733110036.45288</v>
+      </c>
+      <c r="AE20">
+        <f>$B20*'Time Series Scaling Factors'!AE46</f>
+        <v>119191287432.89359</v>
+      </c>
+      <c r="AF20">
+        <f ca="1">$B20*'Time Series Scaling Factors'!AF46</f>
+        <v>122982202358.62668</v>
+      </c>
+      <c r="AG20">
+        <f ca="1">$B20*'Time Series Scaling Factors'!AG46</f>
+        <v>125507544589.30391</v>
+      </c>
+      <c r="AH20">
+        <f ca="1">$B20*'Time Series Scaling Factors'!AH46</f>
+        <v>129370634953.42918</v>
+      </c>
+      <c r="AI20">
+        <f ca="1">$B20*'Time Series Scaling Factors'!AI46</f>
+        <v>131937171870.07675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A21" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="32">
+        <f>'Start Year Data'!C45</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>$B21*'Time Series Scaling Factors'!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>$B21*'Time Series Scaling Factors'!D47</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>$B21*'Time Series Scaling Factors'!E47</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>$B21*'Time Series Scaling Factors'!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>$B21*'Time Series Scaling Factors'!G47</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>$B21*'Time Series Scaling Factors'!H47</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>$B21*'Time Series Scaling Factors'!I47</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>$B21*'Time Series Scaling Factors'!J47</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>$B21*'Time Series Scaling Factors'!K47</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>$B21*'Time Series Scaling Factors'!L47</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>$B21*'Time Series Scaling Factors'!M47</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>$B21*'Time Series Scaling Factors'!N47</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>$B21*'Time Series Scaling Factors'!O47</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>$B21*'Time Series Scaling Factors'!P47</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>$B21*'Time Series Scaling Factors'!Q47</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>$B21*'Time Series Scaling Factors'!R47</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>$B21*'Time Series Scaling Factors'!S47</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>$B21*'Time Series Scaling Factors'!T47</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>$B21*'Time Series Scaling Factors'!U47</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>$B21*'Time Series Scaling Factors'!V47</f>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f>$B21*'Time Series Scaling Factors'!W47</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f>$B21*'Time Series Scaling Factors'!X47</f>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f>$B21*'Time Series Scaling Factors'!Y47</f>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f>$B21*'Time Series Scaling Factors'!Z47</f>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f>$B21*'Time Series Scaling Factors'!AA47</f>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f>$B21*'Time Series Scaling Factors'!AB47</f>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f>$B21*'Time Series Scaling Factors'!AC47</f>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f>$B21*'Time Series Scaling Factors'!AD47</f>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f>$B21*'Time Series Scaling Factors'!AE47</f>
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <f>$B21*'Time Series Scaling Factors'!AF47</f>
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f>$B21*'Time Series Scaling Factors'!AG47</f>
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f>$B21*'Time Series Scaling Factors'!AH47</f>
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <f>$B21*'Time Series Scaling Factors'!AI47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="32">
+        <f>'Start Year Data'!C46</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>$B22*'Time Series Scaling Factors'!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>$B22*'Time Series Scaling Factors'!D48</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>$B22*'Time Series Scaling Factors'!E48</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>$B22*'Time Series Scaling Factors'!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>$B22*'Time Series Scaling Factors'!G48</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>$B22*'Time Series Scaling Factors'!H48</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>$B22*'Time Series Scaling Factors'!I48</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>$B22*'Time Series Scaling Factors'!J48</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>$B22*'Time Series Scaling Factors'!K48</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>$B22*'Time Series Scaling Factors'!L48</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>$B22*'Time Series Scaling Factors'!M48</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>$B22*'Time Series Scaling Factors'!N48</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>$B22*'Time Series Scaling Factors'!O48</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>$B22*'Time Series Scaling Factors'!P48</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>$B22*'Time Series Scaling Factors'!Q48</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>$B22*'Time Series Scaling Factors'!R48</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>$B22*'Time Series Scaling Factors'!S48</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>$B22*'Time Series Scaling Factors'!T48</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>$B22*'Time Series Scaling Factors'!U48</f>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f>$B22*'Time Series Scaling Factors'!V48</f>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f>$B22*'Time Series Scaling Factors'!W48</f>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f>$B22*'Time Series Scaling Factors'!X48</f>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f>$B22*'Time Series Scaling Factors'!Y48</f>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f>$B22*'Time Series Scaling Factors'!Z48</f>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f>$B22*'Time Series Scaling Factors'!AA48</f>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f>$B22*'Time Series Scaling Factors'!AB48</f>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f>$B22*'Time Series Scaling Factors'!AC48</f>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f>$B22*'Time Series Scaling Factors'!AD48</f>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f>$B22*'Time Series Scaling Factors'!AE48</f>
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <f>$B22*'Time Series Scaling Factors'!AF48</f>
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <f>$B22*'Time Series Scaling Factors'!AG48</f>
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f>$B22*'Time Series Scaling Factors'!AH48</f>
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <f>$B22*'Time Series Scaling Factors'!AI48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A24" s="33"/>
+      <c r="B24" s="287"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A25" s="34"/>
+      <c r="B25" s="287"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A26" s="34"/>
+      <c r="B26" s="287"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A27" s="34"/>
+      <c r="B27" s="287"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A28" s="34"/>
+      <c r="B28" s="287"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A29" s="34"/>
+      <c r="B29" s="287"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A30" s="34"/>
+      <c r="B30" s="287"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A31" s="34"/>
+      <c r="B31" s="287"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A32" s="34"/>
+      <c r="B32" s="287"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="34"/>
+      <c r="B33" s="287"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="34"/>
+      <c r="B34" s="287"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="34"/>
+      <c r="B35" s="287"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="34"/>
+      <c r="B36" s="287"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="34"/>
+      <c r="B37" s="287"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="34"/>
+      <c r="B38" s="287"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="34"/>
+      <c r="B39" s="287"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="34"/>
+      <c r="B40" s="287"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="34"/>
+      <c r="B41" s="287"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="34"/>
+      <c r="B42" s="287"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="34"/>
+      <c r="B43" s="287"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="34"/>
+      <c r="B44" s="287"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="237">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="237">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="237">
+        <v>2021</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="237">
+        <v>2023</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2024</v>
+      </c>
+      <c r="J1" s="237">
+        <v>2025</v>
+      </c>
+      <c r="K1" s="5">
+        <v>2026</v>
+      </c>
+      <c r="L1" s="237">
+        <v>2027</v>
+      </c>
+      <c r="M1" s="5">
+        <v>2028</v>
+      </c>
+      <c r="N1" s="237">
+        <v>2029</v>
+      </c>
+      <c r="O1" s="5">
+        <v>2030</v>
+      </c>
+      <c r="P1" s="237">
+        <v>2031</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>2032</v>
+      </c>
+      <c r="R1" s="237">
+        <v>2033</v>
+      </c>
+      <c r="S1" s="5">
+        <v>2034</v>
+      </c>
+      <c r="T1" s="237">
+        <v>2035</v>
+      </c>
+      <c r="U1" s="5">
+        <v>2036</v>
+      </c>
+      <c r="V1" s="237">
+        <v>2037</v>
+      </c>
+      <c r="W1" s="5">
+        <v>2038</v>
+      </c>
+      <c r="X1" s="237">
+        <v>2039</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>2040</v>
+      </c>
+      <c r="Z1" s="237">
+        <v>2041</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AB1" s="237">
+        <v>2043</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AD1" s="237">
+        <v>2045</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AF1" s="237">
+        <v>2047</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AH1" s="237">
+        <v>2049</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="32">
+        <f>'Start Year Data'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>$B2*'Time Series Scaling Factors'!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>$B2*'Time Series Scaling Factors'!D53</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>$B2*'Time Series Scaling Factors'!E53</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$B2*'Time Series Scaling Factors'!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>$B2*'Time Series Scaling Factors'!G53</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>$B2*'Time Series Scaling Factors'!H53</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>$B2*'Time Series Scaling Factors'!I53</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>$B2*'Time Series Scaling Factors'!J53</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>$B2*'Time Series Scaling Factors'!K53</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>$B2*'Time Series Scaling Factors'!L53</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>$B2*'Time Series Scaling Factors'!M53</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>$B2*'Time Series Scaling Factors'!N53</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>$B2*'Time Series Scaling Factors'!O53</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>$B2*'Time Series Scaling Factors'!P53</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>$B2*'Time Series Scaling Factors'!Q53</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>$B2*'Time Series Scaling Factors'!R53</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>$B2*'Time Series Scaling Factors'!S53</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>$B2*'Time Series Scaling Factors'!T53</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>$B2*'Time Series Scaling Factors'!U53</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>$B2*'Time Series Scaling Factors'!V53</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>$B2*'Time Series Scaling Factors'!W53</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>$B2*'Time Series Scaling Factors'!X53</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>$B2*'Time Series Scaling Factors'!Y53</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>$B2*'Time Series Scaling Factors'!Z53</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>$B2*'Time Series Scaling Factors'!AA53</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>$B2*'Time Series Scaling Factors'!AB53</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>$B2*'Time Series Scaling Factors'!AC53</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>$B2*'Time Series Scaling Factors'!AD53</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>$B2*'Time Series Scaling Factors'!AE53</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>$B2*'Time Series Scaling Factors'!AF53</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>$B2*'Time Series Scaling Factors'!AG53</f>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>$B2*'Time Series Scaling Factors'!AH53</f>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f>$B2*'Time Series Scaling Factors'!AI53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="32">
+        <f>'Start Year Data'!D27</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>$B3*'Time Series Scaling Factors'!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>$B3*'Time Series Scaling Factors'!D54</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>$B3*'Time Series Scaling Factors'!E54</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>$B3*'Time Series Scaling Factors'!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>$B3*'Time Series Scaling Factors'!G54</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>$B3*'Time Series Scaling Factors'!H54</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>$B3*'Time Series Scaling Factors'!I54</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>$B3*'Time Series Scaling Factors'!J54</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>$B3*'Time Series Scaling Factors'!K54</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>$B3*'Time Series Scaling Factors'!L54</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>$B3*'Time Series Scaling Factors'!M54</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>$B3*'Time Series Scaling Factors'!N54</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>$B3*'Time Series Scaling Factors'!O54</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>$B3*'Time Series Scaling Factors'!P54</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>$B3*'Time Series Scaling Factors'!Q54</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>$B3*'Time Series Scaling Factors'!R54</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>$B3*'Time Series Scaling Factors'!S54</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>$B3*'Time Series Scaling Factors'!T54</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>$B3*'Time Series Scaling Factors'!U54</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>$B3*'Time Series Scaling Factors'!V54</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>$B3*'Time Series Scaling Factors'!W54</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>$B3*'Time Series Scaling Factors'!X54</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>$B3*'Time Series Scaling Factors'!Y54</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>$B3*'Time Series Scaling Factors'!Z54</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>$B3*'Time Series Scaling Factors'!AA54</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>$B3*'Time Series Scaling Factors'!AB54</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>$B3*'Time Series Scaling Factors'!AC54</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>$B3*'Time Series Scaling Factors'!AD54</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>$B3*'Time Series Scaling Factors'!AE54</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f ca="1">$B3*'Time Series Scaling Factors'!AF54</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f ca="1">$B3*'Time Series Scaling Factors'!AG54</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f ca="1">$B3*'Time Series Scaling Factors'!AH54</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f ca="1">$B3*'Time Series Scaling Factors'!AI54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A4" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="32">
         <f>'Start Year Data'!D28</f>
         <v>1328030939000000</v>
       </c>
@@ -25078,87 +25848,87 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24" s="33"/>
-      <c r="B24" s="304"/>
+      <c r="B24" s="287"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A25" s="34"/>
-      <c r="B25" s="304"/>
+      <c r="B25" s="287"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A26" s="34"/>
-      <c r="B26" s="304"/>
+      <c r="B26" s="288"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" s="34"/>
-      <c r="B27" s="304"/>
+      <c r="B27" s="287"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="34"/>
-      <c r="B28" s="304"/>
+      <c r="B28" s="287"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" s="34"/>
-      <c r="B29" s="304"/>
+      <c r="B29" s="287"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" s="34"/>
-      <c r="B30" s="304"/>
+      <c r="B30" s="287"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" s="34"/>
-      <c r="B31" s="304"/>
+      <c r="B31" s="287"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" s="34"/>
-      <c r="B32" s="304"/>
+      <c r="B32" s="287"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="34"/>
-      <c r="B33" s="304"/>
+      <c r="B33" s="287"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="34"/>
-      <c r="B34" s="304"/>
+      <c r="B34" s="287"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="34"/>
-      <c r="B35" s="304"/>
+      <c r="B35" s="287"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="34"/>
-      <c r="B36" s="304"/>
+      <c r="B36" s="287"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="34"/>
-      <c r="B37" s="304"/>
+      <c r="B37" s="287"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="34"/>
-      <c r="B38" s="304"/>
+      <c r="B38" s="287"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="34"/>
-      <c r="B39" s="304"/>
+      <c r="B39" s="287"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="34"/>
-      <c r="B40" s="304"/>
+      <c r="B40" s="287"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="34"/>
-      <c r="B41" s="304"/>
+      <c r="B41" s="287"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="34"/>
-      <c r="B42" s="304"/>
+      <c r="B42" s="287"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="34"/>
-      <c r="B43" s="304"/>
+      <c r="B43" s="287"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="34"/>
-      <c r="B44" s="304"/>
+      <c r="B44" s="287"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25201,21 +25971,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="290" t="s">
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="293" t="s">
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="298" t="s">
         <v>20</v>
       </c>
     </row>
@@ -25250,7 +26020,7 @@
       <c r="K3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="294"/>
+      <c r="L3" s="299"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
@@ -27290,13 +28060,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="77" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="300" t="s">
         <v>688</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
       <c r="F1" s="269"/>
       <c r="G1" s="269"/>
       <c r="H1" s="269"/>
@@ -33628,44 +34398,44 @@
     </row>
     <row r="71" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="296" t="s">
+      <c r="B72" s="301" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="296"/>
-      <c r="D72" s="296"/>
-      <c r="E72" s="296"/>
-      <c r="F72" s="296"/>
-      <c r="G72" s="296"/>
-      <c r="H72" s="296"/>
-      <c r="I72" s="296"/>
-      <c r="J72" s="296"/>
-      <c r="K72" s="296"/>
-      <c r="L72" s="296"/>
-      <c r="M72" s="296"/>
-      <c r="N72" s="296"/>
-      <c r="O72" s="296"/>
-      <c r="P72" s="296"/>
-      <c r="Q72" s="296"/>
-      <c r="R72" s="296"/>
-      <c r="S72" s="296"/>
-      <c r="T72" s="296"/>
-      <c r="U72" s="296"/>
-      <c r="V72" s="296"/>
-      <c r="W72" s="296"/>
-      <c r="X72" s="296"/>
-      <c r="Y72" s="296"/>
-      <c r="Z72" s="296"/>
-      <c r="AA72" s="296"/>
-      <c r="AB72" s="296"/>
-      <c r="AC72" s="296"/>
-      <c r="AD72" s="296"/>
-      <c r="AE72" s="296"/>
-      <c r="AF72" s="296"/>
-      <c r="AG72" s="296"/>
-      <c r="AH72" s="296"/>
-      <c r="AI72" s="296"/>
-      <c r="AJ72" s="296"/>
-      <c r="AK72" s="296"/>
+      <c r="C72" s="301"/>
+      <c r="D72" s="301"/>
+      <c r="E72" s="301"/>
+      <c r="F72" s="301"/>
+      <c r="G72" s="301"/>
+      <c r="H72" s="301"/>
+      <c r="I72" s="301"/>
+      <c r="J72" s="301"/>
+      <c r="K72" s="301"/>
+      <c r="L72" s="301"/>
+      <c r="M72" s="301"/>
+      <c r="N72" s="301"/>
+      <c r="O72" s="301"/>
+      <c r="P72" s="301"/>
+      <c r="Q72" s="301"/>
+      <c r="R72" s="301"/>
+      <c r="S72" s="301"/>
+      <c r="T72" s="301"/>
+      <c r="U72" s="301"/>
+      <c r="V72" s="301"/>
+      <c r="W72" s="301"/>
+      <c r="X72" s="301"/>
+      <c r="Y72" s="301"/>
+      <c r="Z72" s="301"/>
+      <c r="AA72" s="301"/>
+      <c r="AB72" s="301"/>
+      <c r="AC72" s="301"/>
+      <c r="AD72" s="301"/>
+      <c r="AE72" s="301"/>
+      <c r="AF72" s="301"/>
+      <c r="AG72" s="301"/>
+      <c r="AH72" s="301"/>
+      <c r="AI72" s="301"/>
+      <c r="AJ72" s="301"/>
+      <c r="AK72" s="301"/>
     </row>
     <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="30" t="s">
@@ -33989,7 +34759,7 @@
       <c r="AI4" s="274" t="s">
         <v>720</v>
       </c>
-      <c r="AK4" s="297" t="s">
+      <c r="AK4" s="302" t="s">
         <v>722</v>
       </c>
     </row>
@@ -34099,7 +34869,7 @@
       <c r="AI5" s="274" t="s">
         <v>721</v>
       </c>
-      <c r="AK5" s="297"/>
+      <c r="AK5" s="302"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="273" t="s">
@@ -34207,7 +34977,7 @@
       <c r="AI6" s="273">
         <v>2050</v>
       </c>
-      <c r="AK6" s="297"/>
+      <c r="AK6" s="302"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="273" t="s">
@@ -34315,7 +35085,7 @@
       <c r="AI7" s="275">
         <v>31990910</v>
       </c>
-      <c r="AK7" s="297"/>
+      <c r="AK7" s="302"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="273" t="s">
@@ -34427,7 +35197,7 @@
         <f ca="1">AI9*AI7</f>
         <v>3939911.7919848692</v>
       </c>
-      <c r="AK8" s="297"/>
+      <c r="AK8" s="302"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="273" t="s">
@@ -34569,7 +35339,7 @@
         <f ca="1">FORECAST(AI6,$B$9:$AG$9,$B$6:$AG$6)</f>
         <v>0.12315722784956318</v>
       </c>
-      <c r="AK9" s="297"/>
+      <c r="AK9" s="302"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="273" t="s">
@@ -34711,7 +35481,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>1.3115136926597026</v>
       </c>
-      <c r="AK10" s="297"/>
+      <c r="AK10" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -34751,13 +35521,13 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="303" t="s">
         <v>616</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
@@ -34825,13 +35595,13 @@
       <c r="B9" s="231"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="299" t="s">
+      <c r="A10" s="304" t="s">
         <v>621</v>
       </c>
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="304"/>
+      <c r="E10" s="304"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -34866,13 +35636,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="300" t="s">
+      <c r="A13" s="305" t="s">
         <v>684</v>
       </c>
-      <c r="B13" s="300"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
+      <c r="B13" s="305"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="305"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
@@ -41668,44 +42438,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="301" t="s">
+      <c r="B78" s="306" t="s">
         <v>368</v>
       </c>
-      <c r="C78" s="301"/>
-      <c r="D78" s="301"/>
-      <c r="E78" s="301"/>
-      <c r="F78" s="301"/>
-      <c r="G78" s="301"/>
-      <c r="H78" s="301"/>
-      <c r="I78" s="301"/>
-      <c r="J78" s="301"/>
-      <c r="K78" s="301"/>
-      <c r="L78" s="301"/>
-      <c r="M78" s="301"/>
-      <c r="N78" s="301"/>
-      <c r="O78" s="301"/>
-      <c r="P78" s="301"/>
-      <c r="Q78" s="301"/>
-      <c r="R78" s="301"/>
-      <c r="S78" s="301"/>
-      <c r="T78" s="301"/>
-      <c r="U78" s="301"/>
-      <c r="V78" s="301"/>
-      <c r="W78" s="301"/>
-      <c r="X78" s="301"/>
-      <c r="Y78" s="301"/>
-      <c r="Z78" s="301"/>
-      <c r="AA78" s="301"/>
-      <c r="AB78" s="301"/>
-      <c r="AC78" s="301"/>
-      <c r="AD78" s="301"/>
-      <c r="AE78" s="301"/>
-      <c r="AF78" s="301"/>
-      <c r="AG78" s="301"/>
-      <c r="AH78" s="301"/>
-      <c r="AI78" s="301"/>
-      <c r="AJ78" s="301"/>
-      <c r="AK78" s="301"/>
+      <c r="C78" s="306"/>
+      <c r="D78" s="306"/>
+      <c r="E78" s="306"/>
+      <c r="F78" s="306"/>
+      <c r="G78" s="306"/>
+      <c r="H78" s="306"/>
+      <c r="I78" s="306"/>
+      <c r="J78" s="306"/>
+      <c r="K78" s="306"/>
+      <c r="L78" s="306"/>
+      <c r="M78" s="306"/>
+      <c r="N78" s="306"/>
+      <c r="O78" s="306"/>
+      <c r="P78" s="306"/>
+      <c r="Q78" s="306"/>
+      <c r="R78" s="306"/>
+      <c r="S78" s="306"/>
+      <c r="T78" s="306"/>
+      <c r="U78" s="306"/>
+      <c r="V78" s="306"/>
+      <c r="W78" s="306"/>
+      <c r="X78" s="306"/>
+      <c r="Y78" s="306"/>
+      <c r="Z78" s="306"/>
+      <c r="AA78" s="306"/>
+      <c r="AB78" s="306"/>
+      <c r="AC78" s="306"/>
+      <c r="AD78" s="306"/>
+      <c r="AE78" s="306"/>
+      <c r="AF78" s="306"/>
+      <c r="AG78" s="306"/>
+      <c r="AH78" s="306"/>
+      <c r="AI78" s="306"/>
+      <c r="AJ78" s="306"/>
+      <c r="AK78" s="306"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="30" t="s">

--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -3554,7 +3554,7 @@
     <numFmt numFmtId="174" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="175" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="176" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -3816,7 +3816,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3970,6 +3970,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4391,7 +4397,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5024,8 +5030,48 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5071,61 +5117,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Body: normal cell" xfId="7"/>
@@ -5631,8 +5640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6444,16 +6453,16 @@
       </c>
     </row>
     <row r="150" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="308" t="s">
+      <c r="A150" s="322" t="s">
         <v>775</v>
       </c>
-      <c r="B150" s="308"/>
+      <c r="B150" s="322"/>
     </row>
     <row r="151" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="308" t="s">
+      <c r="A151" s="322" t="s">
         <v>774</v>
       </c>
-      <c r="B151" s="308"/>
+      <c r="B151" s="322"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" s="5"/>
@@ -6615,288 +6624,288 @@
   <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="330"/>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
+      <c r="A1" s="339"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="331"/>
-      <c r="B2" s="331"/>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="331"/>
+      <c r="A2" s="337"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="310" t="s">
         <v>751</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="328" t="s">
+      <c r="B3" s="311"/>
+      <c r="C3" s="312" t="s">
         <v>752</v>
       </c>
-      <c r="D3" s="327"/>
-      <c r="E3" s="329" t="s">
+      <c r="D3" s="311"/>
+      <c r="E3" s="313" t="s">
         <v>753</v>
       </c>
-      <c r="F3" s="325" t="s">
+      <c r="F3" s="309" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="331"/>
-      <c r="B4" s="331"/>
-      <c r="C4" s="331"/>
-      <c r="D4" s="331"/>
-      <c r="E4" s="331"/>
-      <c r="F4" s="331"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="331" t="s">
+      <c r="A5" s="337" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="337"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="337"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="332" t="s">
+      <c r="A6" s="340" t="s">
         <v>756</v>
       </c>
-      <c r="B6" s="332"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
+      <c r="B6" s="340"/>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="340"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="331"/>
-      <c r="B7" s="331"/>
-      <c r="C7" s="331"/>
-      <c r="D7" s="331"/>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="337"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="337"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="331"/>
-      <c r="B8" s="331"/>
-      <c r="C8" s="331"/>
-      <c r="D8" s="331"/>
-      <c r="E8" s="331"/>
-      <c r="F8" s="331"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="337"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
+      <c r="F8" s="337"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="333" t="s">
+      <c r="A9" s="338" t="s">
         <v>757</v>
       </c>
-      <c r="B9" s="333"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="333"/>
-      <c r="E9" s="333"/>
-      <c r="F9" s="333"/>
+      <c r="B9" s="338"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="331"/>
-      <c r="B10" s="331"/>
-      <c r="C10" s="331"/>
-      <c r="D10" s="331"/>
-      <c r="E10" s="331"/>
-      <c r="F10" s="331"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="337"/>
+      <c r="C10" s="337"/>
+      <c r="D10" s="337"/>
+      <c r="E10" s="337"/>
+      <c r="F10" s="337"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="334" t="s">
+      <c r="A12" s="314" t="s">
         <v>758</v>
       </c>
-      <c r="B12" s="335" t="s">
+      <c r="B12" s="315" t="s">
         <v>759</v>
       </c>
-      <c r="C12" s="335" t="s">
+      <c r="C12" s="315" t="s">
         <v>760</v>
       </c>
-      <c r="D12" s="335" t="s">
+      <c r="D12" s="315" t="s">
         <v>761</v>
       </c>
-      <c r="E12" s="335" t="s">
+      <c r="E12" s="315" t="s">
         <v>762</v>
       </c>
-      <c r="F12" s="335" t="s">
+      <c r="F12" s="315" t="s">
         <v>763</v>
       </c>
-      <c r="G12" s="335" t="s">
+      <c r="G12" s="315" t="s">
         <v>764</v>
       </c>
-      <c r="H12" s="335" t="s">
+      <c r="H12" s="315" t="s">
         <v>765</v>
       </c>
-      <c r="I12" s="335" t="s">
+      <c r="I12" s="315" t="s">
         <v>766</v>
       </c>
-      <c r="J12" s="335" t="s">
+      <c r="J12" s="315" t="s">
         <v>767</v>
       </c>
-      <c r="K12" s="335" t="s">
+      <c r="K12" s="315" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="336" t="s">
+      <c r="A13" s="316" t="s">
         <v>769</v>
       </c>
-      <c r="B13" s="337"/>
-      <c r="C13" s="338">
+      <c r="B13" s="317"/>
+      <c r="C13" s="318">
         <v>2554</v>
       </c>
-      <c r="D13" s="338">
+      <c r="D13" s="318">
         <v>2488</v>
       </c>
-      <c r="E13" s="338">
+      <c r="E13" s="318">
         <v>2419</v>
       </c>
-      <c r="F13" s="338">
+      <c r="F13" s="318">
         <v>2413</v>
       </c>
-      <c r="G13" s="338">
+      <c r="G13" s="318">
         <v>2381</v>
       </c>
-      <c r="H13" s="338">
+      <c r="H13" s="318">
         <v>2245</v>
       </c>
-      <c r="I13" s="338">
+      <c r="I13" s="318">
         <v>2085</v>
       </c>
-      <c r="J13" s="338">
+      <c r="J13" s="318">
         <v>2010</v>
       </c>
-      <c r="K13" s="338">
+      <c r="K13" s="318">
         <v>1885</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="336" t="s">
+      <c r="A14" s="316" t="s">
         <v>770</v>
       </c>
-      <c r="B14" s="338">
+      <c r="B14" s="318">
         <v>1859</v>
       </c>
-      <c r="C14" s="338">
+      <c r="C14" s="318">
         <v>1870</v>
       </c>
-      <c r="D14" s="338">
+      <c r="D14" s="318">
         <v>1778</v>
       </c>
-      <c r="E14" s="338">
+      <c r="E14" s="318">
         <v>1696</v>
       </c>
-      <c r="F14" s="338">
+      <c r="F14" s="318">
         <v>1618</v>
       </c>
-      <c r="G14" s="338">
+      <c r="G14" s="318">
         <v>1533</v>
       </c>
-      <c r="H14" s="338">
+      <c r="H14" s="318">
         <v>1485</v>
       </c>
-      <c r="I14" s="338">
+      <c r="I14" s="318">
         <v>1470</v>
       </c>
-      <c r="J14" s="338">
+      <c r="J14" s="318">
         <v>1383</v>
       </c>
-      <c r="K14" s="338">
+      <c r="K14" s="318">
         <v>1231</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="336" t="s">
+      <c r="A15" s="316" t="s">
         <v>771</v>
       </c>
-      <c r="B15" s="338">
+      <c r="B15" s="318">
         <v>1211</v>
       </c>
-      <c r="C15" s="338">
+      <c r="C15" s="318">
         <v>1162</v>
       </c>
-      <c r="D15" s="338">
+      <c r="D15" s="318">
         <v>1112</v>
       </c>
-      <c r="E15" s="338">
+      <c r="E15" s="318">
         <v>1098</v>
       </c>
-      <c r="F15" s="338">
+      <c r="F15" s="318">
         <v>1073</v>
       </c>
-      <c r="G15" s="338">
+      <c r="G15" s="318">
         <v>1076</v>
       </c>
-      <c r="H15" s="338">
+      <c r="H15" s="318">
         <v>1075</v>
       </c>
-      <c r="I15" s="338">
+      <c r="I15" s="318">
         <v>1072</v>
       </c>
-      <c r="J15" s="338">
+      <c r="J15" s="318">
         <v>1109</v>
       </c>
-      <c r="K15" s="338">
+      <c r="K15" s="318">
         <v>1094</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="336" t="s">
+      <c r="A16" s="316" t="s">
         <v>772</v>
       </c>
-      <c r="B16" s="338">
+      <c r="B16" s="318">
         <v>1169</v>
       </c>
-      <c r="C16" s="338">
+      <c r="C16" s="318">
         <v>1451</v>
       </c>
-      <c r="D16" s="338">
+      <c r="D16" s="318">
         <v>1982</v>
       </c>
-      <c r="E16" s="338">
+      <c r="E16" s="318">
         <v>2542</v>
       </c>
-      <c r="F16" s="338">
+      <c r="F16" s="318">
         <v>3176</v>
       </c>
-      <c r="G16" s="338">
+      <c r="G16" s="318">
         <v>3454</v>
       </c>
-      <c r="H16" s="338">
+      <c r="H16" s="318">
         <v>3190</v>
       </c>
-      <c r="I16" s="338">
+      <c r="I16" s="318">
         <v>3489</v>
       </c>
-      <c r="J16" s="338">
+      <c r="J16" s="318">
         <v>4408</v>
       </c>
-      <c r="K16" s="338">
+      <c r="K16" s="318">
         <v>5070</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="336" t="s">
+      <c r="A17" s="316" t="s">
         <v>773</v>
       </c>
-      <c r="B17" s="338">
+      <c r="B17" s="318">
         <v>4869</v>
       </c>
-      <c r="C17" s="337"/>
-      <c r="D17" s="337"/>
-      <c r="E17" s="337"/>
-      <c r="F17" s="337"/>
-      <c r="G17" s="337"/>
-      <c r="H17" s="337"/>
-      <c r="I17" s="337"/>
-      <c r="J17" s="337"/>
-      <c r="K17" s="337"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="317"/>
+      <c r="E17" s="317"/>
+      <c r="F17" s="317"/>
+      <c r="G17" s="317"/>
+      <c r="H17" s="317"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="317"/>
+      <c r="K17" s="317"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="306"/>
@@ -12369,8 +12378,8 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12584,13 +12593,13 @@
       <c r="G10" s="238" t="s">
         <v>227</v>
       </c>
-      <c r="I10" s="323" t="s">
+      <c r="I10" s="341" t="s">
         <v>701</v>
       </c>
-      <c r="J10" s="323"/>
-      <c r="K10" s="323"/>
-      <c r="L10" s="323"/>
-      <c r="M10" s="323"/>
+      <c r="J10" s="341"/>
+      <c r="K10" s="341"/>
+      <c r="L10" s="341"/>
+      <c r="M10" s="341"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
@@ -12616,11 +12625,11 @@
       <c r="G11" s="238" t="s">
         <v>227</v>
       </c>
-      <c r="I11" s="323"/>
-      <c r="J11" s="323"/>
-      <c r="K11" s="323"/>
-      <c r="L11" s="323"/>
-      <c r="M11" s="323"/>
+      <c r="I11" s="341"/>
+      <c r="J11" s="341"/>
+      <c r="K11" s="341"/>
+      <c r="L11" s="341"/>
+      <c r="M11" s="341"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
@@ -12914,7 +12923,7 @@
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="C27" s="340">
+      <c r="C27" s="320">
         <f t="shared" ref="C27:E27" si="2">C3</f>
         <v>423274000000000</v>
       </c>
@@ -13070,21 +13079,19 @@
       <c r="A33" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="234">
-        <f>B9*$I33</f>
-        <v>9868999336000</v>
-      </c>
-      <c r="C33" s="234">
-        <f t="shared" ref="C33:E33" si="5">C9*$I33</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="234">
-        <f t="shared" si="5"/>
-        <v>5951142435808.2686</v>
+      <c r="B33" s="304">
+        <f>'EPS Primary Energy Use'!B11*1000000000000000</f>
+        <v>84555400000000</v>
+      </c>
+      <c r="C33" s="342">
+        <v>0</v>
+      </c>
+      <c r="D33" s="305">
+        <v>0</v>
       </c>
       <c r="E33" s="234">
-        <f t="shared" si="5"/>
-        <v>3917856900191.731</v>
+        <f>B33+C33-D33</f>
+        <v>84555400000000</v>
       </c>
       <c r="F33" s="234">
         <f>'EPS Primary Energy Use'!B11*1000000000000000</f>
@@ -13113,7 +13120,7 @@
         <v>2538530365205611</v>
       </c>
       <c r="C34" s="234">
-        <f t="shared" ref="B34:C38" si="6">C10*$I34</f>
+        <f t="shared" ref="B33:C38" si="5">C10*$I34</f>
         <v>2584389146141.751</v>
       </c>
       <c r="D34" s="305">
@@ -13152,7 +13159,7 @@
         <v>3663478715380362.5</v>
       </c>
       <c r="C35" s="234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6211115028203.541</v>
       </c>
       <c r="D35" s="305">
@@ -13160,7 +13167,7 @@
         <v>2081589830408566</v>
       </c>
       <c r="E35" s="234">
-        <f t="shared" ref="E35:E46" si="7">B35+C35-D35</f>
+        <f t="shared" ref="E35:E46" si="6">B35+C35-D35</f>
         <v>1588100000000000</v>
       </c>
       <c r="F35" s="234">
@@ -13186,7 +13193,7 @@
         <v>238</v>
       </c>
       <c r="B36" s="304">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16844188194598.494</v>
       </c>
       <c r="C36" s="304">
@@ -13197,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>42205200000000</v>
       </c>
       <c r="F36" s="234">
@@ -13224,7 +13231,7 @@
         <v>239</v>
       </c>
       <c r="B37" s="304">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25283794581218.367</v>
       </c>
       <c r="C37" s="304">
@@ -13235,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>48616300000000</v>
       </c>
       <c r="F37" s="234">
@@ -13261,11 +13268,11 @@
         <v>228</v>
       </c>
       <c r="B38" s="234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1147649297523261.8</v>
       </c>
       <c r="C38" s="234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100041490172.06891</v>
       </c>
       <c r="D38" s="305">
@@ -13273,7 +13280,7 @@
         <v>929735339013433.75</v>
       </c>
       <c r="E38" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>218014000000000</v>
       </c>
       <c r="F38" s="234">
@@ -13333,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>502191000000000.06</v>
       </c>
       <c r="F41" s="234">
@@ -13358,7 +13365,7 @@
       <c r="A42" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B42" s="339">
+      <c r="B42" s="319">
         <f>B18*I42</f>
         <v>1.059069765E+16</v>
       </c>
@@ -13371,7 +13378,7 @@
         <v>35097650000000</v>
       </c>
       <c r="E42" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.05556E+16</v>
       </c>
       <c r="F42" s="234">
@@ -13397,11 +13404,11 @@
         <v>243</v>
       </c>
       <c r="B43" s="234">
-        <f t="shared" ref="B43:C43" si="8">B19*$I43</f>
+        <f t="shared" ref="B43:C43" si="7">B19*$I43</f>
         <v>213358606069183.53</v>
       </c>
       <c r="C43" s="234">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>76288772666794.828</v>
       </c>
       <c r="D43" s="305">
@@ -13409,7 +13416,7 @@
         <v>224521678735978.38</v>
       </c>
       <c r="E43" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65125700000000</v>
       </c>
       <c r="F43" s="234">
@@ -13435,11 +13442,11 @@
         <v>230</v>
       </c>
       <c r="B44" s="305">
-        <f t="shared" ref="B44:C44" si="9">B20*$I44</f>
+        <f t="shared" ref="B44:C44" si="8">B20*$I44</f>
         <v>3651935674888206</v>
       </c>
       <c r="C44" s="305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>67739204567.620872</v>
       </c>
       <c r="D44" s="305">
@@ -13447,7 +13454,7 @@
         <v>989103414092773.5</v>
       </c>
       <c r="E44" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2662900000000000</v>
       </c>
       <c r="F44" s="234">
@@ -13473,11 +13480,11 @@
         <v>244</v>
       </c>
       <c r="B45" s="234">
-        <f t="shared" ref="B45:C45" si="10">B21*$I45</f>
+        <f t="shared" ref="B45:C45" si="9">B21*$I45</f>
         <v>479631428270381.69</v>
       </c>
       <c r="C45" s="234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D45" s="305">
@@ -13485,7 +13492,7 @@
         <v>479631428270381.69</v>
       </c>
       <c r="E45" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F45" s="234">
@@ -13511,11 +13518,11 @@
         <v>245</v>
       </c>
       <c r="B46" s="234">
-        <f t="shared" ref="B46:C46" si="11">B22*$I46</f>
+        <f t="shared" ref="B46:C46" si="10">B22*$I46</f>
         <v>339200203125000</v>
       </c>
       <c r="C46" s="234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D46" s="305">
@@ -13523,7 +13530,7 @@
         <v>339200203125000</v>
       </c>
       <c r="E46" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F46" s="234">
@@ -21999,7 +22006,7 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22651,128 +22658,128 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'EPS Primary Energy Use'!C8*1000000000000000-'BFPIaE-imports'!C6+'BFPIaE-exports'!C6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!C6</f>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>'EPS Primary Energy Use'!D8*1000000000000000-'BFPIaE-imports'!D6+'BFPIaE-exports'!D6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!D6</f>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f>'EPS Primary Energy Use'!E8*1000000000000000-'BFPIaE-imports'!E6+'BFPIaE-exports'!E6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!E6</f>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>'EPS Primary Energy Use'!F8*1000000000000000-'BFPIaE-imports'!F6+'BFPIaE-exports'!F6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!F6</f>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>'EPS Primary Energy Use'!G8*1000000000000000-'BFPIaE-imports'!G6+'BFPIaE-exports'!G6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!G6</f>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f>'EPS Primary Energy Use'!H8*1000000000000000-'BFPIaE-imports'!H6+'BFPIaE-exports'!H6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!H6</f>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>'EPS Primary Energy Use'!I8*1000000000000000-'BFPIaE-imports'!I6+'BFPIaE-exports'!I6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!I6</f>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f>'EPS Primary Energy Use'!J8*1000000000000000-'BFPIaE-imports'!J6+'BFPIaE-exports'!J6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!J6</f>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f>'EPS Primary Energy Use'!K8*1000000000000000-'BFPIaE-imports'!K6+'BFPIaE-exports'!K6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!K6</f>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f>'EPS Primary Energy Use'!L8*1000000000000000-'BFPIaE-imports'!L6+'BFPIaE-exports'!L6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!L6</f>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f>'EPS Primary Energy Use'!M8*1000000000000000-'BFPIaE-imports'!M6+'BFPIaE-exports'!M6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!M6</f>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f>'EPS Primary Energy Use'!N8*1000000000000000-'BFPIaE-imports'!N6+'BFPIaE-exports'!N6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!N6</f>
+        <v>0</v>
       </c>
       <c r="O6">
-        <f>'EPS Primary Energy Use'!O8*1000000000000000-'BFPIaE-imports'!O6+'BFPIaE-exports'!O6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!O6</f>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f>'EPS Primary Energy Use'!P8*1000000000000000-'BFPIaE-imports'!P6+'BFPIaE-exports'!P6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!P6</f>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f>'EPS Primary Energy Use'!Q8*1000000000000000-'BFPIaE-imports'!Q6+'BFPIaE-exports'!Q6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!Q6</f>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f>'EPS Primary Energy Use'!R8*1000000000000000-'BFPIaE-imports'!R6+'BFPIaE-exports'!R6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!R6</f>
+        <v>0</v>
       </c>
       <c r="S6">
-        <f>'EPS Primary Energy Use'!S8*1000000000000000-'BFPIaE-imports'!S6+'BFPIaE-exports'!S6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!S6</f>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f>'EPS Primary Energy Use'!T8*1000000000000000-'BFPIaE-imports'!T6+'BFPIaE-exports'!T6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!T6</f>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f>'EPS Primary Energy Use'!U8*1000000000000000-'BFPIaE-imports'!U6+'BFPIaE-exports'!U6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!U6</f>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f>'EPS Primary Energy Use'!V8*1000000000000000-'BFPIaE-imports'!V6+'BFPIaE-exports'!V6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!V6</f>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f>'EPS Primary Energy Use'!W8*1000000000000000-'BFPIaE-imports'!W6+'BFPIaE-exports'!W6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!W6</f>
+        <v>0</v>
       </c>
       <c r="X6">
-        <f>'EPS Primary Energy Use'!X8*1000000000000000-'BFPIaE-imports'!X6+'BFPIaE-exports'!X6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!X6</f>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <f>'EPS Primary Energy Use'!Y8*1000000000000000-'BFPIaE-imports'!Y6+'BFPIaE-exports'!Y6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!Y6</f>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <f>'EPS Primary Energy Use'!Z8*1000000000000000-'BFPIaE-imports'!Z6+'BFPIaE-exports'!Z6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!Z6</f>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <f>'EPS Primary Energy Use'!AA8*1000000000000000-'BFPIaE-imports'!AA6+'BFPIaE-exports'!AA6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!AA6</f>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <f>'EPS Primary Energy Use'!AB8*1000000000000000-'BFPIaE-imports'!AB6+'BFPIaE-exports'!AB6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!AB6</f>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <f>'EPS Primary Energy Use'!AC8*1000000000000000-'BFPIaE-imports'!AC6+'BFPIaE-exports'!AC6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!AC6</f>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <f>'EPS Primary Energy Use'!AD8*1000000000000000-'BFPIaE-imports'!AD6+'BFPIaE-exports'!AD6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!AD6</f>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <f>'EPS Primary Energy Use'!AE8*1000000000000000-'BFPIaE-imports'!AE6+'BFPIaE-exports'!AE6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!AE6</f>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <f>'EPS Primary Energy Use'!AF8*1000000000000000-'BFPIaE-imports'!AF6+'BFPIaE-exports'!AF6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!AF6</f>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <f>'EPS Primary Energy Use'!AG8*1000000000000000-'BFPIaE-imports'!AG6+'BFPIaE-exports'!AG6</f>
-        <v>30672400000000</v>
+        <f>'Start Year Data'!AG6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
@@ -22784,128 +22791,128 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'EPS Primary Energy Use'!C9*1000000000000000-'BFPIaE-imports'!C7+'BFPIaE-exports'!C7</f>
-        <v>1000220000000000.1</v>
+        <f>'Start Year Data'!C7</f>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f>'EPS Primary Energy Use'!D9*1000000000000000-'BFPIaE-imports'!D7+'BFPIaE-exports'!D7</f>
-        <v>1044190000000000</v>
+        <f>'Start Year Data'!D7</f>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f>'EPS Primary Energy Use'!E9*1000000000000000-'BFPIaE-imports'!E7+'BFPIaE-exports'!E7</f>
-        <v>1045490000000000</v>
+        <f>'Start Year Data'!E7</f>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>'EPS Primary Energy Use'!F9*1000000000000000-'BFPIaE-imports'!F7+'BFPIaE-exports'!F7</f>
-        <v>1052000000000000</v>
+        <f>'Start Year Data'!F7</f>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>'EPS Primary Energy Use'!G9*1000000000000000-'BFPIaE-imports'!G7+'BFPIaE-exports'!G7</f>
-        <v>1056030000000000</v>
+        <f>'Start Year Data'!G7</f>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f>'EPS Primary Energy Use'!H9*1000000000000000-'BFPIaE-imports'!H7+'BFPIaE-exports'!H7</f>
-        <v>1061970000000000.1</v>
+        <f>'Start Year Data'!H7</f>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>'EPS Primary Energy Use'!I9*1000000000000000-'BFPIaE-imports'!I7+'BFPIaE-exports'!I7</f>
-        <v>1067939999999999.9</v>
+        <f>'Start Year Data'!I7</f>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>'EPS Primary Energy Use'!J9*1000000000000000-'BFPIaE-imports'!J7+'BFPIaE-exports'!J7</f>
-        <v>1072330000000000</v>
+        <f>'Start Year Data'!J7</f>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f>'EPS Primary Energy Use'!K9*1000000000000000-'BFPIaE-imports'!K7+'BFPIaE-exports'!K7</f>
-        <v>1078619999999999.9</v>
+        <f>'Start Year Data'!K7</f>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f>'EPS Primary Energy Use'!L9*1000000000000000-'BFPIaE-imports'!L7+'BFPIaE-exports'!L7</f>
-        <v>1086230000000000</v>
+        <f>'Start Year Data'!L7</f>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f>'EPS Primary Energy Use'!M9*1000000000000000-'BFPIaE-imports'!M7+'BFPIaE-exports'!M7</f>
-        <v>1093140000000000</v>
+        <f>'Start Year Data'!M7</f>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f>'EPS Primary Energy Use'!N9*1000000000000000-'BFPIaE-imports'!N7+'BFPIaE-exports'!N7</f>
-        <v>1099229999999999.9</v>
+        <f>'Start Year Data'!N7</f>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f>'EPS Primary Energy Use'!O9*1000000000000000-'BFPIaE-imports'!O7+'BFPIaE-exports'!O7</f>
-        <v>1103780000000000</v>
+        <f>'Start Year Data'!O7</f>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f>'EPS Primary Energy Use'!P9*1000000000000000-'BFPIaE-imports'!P7+'BFPIaE-exports'!P7</f>
-        <v>1107660000000000.1</v>
+        <f>'Start Year Data'!P7</f>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>'EPS Primary Energy Use'!Q9*1000000000000000-'BFPIaE-imports'!Q7+'BFPIaE-exports'!Q7</f>
-        <v>1117259999999999.9</v>
+        <f>'Start Year Data'!Q7</f>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f>'EPS Primary Energy Use'!R9*1000000000000000-'BFPIaE-imports'!R7+'BFPIaE-exports'!R7</f>
-        <v>1170570000000000</v>
+        <f>'Start Year Data'!R7</f>
+        <v>0</v>
       </c>
       <c r="S7">
-        <f>'EPS Primary Energy Use'!S9*1000000000000000-'BFPIaE-imports'!S7+'BFPIaE-exports'!S7</f>
-        <v>1195950000000000</v>
+        <f>'Start Year Data'!S7</f>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f>'EPS Primary Energy Use'!T9*1000000000000000-'BFPIaE-imports'!T7+'BFPIaE-exports'!T7</f>
-        <v>1224150000000000</v>
+        <f>'Start Year Data'!T7</f>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f>'EPS Primary Energy Use'!U9*1000000000000000-'BFPIaE-imports'!U7+'BFPIaE-exports'!U7</f>
-        <v>1250840000000000</v>
+        <f>'Start Year Data'!U7</f>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f>'EPS Primary Energy Use'!V9*1000000000000000-'BFPIaE-imports'!V7+'BFPIaE-exports'!V7</f>
-        <v>1274400000000000</v>
+        <f>'Start Year Data'!V7</f>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f>'EPS Primary Energy Use'!W9*1000000000000000-'BFPIaE-imports'!W7+'BFPIaE-exports'!W7</f>
-        <v>1296590000000000</v>
+        <f>'Start Year Data'!W7</f>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f>'EPS Primary Energy Use'!X9*1000000000000000-'BFPIaE-imports'!X7+'BFPIaE-exports'!X7</f>
-        <v>1315420000000000</v>
+        <f>'Start Year Data'!X7</f>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f>'EPS Primary Energy Use'!Y9*1000000000000000-'BFPIaE-imports'!Y7+'BFPIaE-exports'!Y7</f>
-        <v>1341150000000000</v>
+        <f>'Start Year Data'!Y7</f>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f>'EPS Primary Energy Use'!Z9*1000000000000000-'BFPIaE-imports'!Z7+'BFPIaE-exports'!Z7</f>
-        <v>1363240000000000</v>
+        <f>'Start Year Data'!Z7</f>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <f>'EPS Primary Energy Use'!AA9*1000000000000000-'BFPIaE-imports'!AA7+'BFPIaE-exports'!AA7</f>
-        <v>1384050000000000</v>
+        <f>'Start Year Data'!AA7</f>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f>'EPS Primary Energy Use'!AB9*1000000000000000-'BFPIaE-imports'!AB7+'BFPIaE-exports'!AB7</f>
-        <v>1401160000000000</v>
+        <f>'Start Year Data'!AB7</f>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <f>'EPS Primary Energy Use'!AC9*1000000000000000-'BFPIaE-imports'!AC7+'BFPIaE-exports'!AC7</f>
-        <v>1417100000000000</v>
+        <f>'Start Year Data'!AC7</f>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <f>'EPS Primary Energy Use'!AD9*1000000000000000-'BFPIaE-imports'!AD7+'BFPIaE-exports'!AD7</f>
-        <v>1432000000000000</v>
+        <f>'Start Year Data'!AD7</f>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <f>'EPS Primary Energy Use'!AE9*1000000000000000-'BFPIaE-imports'!AE7+'BFPIaE-exports'!AE7</f>
-        <v>1445720000000000</v>
+        <f>'Start Year Data'!AE7</f>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <f>'EPS Primary Energy Use'!AF9*1000000000000000-'BFPIaE-imports'!AF7+'BFPIaE-exports'!AF7</f>
-        <v>1458360000000000</v>
+        <f>'Start Year Data'!AF7</f>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <f>'EPS Primary Energy Use'!AG9*1000000000000000-'BFPIaE-imports'!AG7+'BFPIaE-exports'!AG7</f>
-        <v>1472550000000000</v>
+        <f>'Start Year Data'!AG7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
@@ -22917,128 +22924,128 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f>'EPS Primary Energy Use'!C10*1000000000000000-'BFPIaE-imports'!C8+'BFPIaE-exports'!C8</f>
-        <v>90496800000000</v>
+        <f>'Start Year Data'!C8</f>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f>'EPS Primary Energy Use'!D10*1000000000000000-'BFPIaE-imports'!D8+'BFPIaE-exports'!D8</f>
-        <v>154184000000000</v>
+        <f>'Start Year Data'!D8</f>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f>'EPS Primary Energy Use'!E10*1000000000000000-'BFPIaE-imports'!E8+'BFPIaE-exports'!E8</f>
-        <v>157304000000000</v>
+        <f>'Start Year Data'!E8</f>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f>'EPS Primary Energy Use'!F10*1000000000000000-'BFPIaE-imports'!F8+'BFPIaE-exports'!F8</f>
-        <v>161183000000000</v>
+        <f>'Start Year Data'!F8</f>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f>'EPS Primary Energy Use'!G10*1000000000000000-'BFPIaE-imports'!G8+'BFPIaE-exports'!G8</f>
-        <v>165000000000000</v>
+        <f>'Start Year Data'!G8</f>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>'EPS Primary Energy Use'!H10*1000000000000000-'BFPIaE-imports'!H8+'BFPIaE-exports'!H8</f>
-        <v>169634000000000</v>
+        <f>'Start Year Data'!H8</f>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f>'EPS Primary Energy Use'!I10*1000000000000000-'BFPIaE-imports'!I8+'BFPIaE-exports'!I8</f>
-        <v>174205000000000</v>
+        <f>'Start Year Data'!I8</f>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f>'EPS Primary Energy Use'!J10*1000000000000000-'BFPIaE-imports'!J8+'BFPIaE-exports'!J8</f>
-        <v>179583000000000</v>
+        <f>'Start Year Data'!J8</f>
+        <v>0</v>
       </c>
       <c r="K8">
-        <f>'EPS Primary Energy Use'!K10*1000000000000000-'BFPIaE-imports'!K8+'BFPIaE-exports'!K8</f>
-        <v>184912000000000</v>
+        <f>'Start Year Data'!K8</f>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f>'EPS Primary Energy Use'!L10*1000000000000000-'BFPIaE-imports'!L8+'BFPIaE-exports'!L8</f>
-        <v>191051000000000</v>
+        <f>'Start Year Data'!L8</f>
+        <v>0</v>
       </c>
       <c r="M8">
-        <f>'EPS Primary Energy Use'!M10*1000000000000000-'BFPIaE-imports'!M8+'BFPIaE-exports'!M8</f>
-        <v>197136000000000</v>
+        <f>'Start Year Data'!M8</f>
+        <v>0</v>
       </c>
       <c r="N8">
-        <f>'EPS Primary Energy Use'!N10*1000000000000000-'BFPIaE-imports'!N8+'BFPIaE-exports'!N8</f>
-        <v>203593000000000</v>
+        <f>'Start Year Data'!N8</f>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f>'EPS Primary Energy Use'!O10*1000000000000000-'BFPIaE-imports'!O8+'BFPIaE-exports'!O8</f>
-        <v>210412000000000</v>
+        <f>'Start Year Data'!O8</f>
+        <v>0</v>
       </c>
       <c r="P8">
-        <f>'EPS Primary Energy Use'!P10*1000000000000000-'BFPIaE-imports'!P8+'BFPIaE-exports'!P8</f>
-        <v>217606000000000</v>
+        <f>'Start Year Data'!P8</f>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f>'EPS Primary Energy Use'!Q10*1000000000000000-'BFPIaE-imports'!Q8+'BFPIaE-exports'!Q8</f>
-        <v>226948000000000</v>
+        <f>'Start Year Data'!Q8</f>
+        <v>0</v>
       </c>
       <c r="R8">
-        <f>'EPS Primary Energy Use'!R10*1000000000000000-'BFPIaE-imports'!R8+'BFPIaE-exports'!R8</f>
-        <v>276181999999999.97</v>
+        <f>'Start Year Data'!R8</f>
+        <v>0</v>
       </c>
       <c r="S8">
-        <f>'EPS Primary Energy Use'!S10*1000000000000000-'BFPIaE-imports'!S8+'BFPIaE-exports'!S8</f>
-        <v>310032000000000</v>
+        <f>'Start Year Data'!S8</f>
+        <v>0</v>
       </c>
       <c r="T8">
-        <f>'EPS Primary Energy Use'!T10*1000000000000000-'BFPIaE-imports'!T8+'BFPIaE-exports'!T8</f>
-        <v>350598000000000</v>
+        <f>'Start Year Data'!T8</f>
+        <v>0</v>
       </c>
       <c r="U8">
-        <f>'EPS Primary Energy Use'!U10*1000000000000000-'BFPIaE-imports'!U8+'BFPIaE-exports'!U8</f>
-        <v>393330000000000</v>
+        <f>'Start Year Data'!U8</f>
+        <v>0</v>
       </c>
       <c r="V8">
-        <f>'EPS Primary Energy Use'!V10*1000000000000000-'BFPIaE-imports'!V8+'BFPIaE-exports'!V8</f>
-        <v>438217000000000</v>
+        <f>'Start Year Data'!V8</f>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f>'EPS Primary Energy Use'!W10*1000000000000000-'BFPIaE-imports'!W8+'BFPIaE-exports'!W8</f>
-        <v>482371000000000</v>
+        <f>'Start Year Data'!W8</f>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f>'EPS Primary Energy Use'!X10*1000000000000000-'BFPIaE-imports'!X8+'BFPIaE-exports'!X8</f>
-        <v>526728000000000</v>
+        <f>'Start Year Data'!X8</f>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <f>'EPS Primary Energy Use'!Y10*1000000000000000-'BFPIaE-imports'!Y8+'BFPIaE-exports'!Y8</f>
-        <v>577024000000000</v>
+        <f>'Start Year Data'!Y8</f>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <f>'EPS Primary Energy Use'!Z10*1000000000000000-'BFPIaE-imports'!Z8+'BFPIaE-exports'!Z8</f>
-        <v>626026000000000</v>
+        <f>'Start Year Data'!Z8</f>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <f>'EPS Primary Energy Use'!AA10*1000000000000000-'BFPIaE-imports'!AA8+'BFPIaE-exports'!AA8</f>
-        <v>674158000000000</v>
+        <f>'Start Year Data'!AA8</f>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <f>'EPS Primary Energy Use'!AB10*1000000000000000-'BFPIaE-imports'!AB8+'BFPIaE-exports'!AB8</f>
-        <v>722936000000000</v>
+        <f>'Start Year Data'!AB8</f>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <f>'EPS Primary Energy Use'!AC10*1000000000000000-'BFPIaE-imports'!AC8+'BFPIaE-exports'!AC8</f>
-        <v>768343000000000</v>
+        <f>'Start Year Data'!AC8</f>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <f>'EPS Primary Energy Use'!AD10*1000000000000000-'BFPIaE-imports'!AD8+'BFPIaE-exports'!AD8</f>
-        <v>812928000000000</v>
+        <f>'Start Year Data'!AD8</f>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <f>'EPS Primary Energy Use'!AE10*1000000000000000-'BFPIaE-imports'!AE8+'BFPIaE-exports'!AE8</f>
-        <v>855528000000000</v>
+        <f>'Start Year Data'!AE8</f>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <f>'EPS Primary Energy Use'!AF10*1000000000000000-'BFPIaE-imports'!AF8+'BFPIaE-exports'!AF8</f>
-        <v>898164000000000</v>
+        <f>'Start Year Data'!AF8</f>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <f>'EPS Primary Energy Use'!AG10*1000000000000000-'BFPIaE-imports'!AG8+'BFPIaE-exports'!AG8</f>
-        <v>940990000000000</v>
+        <f>'Start Year Data'!AG8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.45">
@@ -23046,132 +23053,132 @@
         <v>225</v>
       </c>
       <c r="B9">
-        <f>'Start Year Data'!B9</f>
-        <v>551156</v>
+        <f>'Start Year Data'!B33</f>
+        <v>84555400000000</v>
       </c>
       <c r="C9">
         <f>'EPS Primary Energy Use'!C11*1000000000000000-'BFPIaE-imports'!C9+'BFPIaE-exports'!C9</f>
-        <v>90763142435808.266</v>
+        <v>84812000000000</v>
       </c>
       <c r="D9">
         <f>'EPS Primary Energy Use'!D11*1000000000000000-'BFPIaE-imports'!D9+'BFPIaE-exports'!D9</f>
-        <v>90932742435808.266</v>
+        <v>84981600000000</v>
       </c>
       <c r="E9">
         <f>'EPS Primary Energy Use'!E11*1000000000000000-'BFPIaE-imports'!E9+'BFPIaE-exports'!E9</f>
-        <v>91022542435808.266</v>
+        <v>85071400000000</v>
       </c>
       <c r="F9">
         <f>'EPS Primary Energy Use'!F11*1000000000000000-'BFPIaE-imports'!F9+'BFPIaE-exports'!F9</f>
-        <v>91798642435808.266</v>
+        <v>85847500000000</v>
       </c>
       <c r="G9">
         <f>'EPS Primary Energy Use'!G11*1000000000000000-'BFPIaE-imports'!G9+'BFPIaE-exports'!G9</f>
-        <v>100101442435808.27</v>
+        <v>94150300000000</v>
       </c>
       <c r="H9">
         <f>'EPS Primary Energy Use'!H11*1000000000000000-'BFPIaE-imports'!H9+'BFPIaE-exports'!H9</f>
-        <v>113405142435808.27</v>
+        <v>107454000000000</v>
       </c>
       <c r="I9">
         <f>'EPS Primary Energy Use'!I11*1000000000000000-'BFPIaE-imports'!I9+'BFPIaE-exports'!I9</f>
-        <v>115399142435808.27</v>
+        <v>109448000000000</v>
       </c>
       <c r="J9">
         <f>'EPS Primary Energy Use'!J11*1000000000000000-'BFPIaE-imports'!J9+'BFPIaE-exports'!J9</f>
-        <v>115811142435808.27</v>
+        <v>109860000000000</v>
       </c>
       <c r="K9">
         <f>'EPS Primary Energy Use'!K11*1000000000000000-'BFPIaE-imports'!K9+'BFPIaE-exports'!K9</f>
-        <v>115991142435808.27</v>
+        <v>110040000000000</v>
       </c>
       <c r="L9">
         <f>'EPS Primary Energy Use'!L11*1000000000000000-'BFPIaE-imports'!L9+'BFPIaE-exports'!L9</f>
-        <v>116167142435808.27</v>
+        <v>110216000000000</v>
       </c>
       <c r="M9">
         <f>'EPS Primary Energy Use'!M11*1000000000000000-'BFPIaE-imports'!M9+'BFPIaE-exports'!M9</f>
-        <v>116252142435808.27</v>
+        <v>110301000000000</v>
       </c>
       <c r="N9">
         <f>'EPS Primary Energy Use'!N11*1000000000000000-'BFPIaE-imports'!N9+'BFPIaE-exports'!N9</f>
-        <v>116338142435808.27</v>
+        <v>110387000000000</v>
       </c>
       <c r="O9">
         <f>'EPS Primary Energy Use'!O11*1000000000000000-'BFPIaE-imports'!O9+'BFPIaE-exports'!O9</f>
-        <v>116545142435808.27</v>
+        <v>110594000000000</v>
       </c>
       <c r="P9">
         <f>'EPS Primary Energy Use'!P11*1000000000000000-'BFPIaE-imports'!P9+'BFPIaE-exports'!P9</f>
-        <v>116641142435808.27</v>
+        <v>110690000000000</v>
       </c>
       <c r="Q9">
         <f>'EPS Primary Energy Use'!Q11*1000000000000000-'BFPIaE-imports'!Q9+'BFPIaE-exports'!Q9</f>
-        <v>116861142435808.27</v>
+        <v>110910000000000</v>
       </c>
       <c r="R9">
         <f>'EPS Primary Energy Use'!R11*1000000000000000-'BFPIaE-imports'!R9+'BFPIaE-exports'!R9</f>
-        <v>116991142435808.27</v>
+        <v>111040000000000</v>
       </c>
       <c r="S9">
         <f>'EPS Primary Energy Use'!S11*1000000000000000-'BFPIaE-imports'!S9+'BFPIaE-exports'!S9</f>
-        <v>117146142435808.27</v>
+        <v>111195000000000</v>
       </c>
       <c r="T9">
         <f>'EPS Primary Energy Use'!T11*1000000000000000-'BFPIaE-imports'!T9+'BFPIaE-exports'!T9</f>
-        <v>117424142435808.27</v>
+        <v>111473000000000</v>
       </c>
       <c r="U9">
         <f>'EPS Primary Energy Use'!U11*1000000000000000-'BFPIaE-imports'!U9+'BFPIaE-exports'!U9</f>
-        <v>117603142435808.27</v>
+        <v>111652000000000</v>
       </c>
       <c r="V9">
         <f>'EPS Primary Energy Use'!V11*1000000000000000-'BFPIaE-imports'!V9+'BFPIaE-exports'!V9</f>
-        <v>117893142435808.27</v>
+        <v>111942000000000</v>
       </c>
       <c r="W9">
         <f>'EPS Primary Energy Use'!W11*1000000000000000-'BFPIaE-imports'!W9+'BFPIaE-exports'!W9</f>
-        <v>118081142435808.27</v>
+        <v>112130000000000</v>
       </c>
       <c r="X9">
         <f>'EPS Primary Energy Use'!X11*1000000000000000-'BFPIaE-imports'!X9+'BFPIaE-exports'!X9</f>
-        <v>118297142435808.27</v>
+        <v>112346000000000</v>
       </c>
       <c r="Y9">
         <f>'EPS Primary Energy Use'!Y11*1000000000000000-'BFPIaE-imports'!Y9+'BFPIaE-exports'!Y9</f>
-        <v>118610142435808.27</v>
+        <v>112659000000000</v>
       </c>
       <c r="Z9">
         <f>'EPS Primary Energy Use'!Z11*1000000000000000-'BFPIaE-imports'!Z9+'BFPIaE-exports'!Z9</f>
-        <v>118813142435808.27</v>
+        <v>112862000000000</v>
       </c>
       <c r="AA9">
         <f>'EPS Primary Energy Use'!AA11*1000000000000000-'BFPIaE-imports'!AA9+'BFPIaE-exports'!AA9</f>
-        <v>119103142435808.27</v>
+        <v>113152000000000</v>
       </c>
       <c r="AB9">
         <f>'EPS Primary Energy Use'!AB11*1000000000000000-'BFPIaE-imports'!AB9+'BFPIaE-exports'!AB9</f>
-        <v>119292142435808.27</v>
+        <v>113341000000000</v>
       </c>
       <c r="AC9">
         <f>'EPS Primary Energy Use'!AC11*1000000000000000-'BFPIaE-imports'!AC9+'BFPIaE-exports'!AC9</f>
-        <v>119460142435808.27</v>
+        <v>113509000000000</v>
       </c>
       <c r="AD9">
         <f>'EPS Primary Energy Use'!AD11*1000000000000000-'BFPIaE-imports'!AD9+'BFPIaE-exports'!AD9</f>
-        <v>119739142435808.27</v>
+        <v>113788000000000</v>
       </c>
       <c r="AE9">
         <f>'EPS Primary Energy Use'!AE11*1000000000000000-'BFPIaE-imports'!AE9+'BFPIaE-exports'!AE9</f>
-        <v>119928142435808.27</v>
+        <v>113977000000000</v>
       </c>
       <c r="AF9">
         <f>'EPS Primary Energy Use'!AF11*1000000000000000-'BFPIaE-imports'!AF9+'BFPIaE-exports'!AF9</f>
-        <v>120208142435808.27</v>
+        <v>114257000000000</v>
       </c>
       <c r="AG9">
         <f>'EPS Primary Energy Use'!AG11*1000000000000000-'BFPIaE-imports'!AG9+'BFPIaE-exports'!AG9</f>
-        <v>120398142435808.27</v>
+        <v>114447000000000</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.45">
@@ -23179,8 +23186,8 @@
         <v>226</v>
       </c>
       <c r="B10">
-        <f>'Start Year Data'!B10</f>
-        <v>502018.90171119676</v>
+        <f>'Start Year Data'!B34</f>
+        <v>2538530365205611</v>
       </c>
       <c r="C10">
         <f>'EPS Primary Energy Use'!C12*1000000000000000-'BFPIaE-imports'!C10+'BFPIaE-exports'!C10</f>
@@ -23312,8 +23319,8 @@
         <v>237</v>
       </c>
       <c r="B11">
-        <f>'Start Year Data'!B11</f>
-        <v>628923.38461465447</v>
+        <f>'Start Year Data'!B35</f>
+        <v>3663478715380362.5</v>
       </c>
       <c r="C11">
         <f>'EPS Primary Energy Use'!C13*1000000000000000-'BFPIaE-imports'!C11+'BFPIaE-exports'!C11</f>
@@ -23445,132 +23452,132 @@
         <v>238</v>
       </c>
       <c r="B12">
-        <f>'Start Year Data'!B12</f>
-        <v>4213.9757618040776</v>
+        <f>'Start Year Data'!B36</f>
+        <v>16844188194598.494</v>
       </c>
       <c r="C12">
-        <f>'EPS Primary Energy Use'!C14*1000000000000000-'BFPIaE-imports'!C12+'BFPIaE-exports'!C12</f>
-        <v>27294188194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!C14/'EPS Primary Energy Use'!$B14</f>
+        <v>21014806190332.535</v>
       </c>
       <c r="D12">
-        <f>'EPS Primary Energy Use'!D14*1000000000000000-'BFPIaE-imports'!D12+'BFPIaE-exports'!D12</f>
-        <v>35936288194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!D14/'EPS Primary Energy Use'!$B14</f>
+        <v>24463887317694.555</v>
       </c>
       <c r="E12">
-        <f>'EPS Primary Energy Use'!E14*1000000000000000-'BFPIaE-imports'!E12+'BFPIaE-exports'!E12</f>
-        <v>46802888194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!E14/'EPS Primary Energy Use'!$B14</f>
+        <v>28800771290177.191</v>
       </c>
       <c r="F12">
-        <f>'EPS Primary Energy Use'!F14*1000000000000000-'BFPIaE-imports'!F12+'BFPIaE-exports'!F12</f>
-        <v>44610788194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!F14/'EPS Primary Energy Use'!$B14</f>
+        <v>27925899356354.359</v>
       </c>
       <c r="G12">
-        <f>'EPS Primary Energy Use'!G14*1000000000000000-'BFPIaE-imports'!G12+'BFPIaE-exports'!G12</f>
-        <v>41902488194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!G14/'EPS Primary Energy Use'!$B14</f>
+        <v>26845010866608.285</v>
       </c>
       <c r="H12">
-        <f>'EPS Primary Energy Use'!H14*1000000000000000-'BFPIaE-imports'!H12+'BFPIaE-exports'!H12</f>
-        <v>38748488194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!H14/'EPS Primary Energy Use'!$B14</f>
+        <v>25586242526077.645</v>
       </c>
       <c r="I12">
-        <f>'EPS Primary Energy Use'!I14*1000000000000000-'BFPIaE-imports'!I12+'BFPIaE-exports'!I12</f>
-        <v>33035788194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!I14/'EPS Primary Energy Use'!$B14</f>
+        <v>23306291385003.02</v>
       </c>
       <c r="J12">
-        <f>'EPS Primary Energy Use'!J14*1000000000000000-'BFPIaE-imports'!J12+'BFPIaE-exports'!J12</f>
-        <v>26351988194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!J14/'EPS Primary Energy Use'!$B14</f>
+        <v>20638772096975.539</v>
       </c>
       <c r="K12">
-        <f>'EPS Primary Energy Use'!K14*1000000000000000-'BFPIaE-imports'!K12+'BFPIaE-exports'!K12</f>
-        <v>17228788194598.492</v>
+        <f>$B12*'EPS Primary Energy Use'!K14/'EPS Primary Energy Use'!$B14</f>
+        <v>16997682900929.529</v>
       </c>
       <c r="L12">
-        <f>'EPS Primary Energy Use'!L14*1000000000000000-'BFPIaE-imports'!L12+'BFPIaE-exports'!L12</f>
-        <v>6378688194598.4961</v>
+        <f>$B12*'EPS Primary Energy Use'!L14/'EPS Primary Energy Use'!$B14</f>
+        <v>12667384114755.951</v>
       </c>
       <c r="M12">
-        <f>'EPS Primary Energy Use'!M14*1000000000000000-'BFPIaE-imports'!M12+'BFPIaE-exports'!M12</f>
-        <v>-2848911805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!M14/'EPS Primary Energy Use'!$B14</f>
+        <v>8984628648972.6582</v>
       </c>
       <c r="N12">
-        <f>'EPS Primary Energy Use'!N14*1000000000000000-'BFPIaE-imports'!N12+'BFPIaE-exports'!N12</f>
-        <v>-2510411805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!N14/'EPS Primary Energy Use'!$B14</f>
+        <v>9119724743858.3945</v>
       </c>
       <c r="O12">
-        <f>'EPS Primary Energy Use'!O14*1000000000000000-'BFPIaE-imports'!O12+'BFPIaE-exports'!O12</f>
-        <v>-2327111805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!O14/'EPS Primary Energy Use'!$B14</f>
+        <v>9192880177218.9746</v>
       </c>
       <c r="P12">
-        <f>'EPS Primary Energy Use'!P14*1000000000000000-'BFPIaE-imports'!P12+'BFPIaE-exports'!P12</f>
-        <v>-1791011805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!P14/'EPS Primary Energy Use'!$B14</f>
+        <v>9406838866933.1387</v>
       </c>
       <c r="Q12">
-        <f>'EPS Primary Energy Use'!Q14*1000000000000000-'BFPIaE-imports'!Q12+'BFPIaE-exports'!Q12</f>
-        <v>-723411805401.50781</v>
+        <f>$B12*'EPS Primary Energy Use'!Q14/'EPS Primary Energy Use'!$B14</f>
+        <v>9832920376238.9434</v>
       </c>
       <c r="R12">
-        <f>'EPS Primary Energy Use'!R14*1000000000000000-'BFPIaE-imports'!R12+'BFPIaE-exports'!R12</f>
-        <v>-506311805401.50781</v>
+        <f>$B12*'EPS Primary Energy Use'!R14/'EPS Primary Energy Use'!$B14</f>
+        <v>9919565463978.0684</v>
       </c>
       <c r="S12">
-        <f>'EPS Primary Energy Use'!S14*1000000000000000-'BFPIaE-imports'!S12+'BFPIaE-exports'!S12</f>
-        <v>-70611805401.507813</v>
+        <f>$B12*'EPS Primary Energy Use'!S14/'EPS Primary Energy Use'!$B14</f>
+        <v>10093454292757.143</v>
       </c>
       <c r="T12">
-        <f>'EPS Primary Energy Use'!T14*1000000000000000-'BFPIaE-imports'!T12+'BFPIaE-exports'!T12</f>
-        <v>206788194598.49219</v>
+        <f>$B12*'EPS Primary Energy Use'!T14/'EPS Primary Energy Use'!$B14</f>
+        <v>10204165243189.355</v>
       </c>
       <c r="U12">
-        <f>'EPS Primary Energy Use'!U14*1000000000000000-'BFPIaE-imports'!U12+'BFPIaE-exports'!U12</f>
-        <v>139188194598.49219</v>
+        <f>$B12*'EPS Primary Energy Use'!U14/'EPS Primary Energy Use'!$B14</f>
+        <v>10177185934432.262</v>
       </c>
       <c r="V12">
-        <f>'EPS Primary Energy Use'!V14*1000000000000000-'BFPIaE-imports'!V12+'BFPIaE-exports'!V12</f>
-        <v>-416811805401.50781</v>
+        <f>$B12*'EPS Primary Energy Use'!V14/'EPS Primary Energy Use'!$B14</f>
+        <v>9955285110927.1777</v>
       </c>
       <c r="W12">
-        <f>'EPS Primary Energy Use'!W14*1000000000000000-'BFPIaE-imports'!W12+'BFPIaE-exports'!W12</f>
-        <v>-1076911805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!W14/'EPS Primary Energy Use'!$B14</f>
+        <v>9691837748344.9746</v>
       </c>
       <c r="X12">
-        <f>'EPS Primary Energy Use'!X14*1000000000000000-'BFPIaE-imports'!X12+'BFPIaE-exports'!X12</f>
-        <v>-2404911805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!X14/'EPS Primary Energy Use'!$B14</f>
+        <v>9161830026016.2852</v>
       </c>
       <c r="Y12">
-        <f>'EPS Primary Energy Use'!Y14*1000000000000000-'BFPIaE-imports'!Y12+'BFPIaE-exports'!Y12</f>
-        <v>-3702211805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!Y14/'EPS Primary Energy Use'!$B14</f>
+        <v>8644074741244.4404</v>
       </c>
       <c r="Z12">
-        <f>'EPS Primary Energy Use'!Z14*1000000000000000-'BFPIaE-imports'!Z12+'BFPIaE-exports'!Z12</f>
-        <v>-5373011805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!Z14/'EPS Primary Energy Use'!$B14</f>
+        <v>7977254784567.6533</v>
       </c>
       <c r="AA12">
-        <f>'EPS Primary Energy Use'!AA14*1000000000000000-'BFPIaE-imports'!AA12+'BFPIaE-exports'!AA12</f>
-        <v>-6577511805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!AA14/'EPS Primary Energy Use'!$B14</f>
+        <v>7496536184006.7305</v>
       </c>
       <c r="AB12">
-        <f>'EPS Primary Energy Use'!AB14*1000000000000000-'BFPIaE-imports'!AB12+'BFPIaE-exports'!AB12</f>
-        <v>-7400811805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!AB14/'EPS Primary Energy Use'!$B14</f>
+        <v>7167955342294.9746</v>
       </c>
       <c r="AC12">
-        <f>'EPS Primary Energy Use'!AC14*1000000000000000-'BFPIaE-imports'!AC12+'BFPIaE-exports'!AC12</f>
-        <v>-9932411805401.5078</v>
+        <f>$B12*'EPS Primary Energy Use'!AC14/'EPS Primary Energy Use'!$B14</f>
+        <v>6157588211385.8564</v>
       </c>
       <c r="AD12">
-        <f>'EPS Primary Energy Use'!AD14*1000000000000000-'BFPIaE-imports'!AD12+'BFPIaE-exports'!AD12</f>
-        <v>-12951111805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AD14/'EPS Primary Energy Use'!$B14</f>
+        <v>4952818398589.46</v>
       </c>
       <c r="AE12">
-        <f>'EPS Primary Energy Use'!AE14*1000000000000000-'BFPIaE-imports'!AE12+'BFPIaE-exports'!AE12</f>
-        <v>-14734111805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AE14/'EPS Primary Energy Use'!$B14</f>
+        <v>4241219175011.1064</v>
       </c>
       <c r="AF12">
-        <f>'EPS Primary Energy Use'!AF14*1000000000000000-'BFPIaE-imports'!AF12+'BFPIaE-exports'!AF12</f>
-        <v>-14532611805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AF14/'EPS Primary Energy Use'!$B14</f>
+        <v>4321638268421.6724</v>
       </c>
       <c r="AG12">
-        <f>'EPS Primary Energy Use'!AG14*1000000000000000-'BFPIaE-imports'!AG12+'BFPIaE-exports'!AG12</f>
-        <v>-14349211805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AG14/'EPS Primary Energy Use'!$B14</f>
+        <v>4394833612002.3057</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.45">
@@ -23578,132 +23585,132 @@
         <v>239</v>
       </c>
       <c r="B13">
-        <f>'Start Year Data'!B13</f>
-        <v>4718.0060797197921</v>
+        <f>'Start Year Data'!B37</f>
+        <v>25283794581218.367</v>
       </c>
       <c r="C13">
-        <f>'EPS Primary Energy Use'!C15*1000000000000000-'BFPIaE-imports'!C13+'BFPIaE-exports'!C13</f>
-        <v>24775694581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!C15/'EPS Primary Energy Use'!$B15</f>
+        <v>25019547897971.863</v>
       </c>
       <c r="D13">
-        <f>'EPS Primary Energy Use'!D15*1000000000000000-'BFPIaE-imports'!D13+'BFPIaE-exports'!D13</f>
-        <v>28040194581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!D15/'EPS Primary Energy Use'!$B15</f>
+        <v>26717310734929.578</v>
       </c>
       <c r="E13">
-        <f>'EPS Primary Energy Use'!E15*1000000000000000-'BFPIaE-imports'!E13+'BFPIaE-exports'!E13</f>
-        <v>29257194581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!E15/'EPS Primary Energy Use'!$B15</f>
+        <v>27350233808165.156</v>
       </c>
       <c r="F13">
-        <f>'EPS Primary Energy Use'!F15*1000000000000000-'BFPIaE-imports'!F13+'BFPIaE-exports'!F13</f>
-        <v>28424594581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!F15/'EPS Primary Energy Use'!$B15</f>
+        <v>26917224974331.184</v>
       </c>
       <c r="G13">
-        <f>'EPS Primary Energy Use'!G15*1000000000000000-'BFPIaE-imports'!G13+'BFPIaE-exports'!G13</f>
-        <v>27044894581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!G15/'EPS Primary Energy Use'!$B15</f>
+        <v>26199686795084.578</v>
       </c>
       <c r="H13">
-        <f>'EPS Primary Energy Use'!H15*1000000000000000-'BFPIaE-imports'!H13+'BFPIaE-exports'!H13</f>
-        <v>24656394581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!H15/'EPS Primary Energy Use'!$B15</f>
+        <v>24957503754473.914</v>
       </c>
       <c r="I13">
-        <f>'EPS Primary Energy Use'!I15*1000000000000000-'BFPIaE-imports'!I13+'BFPIaE-exports'!I13</f>
-        <v>21990394581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!I15/'EPS Primary Energy Use'!$B15</f>
+        <v>23571001771527.281</v>
       </c>
       <c r="J13">
-        <f>'EPS Primary Energy Use'!J15*1000000000000000-'BFPIaE-imports'!J13+'BFPIaE-exports'!J13</f>
-        <v>18750794581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!J15/'EPS Primary Energy Use'!$B15</f>
+        <v>21886188634260.254</v>
       </c>
       <c r="K13">
-        <f>'EPS Primary Energy Use'!K15*1000000000000000-'BFPIaE-imports'!K13+'BFPIaE-exports'!K13</f>
-        <v>14583494581218.367</v>
+        <f>$B13*'EPS Primary Energy Use'!K15/'EPS Primary Energy Use'!$B15</f>
+        <v>19718908171569.527</v>
       </c>
       <c r="L13">
-        <f>'EPS Primary Energy Use'!L15*1000000000000000-'BFPIaE-imports'!L13+'BFPIaE-exports'!L13</f>
-        <v>9612194581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!L15/'EPS Primary Energy Use'!$B15</f>
+        <v>17133492827299.994</v>
       </c>
       <c r="M13">
-        <f>'EPS Primary Energy Use'!M15*1000000000000000-'BFPIaE-imports'!M13+'BFPIaE-exports'!M13</f>
-        <v>4896694581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!M15/'EPS Primary Energy Use'!$B15</f>
+        <v>14681110944109.887</v>
       </c>
       <c r="N13">
-        <f>'EPS Primary Energy Use'!N15*1000000000000000-'BFPIaE-imports'!N13+'BFPIaE-exports'!N13</f>
-        <v>4585494581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!N15/'EPS Primary Energy Use'!$B15</f>
+        <v>14519265701389.336</v>
       </c>
       <c r="O13">
-        <f>'EPS Primary Energy Use'!O15*1000000000000000-'BFPIaE-imports'!O13+'BFPIaE-exports'!O13</f>
-        <v>4301594581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!O15/'EPS Primary Energy Use'!$B15</f>
+        <v>14371618322185.08</v>
       </c>
       <c r="P13">
-        <f>'EPS Primary Energy Use'!P15*1000000000000000-'BFPIaE-imports'!P13+'BFPIaE-exports'!P13</f>
-        <v>4000794581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!P15/'EPS Primary Energy Use'!$B15</f>
+        <v>14215181789375.498</v>
       </c>
       <c r="Q13">
-        <f>'EPS Primary Energy Use'!Q15*1000000000000000-'BFPIaE-imports'!Q13+'BFPIaE-exports'!Q13</f>
-        <v>4032694581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!Q15/'EPS Primary Energy Use'!$B15</f>
+        <v>14231771966890.873</v>
       </c>
       <c r="R13">
-        <f>'EPS Primary Energy Use'!R15*1000000000000000-'BFPIaE-imports'!R13+'BFPIaE-exports'!R13</f>
-        <v>4168794581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!R15/'EPS Primary Energy Use'!$B15</f>
+        <v>14302553257168.084</v>
       </c>
       <c r="S13">
-        <f>'EPS Primary Energy Use'!S15*1000000000000000-'BFPIaE-imports'!S13+'BFPIaE-exports'!S13</f>
-        <v>4031994581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!S15/'EPS Primary Energy Use'!$B15</f>
+        <v>14231407919108.406</v>
       </c>
       <c r="T13">
-        <f>'EPS Primary Energy Use'!T15*1000000000000000-'BFPIaE-imports'!T13+'BFPIaE-exports'!T13</f>
-        <v>3683194581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!T15/'EPS Primary Energy Use'!$B15</f>
+        <v>14050008109786.656</v>
       </c>
       <c r="U13">
-        <f>'EPS Primary Energy Use'!U15*1000000000000000-'BFPIaE-imports'!U13+'BFPIaE-exports'!U13</f>
-        <v>3201794581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!U15/'EPS Primary Energy Use'!$B15</f>
+        <v>13799647249100.045</v>
       </c>
       <c r="V13">
-        <f>'EPS Primary Energy Use'!V15*1000000000000000-'BFPIaE-imports'!V13+'BFPIaE-exports'!V13</f>
-        <v>2714494581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!V15/'EPS Primary Energy Use'!$B15</f>
+        <v>13546217985675.48</v>
       </c>
       <c r="W13">
-        <f>'EPS Primary Energy Use'!W15*1000000000000000-'BFPIaE-imports'!W13+'BFPIaE-exports'!W13</f>
-        <v>2283594581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!W15/'EPS Primary Energy Use'!$B15</f>
+        <v>13322120572152.709</v>
       </c>
       <c r="X13">
-        <f>'EPS Primary Energy Use'!X15*1000000000000000-'BFPIaE-imports'!X13+'BFPIaE-exports'!X13</f>
-        <v>2028194581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!X15/'EPS Primary Energy Use'!$B15</f>
+        <v>13189295138377.553</v>
       </c>
       <c r="Y13">
-        <f>'EPS Primary Energy Use'!Y15*1000000000000000-'BFPIaE-imports'!Y13+'BFPIaE-exports'!Y13</f>
-        <v>1652194581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!Y15/'EPS Primary Energy Use'!$B15</f>
+        <v>12993749472365.574</v>
       </c>
       <c r="Z13">
-        <f>'EPS Primary Energy Use'!Z15*1000000000000000-'BFPIaE-imports'!Z13+'BFPIaE-exports'!Z13</f>
-        <v>1213394581218.3672</v>
+        <f>$B13*'EPS Primary Energy Use'!Z15/'EPS Primary Energy Use'!$B15</f>
+        <v>12765543519583.512</v>
       </c>
       <c r="AA13">
-        <f>'EPS Primary Energy Use'!AA15*1000000000000000-'BFPIaE-imports'!AA13+'BFPIaE-exports'!AA13</f>
-        <v>839394581218.36719</v>
+        <f>$B13*'EPS Primary Energy Use'!AA15/'EPS Primary Energy Use'!$B15</f>
+        <v>12571037990092.873</v>
       </c>
       <c r="AB13">
-        <f>'EPS Primary Energy Use'!AB15*1000000000000000-'BFPIaE-imports'!AB13+'BFPIaE-exports'!AB13</f>
-        <v>572394581218.36719</v>
+        <f>$B13*'EPS Primary Energy Use'!AB15/'EPS Primary Energy Use'!$B15</f>
+        <v>12432179764493.943</v>
       </c>
       <c r="AC13">
-        <f>'EPS Primary Energy Use'!AC15*1000000000000000-'BFPIaE-imports'!AC13+'BFPIaE-exports'!AC13</f>
-        <v>156994581218.36719</v>
+        <f>$B13*'EPS Primary Energy Use'!AC15/'EPS Primary Energy Use'!$B15</f>
+        <v>12216143409011.563</v>
       </c>
       <c r="AD13">
-        <f>'EPS Primary Energy Use'!AD15*1000000000000000-'BFPIaE-imports'!AD13+'BFPIaE-exports'!AD13</f>
-        <v>-110805418781.63281</v>
+        <f>$B13*'EPS Primary Energy Use'!AD15/'EPS Primary Energy Use'!$B15</f>
+        <v>12076869128804.096</v>
       </c>
       <c r="AE13">
-        <f>'EPS Primary Energy Use'!AE15*1000000000000000-'BFPIaE-imports'!AE13+'BFPIaE-exports'!AE13</f>
-        <v>-420605418781.63281</v>
+        <f>$B13*'EPS Primary Energy Use'!AE15/'EPS Primary Energy Use'!$B15</f>
+        <v>11915751981648.482</v>
       </c>
       <c r="AF13">
-        <f>'EPS Primary Energy Use'!AF15*1000000000000000-'BFPIaE-imports'!AF13+'BFPIaE-exports'!AF13</f>
-        <v>-521605418781.63281</v>
+        <f>$B13*'EPS Primary Energy Use'!AF15/'EPS Primary Energy Use'!$B15</f>
+        <v>11863225087320.795</v>
       </c>
       <c r="AG13">
-        <f>'EPS Primary Energy Use'!AG15*1000000000000000-'BFPIaE-imports'!AG13+'BFPIaE-exports'!AG13</f>
-        <v>-760905418781.63281</v>
+        <f>$B13*'EPS Primary Energy Use'!AG15/'EPS Primary Energy Use'!$B15</f>
+        <v>11738772752542.428</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.45">
@@ -23711,8 +23718,8 @@
         <v>228</v>
       </c>
       <c r="B14">
-        <f>'Start Year Data'!B14</f>
-        <v>202407.28351380277</v>
+        <f>'Start Year Data'!B38</f>
+        <v>1147649297523261.8</v>
       </c>
       <c r="C14">
         <f>'EPS Primary Energy Use'!C16*1000000000000000-'BFPIaE-imports'!C14+'BFPIaE-exports'!C14</f>
@@ -23844,7 +23851,7 @@
         <v>252</v>
       </c>
       <c r="B15">
-        <f>'Start Year Data'!B15</f>
+        <f>'Start Year Data'!B39</f>
         <v>0</v>
       </c>
       <c r="C15">
@@ -23977,7 +23984,7 @@
         <v>241</v>
       </c>
       <c r="B16">
-        <f>'Start Year Data'!B16</f>
+        <f>'Start Year Data'!B40</f>
         <v>0</v>
       </c>
       <c r="C16">
@@ -24110,8 +24117,8 @@
         <v>242</v>
       </c>
       <c r="B17">
-        <f>'Start Year Data'!B17</f>
-        <v>440962891</v>
+        <f>'Start Year Data'!B41</f>
+        <v>502191000000000.06</v>
       </c>
       <c r="C17">
         <f>'EPS Primary Energy Use'!C19*1000000000000000-'BFPIaE-imports'!C17+'BFPIaE-exports'!C17</f>
@@ -24243,7 +24250,7 @@
         <v>229</v>
       </c>
       <c r="B18">
-        <f>'EPS Primary Energy Use'!B20*1000000000000000-'BFPIaE-imports'!B18+'BFPIaE-exports'!B18</f>
+        <f>'Start Year Data'!B42</f>
         <v>1.059069765E+16</v>
       </c>
       <c r="C18">
@@ -24376,8 +24383,8 @@
         <v>243</v>
       </c>
       <c r="B19">
-        <f>'Start Year Data'!B19</f>
-        <v>33936.473050609755</v>
+        <f>'Start Year Data'!B43</f>
+        <v>213358606069183.53</v>
       </c>
       <c r="C19">
         <f>'EPS Primary Energy Use'!C21*1000000000000000-'BFPIaE-imports'!C19+'BFPIaE-exports'!C19</f>
@@ -24509,8 +24516,8 @@
         <v>230</v>
       </c>
       <c r="B20">
-        <f>'Start Year Data'!B20</f>
-        <v>951218.13151843497</v>
+        <f>'Start Year Data'!B44</f>
+        <v>3651935674888206</v>
       </c>
       <c r="C20">
         <f>'EPS Primary Energy Use'!C22*1000000000000000-'BFPIaE-imports'!C20+'BFPIaE-exports'!C20</f>
@@ -24642,8 +24649,8 @@
         <v>244</v>
       </c>
       <c r="B21">
-        <f>'Start Year Data'!B21</f>
-        <v>35.31</v>
+        <f>'Start Year Data'!B45</f>
+        <v>479631428270381.69</v>
       </c>
       <c r="C21">
         <f>'EPS Primary Energy Use'!C23*1000000000000000-'BFPIaE-imports'!C21+'BFPIaE-exports'!C21</f>
@@ -24775,8 +24782,8 @@
         <v>245</v>
       </c>
       <c r="B22">
-        <f>'Start Year Data'!B22</f>
-        <v>0.3878125</v>
+        <f>'Start Year Data'!B46</f>
+        <v>339200203125000</v>
       </c>
       <c r="C22">
         <f>'EPS Primary Energy Use'!C24*1000000000000000-'BFPIaE-imports'!C22+'BFPIaE-exports'!C22</f>
@@ -24911,7 +24918,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A25" s="25"/>
-      <c r="B25" s="341"/>
+      <c r="B25" s="321"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A26" s="26"/>
@@ -25007,7 +25014,7 @@
   <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AG3"/>
+      <selection activeCell="B24" sqref="B24:AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25392,7 +25399,7 @@
         <v>1763914188855689.5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C3:R22" si="1">B4</f>
+        <f t="shared" ref="C4:C22" si="1">B4</f>
         <v>1763914188855689.5</v>
       </c>
       <c r="D4">
@@ -26456,128 +26463,128 @@
         <v>25361011805401.508</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!C14/'EPS Primary Energy Use'!$B14</f>
+        <v>31640393809667.469</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!D14/'EPS Primary Energy Use'!$B14</f>
+        <v>36833412682305.445</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!E14/'EPS Primary Energy Use'!$B14</f>
+        <v>43363128709822.82</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!F14/'EPS Primary Energy Use'!$B14</f>
+        <v>42045900643645.648</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!G14/'EPS Primary Energy Use'!$B14</f>
+        <v>40418489133391.727</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!H14/'EPS Primary Energy Use'!$B14</f>
+        <v>38523257473922.359</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!I14/'EPS Primary Energy Use'!$B14</f>
+        <v>35090508614996.984</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!J14/'EPS Primary Energy Use'!$B14</f>
+        <v>31074227903024.469</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!K14/'EPS Primary Energy Use'!$B14</f>
+        <v>25592117099070.473</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!L14/'EPS Primary Energy Use'!$B14</f>
+        <v>19072315885244.055</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!M14/'EPS Primary Energy Use'!$B14</f>
+        <v>13527471351027.346</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!N14/'EPS Primary Energy Use'!$B14</f>
+        <v>13730875256141.605</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!O14/'EPS Primary Energy Use'!$B14</f>
+        <v>13841019822781.025</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!P14/'EPS Primary Energy Use'!$B14</f>
+        <v>14163161133066.865</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!Q14/'EPS Primary Energy Use'!$B14</f>
+        <v>14804679623761.057</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!R14/'EPS Primary Energy Use'!$B14</f>
+        <v>14935134536021.934</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!S14/'EPS Primary Energy Use'!$B14</f>
+        <v>15196945707242.859</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!T14/'EPS Primary Energy Use'!$B14</f>
+        <v>15363634756810.646</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!U14/'EPS Primary Energy Use'!$B14</f>
+        <v>15323014065567.738</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!V14/'EPS Primary Energy Use'!$B14</f>
+        <v>14988914889072.822</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!W14/'EPS Primary Energy Use'!$B14</f>
+        <v>14592262251655.029</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!X14/'EPS Primary Energy Use'!$B14</f>
+        <v>13794269973983.717</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!Y14/'EPS Primary Energy Use'!$B14</f>
+        <v>13014725258755.561</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!Z14/'EPS Primary Energy Use'!$B14</f>
+        <v>12010745215432.348</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AA14/'EPS Primary Energy Use'!$B14</f>
+        <v>11286963815993.273</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AB14/'EPS Primary Energy Use'!$B14</f>
+        <v>10792244657705.025</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AC14/'EPS Primary Energy Use'!$B14</f>
+        <v>9271011788614.1465</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AD14/'EPS Primary Energy Use'!$B14</f>
+        <v>7457081601410.541</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AE14/'EPS Primary Energy Use'!$B14</f>
+        <v>6385680824988.8945</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AF14/'EPS Primary Energy Use'!$B14</f>
+        <v>6506761731578.3291</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
-        <v>25361011805401.508</v>
+        <f>$B12*'EPS Primary Energy Use'!AG14/'EPS Primary Energy Use'!$B14</f>
+        <v>6616966387997.6953</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.45">
@@ -26589,128 +26596,128 @@
         <v>23332505418781.633</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!C15/'EPS Primary Energy Use'!$B15</f>
+        <v>23088652102028.137</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!D15/'EPS Primary Energy Use'!$B15</f>
+        <v>24655389265070.422</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!E15/'EPS Primary Energy Use'!$B15</f>
+        <v>25239466191834.848</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!F15/'EPS Primary Energy Use'!$B15</f>
+        <v>24839875025668.816</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!G15/'EPS Primary Energy Use'!$B15</f>
+        <v>24177713204915.426</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!H15/'EPS Primary Energy Use'!$B15</f>
+        <v>23031396245526.086</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!I15/'EPS Primary Energy Use'!$B15</f>
+        <v>21751898228472.715</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!J15/'EPS Primary Energy Use'!$B15</f>
+        <v>20197111365739.742</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!K15/'EPS Primary Energy Use'!$B15</f>
+        <v>18197091828430.469</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!L15/'EPS Primary Energy Use'!$B15</f>
+        <v>15811207172700.004</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!M15/'EPS Primary Energy Use'!$B15</f>
+        <v>13548089055890.113</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!N15/'EPS Primary Energy Use'!$B15</f>
+        <v>13398734298610.662</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!O15/'EPS Primary Energy Use'!$B15</f>
+        <v>13262481677814.922</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!P15/'EPS Primary Energy Use'!$B15</f>
+        <v>13118118210624.504</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!Q15/'EPS Primary Energy Use'!$B15</f>
+        <v>13133428033109.123</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!R15/'EPS Primary Energy Use'!$B15</f>
+        <v>13198746742831.916</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!S15/'EPS Primary Energy Use'!$B15</f>
+        <v>13133092080891.594</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!T15/'EPS Primary Energy Use'!$B15</f>
+        <v>12965691890213.344</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!U15/'EPS Primary Energy Use'!$B15</f>
+        <v>12734652750899.955</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!V15/'EPS Primary Energy Use'!$B15</f>
+        <v>12500782014324.521</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!W15/'EPS Primary Energy Use'!$B15</f>
+        <v>12293979427847.287</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!X15/'EPS Primary Energy Use'!$B15</f>
+        <v>12171404861622.445</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!Y15/'EPS Primary Energy Use'!$B15</f>
+        <v>11990950527634.424</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!Z15/'EPS Primary Energy Use'!$B15</f>
+        <v>11780356480416.486</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!AA15/'EPS Primary Energy Use'!$B15</f>
+        <v>11600862009907.125</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!AB15/'EPS Primary Energy Use'!$B15</f>
+        <v>11472720235506.057</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!AC15/'EPS Primary Energy Use'!$B15</f>
+        <v>11273356590988.438</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!AD15/'EPS Primary Energy Use'!$B15</f>
+        <v>11144830871195.904</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!AE15/'EPS Primary Energy Use'!$B15</f>
+        <v>10996148018351.518</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!AF15/'EPS Primary Energy Use'!$B15</f>
+        <v>10947674912679.201</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
-        <v>23332505418781.633</v>
+        <f>$B13*'EPS Primary Energy Use'!AG15/'EPS Primary Energy Use'!$B15</f>
+        <v>10832827247457.57</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.45">
@@ -29037,131 +29044,131 @@
       </c>
       <c r="B9">
         <f>'Start Year Data'!D33</f>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>5951142435808.2686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.45">
@@ -30970,7 +30977,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="B14" sqref="B14:AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33215,7 +33222,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39274,44 +39281,44 @@
     </row>
     <row r="71" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="309" t="s">
+      <c r="B72" s="323" t="s">
         <v>182</v>
       </c>
-      <c r="C72" s="309"/>
-      <c r="D72" s="309"/>
-      <c r="E72" s="309"/>
-      <c r="F72" s="309"/>
-      <c r="G72" s="309"/>
-      <c r="H72" s="309"/>
-      <c r="I72" s="309"/>
-      <c r="J72" s="309"/>
-      <c r="K72" s="309"/>
-      <c r="L72" s="309"/>
-      <c r="M72" s="309"/>
-      <c r="N72" s="309"/>
-      <c r="O72" s="309"/>
-      <c r="P72" s="309"/>
-      <c r="Q72" s="309"/>
-      <c r="R72" s="309"/>
-      <c r="S72" s="309"/>
-      <c r="T72" s="309"/>
-      <c r="U72" s="309"/>
-      <c r="V72" s="309"/>
-      <c r="W72" s="309"/>
-      <c r="X72" s="309"/>
-      <c r="Y72" s="309"/>
-      <c r="Z72" s="309"/>
-      <c r="AA72" s="309"/>
-      <c r="AB72" s="309"/>
-      <c r="AC72" s="309"/>
-      <c r="AD72" s="309"/>
-      <c r="AE72" s="309"/>
-      <c r="AF72" s="309"/>
-      <c r="AG72" s="309"/>
-      <c r="AH72" s="309"/>
-      <c r="AI72" s="309"/>
-      <c r="AJ72" s="309"/>
-      <c r="AK72" s="309"/>
+      <c r="C72" s="323"/>
+      <c r="D72" s="323"/>
+      <c r="E72" s="323"/>
+      <c r="F72" s="323"/>
+      <c r="G72" s="323"/>
+      <c r="H72" s="323"/>
+      <c r="I72" s="323"/>
+      <c r="J72" s="323"/>
+      <c r="K72" s="323"/>
+      <c r="L72" s="323"/>
+      <c r="M72" s="323"/>
+      <c r="N72" s="323"/>
+      <c r="O72" s="323"/>
+      <c r="P72" s="323"/>
+      <c r="Q72" s="323"/>
+      <c r="R72" s="323"/>
+      <c r="S72" s="323"/>
+      <c r="T72" s="323"/>
+      <c r="U72" s="323"/>
+      <c r="V72" s="323"/>
+      <c r="W72" s="323"/>
+      <c r="X72" s="323"/>
+      <c r="Y72" s="323"/>
+      <c r="Z72" s="323"/>
+      <c r="AA72" s="323"/>
+      <c r="AB72" s="323"/>
+      <c r="AC72" s="323"/>
+      <c r="AD72" s="323"/>
+      <c r="AE72" s="323"/>
+      <c r="AF72" s="323"/>
+      <c r="AG72" s="323"/>
+      <c r="AH72" s="323"/>
+      <c r="AI72" s="323"/>
+      <c r="AJ72" s="323"/>
+      <c r="AK72" s="323"/>
     </row>
     <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="22" t="s">
@@ -39598,21 +39605,21 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="310" t="s">
+      <c r="C2" s="324" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="313" t="s">
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
+      <c r="F2" s="325"/>
+      <c r="G2" s="325"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="316" t="s">
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="329"/>
+      <c r="M2" s="330" t="s">
         <v>20</v>
       </c>
     </row>
@@ -39647,7 +39654,7 @@
       <c r="L3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="317"/>
+      <c r="M3" s="331"/>
     </row>
     <row r="4" spans="1:15" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A4" s="300" t="s">
@@ -42118,13 +42125,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="77" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="332" t="s">
         <v>679</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
       <c r="F1" s="258"/>
       <c r="G1" s="258"/>
       <c r="H1" s="258"/>
@@ -42447,7 +42454,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A35" s="324" t="s">
+      <c r="A35" s="308" t="s">
         <v>750</v>
       </c>
       <c r="B35">
@@ -42496,13 +42503,13 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="333" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
@@ -42570,13 +42577,13 @@
       <c r="B9" s="223"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="320" t="s">
+      <c r="A10" s="334" t="s">
         <v>620</v>
       </c>
-      <c r="B10" s="320"/>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="334"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -42611,13 +42618,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="321" t="s">
+      <c r="A13" s="335" t="s">
         <v>676</v>
       </c>
-      <c r="B13" s="321"/>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
+      <c r="B13" s="335"/>
+      <c r="C13" s="335"/>
+      <c r="D13" s="335"/>
+      <c r="E13" s="335"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
@@ -49413,44 +49420,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="322" t="s">
+      <c r="B78" s="336" t="s">
         <v>367</v>
       </c>
-      <c r="C78" s="322"/>
-      <c r="D78" s="322"/>
-      <c r="E78" s="322"/>
-      <c r="F78" s="322"/>
-      <c r="G78" s="322"/>
-      <c r="H78" s="322"/>
-      <c r="I78" s="322"/>
-      <c r="J78" s="322"/>
-      <c r="K78" s="322"/>
-      <c r="L78" s="322"/>
-      <c r="M78" s="322"/>
-      <c r="N78" s="322"/>
-      <c r="O78" s="322"/>
-      <c r="P78" s="322"/>
-      <c r="Q78" s="322"/>
-      <c r="R78" s="322"/>
-      <c r="S78" s="322"/>
-      <c r="T78" s="322"/>
-      <c r="U78" s="322"/>
-      <c r="V78" s="322"/>
-      <c r="W78" s="322"/>
-      <c r="X78" s="322"/>
-      <c r="Y78" s="322"/>
-      <c r="Z78" s="322"/>
-      <c r="AA78" s="322"/>
-      <c r="AB78" s="322"/>
-      <c r="AC78" s="322"/>
-      <c r="AD78" s="322"/>
-      <c r="AE78" s="322"/>
-      <c r="AF78" s="322"/>
-      <c r="AG78" s="322"/>
-      <c r="AH78" s="322"/>
-      <c r="AI78" s="322"/>
-      <c r="AJ78" s="322"/>
-      <c r="AK78" s="322"/>
+      <c r="C78" s="336"/>
+      <c r="D78" s="336"/>
+      <c r="E78" s="336"/>
+      <c r="F78" s="336"/>
+      <c r="G78" s="336"/>
+      <c r="H78" s="336"/>
+      <c r="I78" s="336"/>
+      <c r="J78" s="336"/>
+      <c r="K78" s="336"/>
+      <c r="L78" s="336"/>
+      <c r="M78" s="336"/>
+      <c r="N78" s="336"/>
+      <c r="O78" s="336"/>
+      <c r="P78" s="336"/>
+      <c r="Q78" s="336"/>
+      <c r="R78" s="336"/>
+      <c r="S78" s="336"/>
+      <c r="T78" s="336"/>
+      <c r="U78" s="336"/>
+      <c r="V78" s="336"/>
+      <c r="W78" s="336"/>
+      <c r="X78" s="336"/>
+      <c r="Y78" s="336"/>
+      <c r="Z78" s="336"/>
+      <c r="AA78" s="336"/>
+      <c r="AB78" s="336"/>
+      <c r="AC78" s="336"/>
+      <c r="AD78" s="336"/>
+      <c r="AE78" s="336"/>
+      <c r="AF78" s="336"/>
+      <c r="AG78" s="336"/>
+      <c r="AH78" s="336"/>
+      <c r="AI78" s="336"/>
+      <c r="AJ78" s="336"/>
+      <c r="AK78" s="336"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="22" t="s">
